--- a/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9776503248601478</v>
+        <v>0.9776503248601472</v>
       </c>
       <c r="D2">
-        <v>0.9981661897118799</v>
+        <v>0.9981661897118795</v>
       </c>
       <c r="E2">
-        <v>0.9869079305819749</v>
+        <v>0.9869079305819748</v>
       </c>
       <c r="F2">
-        <v>0.9541913000084424</v>
+        <v>0.954191300008442</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.000520697802721</v>
       </c>
       <c r="K2">
-        <v>1.009651131684168</v>
+        <v>1.009651131684167</v>
       </c>
       <c r="L2">
         <v>0.9985527231133643</v>
       </c>
       <c r="M2">
-        <v>0.9663279944033183</v>
+        <v>0.9663279944033182</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9848021054396185</v>
+        <v>0.9848021054396173</v>
       </c>
       <c r="D3">
-        <v>1.003750769337761</v>
+        <v>1.003750769337759</v>
       </c>
       <c r="E3">
-        <v>0.9927955179478377</v>
+        <v>0.9927955179478368</v>
       </c>
       <c r="F3">
-        <v>0.965060541764547</v>
+        <v>0.9650605417645459</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037914827465376</v>
+        <v>1.037914827465375</v>
       </c>
       <c r="J3">
-        <v>1.005715832873839</v>
+        <v>1.005715832873838</v>
       </c>
       <c r="K3">
-        <v>1.014335882274383</v>
+        <v>1.014335882274382</v>
       </c>
       <c r="L3">
-        <v>1.003521419073917</v>
+        <v>1.003521419073916</v>
       </c>
       <c r="M3">
-        <v>0.97616090012305</v>
+        <v>0.9761609001230489</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9892785588851655</v>
+        <v>0.9892785588851652</v>
       </c>
       <c r="D4">
         <v>1.007243484311299</v>
       </c>
       <c r="E4">
-        <v>0.9964873074103631</v>
+        <v>0.996487307410363</v>
       </c>
       <c r="F4">
-        <v>0.9718258842913791</v>
+        <v>0.9718258842913792</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>1.006628313240145</v>
       </c>
       <c r="M4">
-        <v>0.9822766756557598</v>
+        <v>0.98227667565576</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9911264687822108</v>
+        <v>0.99112646878221</v>
       </c>
       <c r="D5">
-        <v>1.008684589718135</v>
+        <v>1.008684589718134</v>
       </c>
       <c r="E5">
-        <v>0.9980128041782157</v>
+        <v>0.9980128041782149</v>
       </c>
       <c r="F5">
-        <v>0.9746107043101688</v>
+        <v>0.9746107043101676</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.039940900205464</v>
       </c>
       <c r="J5">
-        <v>1.010298292210281</v>
+        <v>1.01029829221028</v>
       </c>
       <c r="K5">
-        <v>1.018457317346354</v>
+        <v>1.018457317346352</v>
       </c>
       <c r="L5">
-        <v>1.007910068255589</v>
+        <v>1.007910068255588</v>
       </c>
       <c r="M5">
-        <v>0.9847929602122504</v>
+        <v>0.9847929602122492</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9914348080278066</v>
+        <v>0.9914348080278071</v>
       </c>
       <c r="D6">
-        <v>1.008925007216435</v>
+        <v>1.008925007216436</v>
       </c>
       <c r="E6">
-        <v>0.9982674319802894</v>
+        <v>0.99826743198029</v>
       </c>
       <c r="F6">
-        <v>0.9750749374290534</v>
+        <v>0.9750749374290538</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.040038846173771</v>
       </c>
       <c r="J6">
-        <v>1.010521404171057</v>
+        <v>1.010521404171058</v>
       </c>
       <c r="K6">
         <v>1.018657707997981</v>
       </c>
       <c r="L6">
-        <v>1.008123892010613</v>
+        <v>1.008123892010614</v>
       </c>
       <c r="M6">
-        <v>0.9852123583533137</v>
+        <v>0.985212358353314</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9893033815458374</v>
+        <v>0.9893033815458381</v>
       </c>
       <c r="D7">
-        <v>1.007262845305395</v>
+        <v>1.007262845305396</v>
       </c>
       <c r="E7">
-        <v>0.9965077933149131</v>
+        <v>0.9965077933149136</v>
       </c>
       <c r="F7">
-        <v>0.9718633224136641</v>
+        <v>0.9718633224136651</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039360160799362</v>
+        <v>1.039360160799363</v>
       </c>
       <c r="J7">
         <v>1.008978530487155</v>
       </c>
       <c r="K7">
-        <v>1.017271425139324</v>
+        <v>1.017271425139325</v>
       </c>
       <c r="L7">
         <v>1.00664553402993</v>
       </c>
       <c r="M7">
-        <v>0.9823105083447552</v>
+        <v>0.9823105083447562</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9801000196041287</v>
+        <v>0.9801000196041275</v>
       </c>
       <c r="D8">
         <v>1.000079638745369</v>
       </c>
       <c r="E8">
-        <v>0.9889231455111845</v>
+        <v>0.9889231455111838</v>
       </c>
       <c r="F8">
-        <v>0.9579231178039054</v>
+        <v>0.9579231178039038</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036388610973212</v>
+        <v>1.036388610973211</v>
       </c>
       <c r="J8">
-        <v>1.002301659187573</v>
+        <v>1.002301659187572</v>
       </c>
       <c r="K8">
-        <v>1.011258531381395</v>
+        <v>1.011258531381394</v>
       </c>
       <c r="L8">
-        <v>1.00025528023308</v>
+        <v>1.000255280233079</v>
       </c>
       <c r="M8">
-        <v>0.9697049131654395</v>
+        <v>0.9697049131654378</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9626114192005324</v>
+        <v>0.9626114192005334</v>
       </c>
       <c r="D9">
-        <v>0.9864087299059143</v>
+        <v>0.9864087299059149</v>
       </c>
       <c r="E9">
-        <v>0.9745692313403823</v>
+        <v>0.9745692313403831</v>
       </c>
       <c r="F9">
-        <v>0.9310580412587798</v>
+        <v>0.9310580412587802</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030583958732642</v>
       </c>
       <c r="J9">
-        <v>0.9895572454861026</v>
+        <v>0.9895572454861032</v>
       </c>
       <c r="K9">
-        <v>0.9997262333004835</v>
+        <v>0.999726233300484</v>
       </c>
       <c r="L9">
-        <v>0.9880888358003961</v>
+        <v>0.9880888358003969</v>
       </c>
       <c r="M9">
-        <v>0.9453783191460913</v>
+        <v>0.9453783191460917</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9499139158823031</v>
+        <v>0.9499139158823049</v>
       </c>
       <c r="D10">
-        <v>0.9764706885955288</v>
+        <v>0.9764706885955305</v>
       </c>
       <c r="E10">
-        <v>0.9641951418960467</v>
+        <v>0.9641951418960484</v>
       </c>
       <c r="F10">
-        <v>0.9111815772438088</v>
+        <v>0.9111815772438111</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026262758695555</v>
       </c>
       <c r="J10">
-        <v>0.9802659930185322</v>
+        <v>0.9802659930185338</v>
       </c>
       <c r="K10">
-        <v>0.991278177137448</v>
+        <v>0.9912781771374496</v>
       </c>
       <c r="L10">
-        <v>0.9792424236993389</v>
+        <v>0.9792424236993406</v>
       </c>
       <c r="M10">
-        <v>0.9273637487974203</v>
+        <v>0.9273637487974226</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9441187017946072</v>
+        <v>0.9441187017946081</v>
       </c>
       <c r="D11">
-        <v>0.9719322330144593</v>
+        <v>0.9719322330144597</v>
       </c>
       <c r="E11">
-        <v>0.9594735191548581</v>
+        <v>0.9594735191548586</v>
       </c>
       <c r="F11">
-        <v>0.9019874558030273</v>
+        <v>0.9019874558030279</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024265276918944</v>
+        <v>1.024265276918945</v>
       </c>
       <c r="J11">
-        <v>0.9760162812869722</v>
+        <v>0.9760162812869728</v>
       </c>
       <c r="K11">
-        <v>0.9874036147055724</v>
+        <v>0.9874036147055729</v>
       </c>
       <c r="L11">
-        <v>0.9752024299334613</v>
+        <v>0.9752024299334618</v>
       </c>
       <c r="M11">
-        <v>0.9190290293037016</v>
+        <v>0.9190290293037021</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.941916197353469</v>
+        <v>0.9419161973534681</v>
       </c>
       <c r="D12">
-        <v>0.9702069639054309</v>
+        <v>0.9702069639054304</v>
       </c>
       <c r="E12">
-        <v>0.9576811982147473</v>
+        <v>0.9576811982147463</v>
       </c>
       <c r="F12">
-        <v>0.8984710448634182</v>
+        <v>0.8984710448634178</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.023502321655443</v>
       </c>
       <c r="J12">
-        <v>0.9743997612203978</v>
+        <v>0.9743997612203968</v>
       </c>
       <c r="K12">
-        <v>0.9859281107700769</v>
+        <v>0.9859281107700762</v>
       </c>
       <c r="L12">
-        <v>0.9736666934534617</v>
+        <v>0.9736666934534607</v>
       </c>
       <c r="M12">
-        <v>0.9158412516874292</v>
+        <v>0.9158412516874286</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9423909953377835</v>
+        <v>0.9423909953377829</v>
       </c>
       <c r="D13">
-        <v>0.9705789018486023</v>
+        <v>0.9705789018486017</v>
       </c>
       <c r="E13">
-        <v>0.9580674717202734</v>
+        <v>0.9580674717202727</v>
       </c>
       <c r="F13">
-        <v>0.8992301517308241</v>
+        <v>0.8992301517308234</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.023666965041523</v>
       </c>
       <c r="J13">
-        <v>0.9747483008180272</v>
+        <v>0.9747483008180265</v>
       </c>
       <c r="K13">
-        <v>0.9862463236759448</v>
+        <v>0.9862463236759443</v>
       </c>
       <c r="L13">
-        <v>0.9739977683700864</v>
+        <v>0.973997768370086</v>
       </c>
       <c r="M13">
-        <v>0.9165294131456635</v>
+        <v>0.9165294131456629</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9439376939836973</v>
+        <v>0.9439376939836958</v>
       </c>
       <c r="D14">
-        <v>0.9717904539585065</v>
+        <v>0.9717904539585049</v>
       </c>
       <c r="E14">
-        <v>0.9593261765237068</v>
+        <v>0.9593261765237054</v>
       </c>
       <c r="F14">
-        <v>0.9016989403236559</v>
+        <v>0.9016989403236538</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.024202652235786</v>
       </c>
       <c r="J14">
-        <v>0.9758834596565509</v>
+        <v>0.9758834596565497</v>
       </c>
       <c r="K14">
-        <v>0.9872824144887515</v>
+        <v>0.9872824144887499</v>
       </c>
       <c r="L14">
-        <v>0.9750762249905817</v>
+        <v>0.9750762249905804</v>
       </c>
       <c r="M14">
-        <v>0.9187674773196584</v>
+        <v>0.9187674773196566</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9448838796053352</v>
+        <v>0.9448838796053349</v>
       </c>
       <c r="D15">
-        <v>0.9725315619327572</v>
+        <v>0.9725315619327571</v>
       </c>
       <c r="E15">
         <v>0.9600964722064302</v>
       </c>
       <c r="F15">
-        <v>0.9032061805025234</v>
+        <v>0.903206180502523</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024529857171696</v>
+        <v>1.024529857171695</v>
       </c>
       <c r="J15">
-        <v>0.9765777040521703</v>
+        <v>0.97657770405217</v>
       </c>
       <c r="K15">
-        <v>0.987915845996156</v>
+        <v>0.9879158459961558</v>
       </c>
       <c r="L15">
-        <v>0.9757359261025468</v>
+        <v>0.9757359261025466</v>
       </c>
       <c r="M15">
-        <v>0.9201338560606523</v>
+        <v>0.9201338560606519</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9502918367950086</v>
+        <v>0.9502918367950079</v>
       </c>
       <c r="D16">
-        <v>0.9767665983138326</v>
+        <v>0.9767665983138323</v>
       </c>
       <c r="E16">
-        <v>0.9645033373490742</v>
+        <v>0.9645033373490737</v>
       </c>
       <c r="F16">
-        <v>0.9117783317193177</v>
+        <v>0.9117783317193174</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.026392498713747</v>
       </c>
       <c r="J16">
-        <v>0.9805429381237848</v>
+        <v>0.9805429381237841</v>
       </c>
       <c r="K16">
-        <v>0.9915304497443835</v>
+        <v>0.9915304497443832</v>
       </c>
       <c r="L16">
-        <v>0.9795058363549239</v>
+        <v>0.9795058363549234</v>
       </c>
       <c r="M16">
         <v>0.9279047024016988</v>
@@ -991,13 +991,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9536011240444379</v>
+        <v>0.9536011240444378</v>
       </c>
       <c r="D17">
-        <v>0.9793574518856841</v>
+        <v>0.9793574518856839</v>
       </c>
       <c r="E17">
-        <v>0.9672035682446973</v>
+        <v>0.9672035682446976</v>
       </c>
       <c r="F17">
         <v>0.9169897494736291</v>
@@ -1012,13 +1012,13 @@
         <v>0.9829669989419524</v>
       </c>
       <c r="K17">
-        <v>0.9937373664658107</v>
+        <v>0.9937373664658103</v>
       </c>
       <c r="L17">
-        <v>0.9818121580340466</v>
+        <v>0.981812158034047</v>
       </c>
       <c r="M17">
-        <v>0.9326286305211621</v>
+        <v>0.9326286305211622</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9555031087670316</v>
+        <v>0.9555031087670315</v>
       </c>
       <c r="D18">
         <v>0.9808462739710002</v>
       </c>
       <c r="E18">
-        <v>0.9687567215414624</v>
+        <v>0.9687567215414622</v>
       </c>
       <c r="F18">
-        <v>0.9199738081460269</v>
+        <v>0.9199738081460272</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.028174700182063</v>
       </c>
       <c r="J18">
-        <v>0.9843593561378178</v>
+        <v>0.9843593561378177</v>
       </c>
       <c r="K18">
-        <v>0.9950040242844727</v>
+        <v>0.9950040242844725</v>
       </c>
       <c r="L18">
         <v>0.983137465506283</v>
       </c>
       <c r="M18">
-        <v>0.9353333657023671</v>
+        <v>0.9353333657023675</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9561469871033218</v>
+        <v>0.956146987103322</v>
       </c>
       <c r="D19">
-        <v>0.9813502419074829</v>
+        <v>0.981350241907483</v>
       </c>
       <c r="E19">
-        <v>0.9692827117929566</v>
+        <v>0.9692827117929567</v>
       </c>
       <c r="F19">
-        <v>0.9209822047113549</v>
+        <v>0.9209822047113547</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028393992280186</v>
       </c>
       <c r="J19">
-        <v>0.9848305663693731</v>
+        <v>0.9848305663693732</v>
       </c>
       <c r="K19">
-        <v>0.9954325319631847</v>
+        <v>0.9954325319631845</v>
       </c>
       <c r="L19">
-        <v>0.9835860806135384</v>
+        <v>0.9835860806135385</v>
       </c>
       <c r="M19">
-        <v>0.9362473336881222</v>
+        <v>0.9362473336881217</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.953249027689182</v>
+        <v>0.9532490276891812</v>
       </c>
       <c r="D20">
-        <v>0.9790818201426356</v>
+        <v>0.9790818201426348</v>
       </c>
       <c r="E20">
-        <v>0.9669161453519852</v>
+        <v>0.9669161453519844</v>
       </c>
       <c r="F20">
-        <v>0.9164364577609206</v>
+        <v>0.9164364577609204</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027405412154422</v>
+        <v>1.027405412154421</v>
       </c>
       <c r="J20">
-        <v>0.9827091761500416</v>
+        <v>0.9827091761500408</v>
       </c>
       <c r="K20">
-        <v>0.9935027410661563</v>
+        <v>0.9935027410661555</v>
       </c>
       <c r="L20">
-        <v>0.9815667973144205</v>
+        <v>0.9815667973144198</v>
       </c>
       <c r="M20">
-        <v>0.9321271132310559</v>
+        <v>0.9321271132310552</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9434836544657449</v>
+        <v>0.943483654465746</v>
       </c>
       <c r="D21">
-        <v>0.9714348092247579</v>
+        <v>0.9714348092247583</v>
       </c>
       <c r="E21">
-        <v>0.9589566179761284</v>
+        <v>0.9589566179761292</v>
       </c>
       <c r="F21">
-        <v>0.9009748590876384</v>
+        <v>0.900974859087639</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.024045503545762</v>
       </c>
       <c r="J21">
-        <v>0.9755502677522557</v>
+        <v>0.9755502677522566</v>
       </c>
       <c r="K21">
-        <v>0.986978348218387</v>
+        <v>0.9869783482183877</v>
       </c>
       <c r="L21">
-        <v>0.9747596479776947</v>
+        <v>0.9747596479776953</v>
       </c>
       <c r="M21">
-        <v>0.9181110657380366</v>
+        <v>0.9181110657380372</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9370516875957575</v>
+        <v>0.9370516875957574</v>
       </c>
       <c r="D22">
-        <v>0.9663957173288624</v>
+        <v>0.9663957173288626</v>
       </c>
       <c r="E22">
-        <v>0.9537268383537812</v>
+        <v>0.9537268383537809</v>
       </c>
       <c r="F22">
-        <v>0.89065870544757</v>
+        <v>0.8906587054475703</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1202,13 +1202,13 @@
         <v>0.9708268555071655</v>
       </c>
       <c r="K22">
-        <v>0.9826636267450157</v>
+        <v>0.982663626745016</v>
       </c>
       <c r="L22">
-        <v>0.97027429938473</v>
+        <v>0.9702742993847299</v>
       </c>
       <c r="M22">
-        <v>0.908759218871801</v>
+        <v>0.9087592188718016</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,31 +1219,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9404911046149828</v>
+        <v>0.9404911046149822</v>
       </c>
       <c r="D23">
-        <v>0.9690905419460344</v>
+        <v>0.9690905419460342</v>
       </c>
       <c r="E23">
-        <v>0.9565221406471288</v>
+        <v>0.9565221406471279</v>
       </c>
       <c r="F23">
-        <v>0.8961890221667786</v>
+        <v>0.8961890221667785</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023007590464461</v>
+        <v>1.023007590464462</v>
       </c>
       <c r="J23">
-        <v>0.9733534224981701</v>
+        <v>0.9733534224981695</v>
       </c>
       <c r="K23">
-        <v>0.9849725580421981</v>
+        <v>0.9849725580421977</v>
       </c>
       <c r="L23">
-        <v>0.9726729392502677</v>
+        <v>0.9726729392502669</v>
       </c>
       <c r="M23">
         <v>0.9137725163549986</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9534082118397944</v>
+        <v>0.9534082118397934</v>
       </c>
       <c r="D24">
-        <v>0.9792064351150882</v>
+        <v>0.9792064351150873</v>
       </c>
       <c r="E24">
-        <v>0.9670460865994304</v>
+        <v>0.9670460865994293</v>
       </c>
       <c r="F24">
-        <v>0.9166866375576825</v>
+        <v>0.9166866375576811</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.027459819946205</v>
       </c>
       <c r="J24">
-        <v>0.982825741496266</v>
+        <v>0.982825741496265</v>
       </c>
       <c r="K24">
-        <v>0.9936088215635541</v>
+        <v>0.9936088215635531</v>
       </c>
       <c r="L24">
-        <v>0.9816777265865778</v>
+        <v>0.9816777265865767</v>
       </c>
       <c r="M24">
-        <v>0.932353882982798</v>
+        <v>0.9323538829827966</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.967300585068077</v>
+        <v>0.9673005850680764</v>
       </c>
       <c r="D25">
-        <v>0.9900764793353438</v>
+        <v>0.9900764793353435</v>
       </c>
       <c r="E25">
-        <v>0.9784104282803633</v>
+        <v>0.9784104282803627</v>
       </c>
       <c r="F25">
-        <v>0.9383147804577345</v>
+        <v>0.9383147804577335</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.032158461926238</v>
       </c>
       <c r="J25">
-        <v>0.9929808508933332</v>
+        <v>0.9929808508933324</v>
       </c>
       <c r="K25">
-        <v>1.002830823621409</v>
+        <v>1.002830823621408</v>
       </c>
       <c r="L25">
-        <v>0.9913534030147994</v>
+        <v>0.991353403014799</v>
       </c>
       <c r="M25">
-        <v>0.9519526314886601</v>
+        <v>0.9519526314886589</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9776503248601472</v>
+        <v>0.9776503248601478</v>
       </c>
       <c r="D2">
-        <v>0.9981661897118795</v>
+        <v>0.9981661897118799</v>
       </c>
       <c r="E2">
-        <v>0.9869079305819748</v>
+        <v>0.9869079305819749</v>
       </c>
       <c r="F2">
-        <v>0.954191300008442</v>
+        <v>0.9541913000084424</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.000520697802721</v>
       </c>
       <c r="K2">
-        <v>1.009651131684167</v>
+        <v>1.009651131684168</v>
       </c>
       <c r="L2">
         <v>0.9985527231133643</v>
       </c>
       <c r="M2">
-        <v>0.9663279944033182</v>
+        <v>0.9663279944033183</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9848021054396173</v>
+        <v>0.9848021054396185</v>
       </c>
       <c r="D3">
-        <v>1.003750769337759</v>
+        <v>1.003750769337761</v>
       </c>
       <c r="E3">
-        <v>0.9927955179478368</v>
+        <v>0.9927955179478377</v>
       </c>
       <c r="F3">
-        <v>0.9650605417645459</v>
+        <v>0.965060541764547</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037914827465375</v>
+        <v>1.037914827465376</v>
       </c>
       <c r="J3">
-        <v>1.005715832873838</v>
+        <v>1.005715832873839</v>
       </c>
       <c r="K3">
-        <v>1.014335882274382</v>
+        <v>1.014335882274383</v>
       </c>
       <c r="L3">
-        <v>1.003521419073916</v>
+        <v>1.003521419073917</v>
       </c>
       <c r="M3">
-        <v>0.9761609001230489</v>
+        <v>0.97616090012305</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9892785588851652</v>
+        <v>0.9892785588851655</v>
       </c>
       <c r="D4">
         <v>1.007243484311299</v>
       </c>
       <c r="E4">
-        <v>0.996487307410363</v>
+        <v>0.9964873074103631</v>
       </c>
       <c r="F4">
-        <v>0.9718258842913792</v>
+        <v>0.9718258842913791</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>1.006628313240145</v>
       </c>
       <c r="M4">
-        <v>0.98227667565576</v>
+        <v>0.9822766756557598</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.99112646878221</v>
+        <v>0.9911264687822108</v>
       </c>
       <c r="D5">
-        <v>1.008684589718134</v>
+        <v>1.008684589718135</v>
       </c>
       <c r="E5">
-        <v>0.9980128041782149</v>
+        <v>0.9980128041782157</v>
       </c>
       <c r="F5">
-        <v>0.9746107043101676</v>
+        <v>0.9746107043101688</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.039940900205464</v>
       </c>
       <c r="J5">
-        <v>1.01029829221028</v>
+        <v>1.010298292210281</v>
       </c>
       <c r="K5">
-        <v>1.018457317346352</v>
+        <v>1.018457317346354</v>
       </c>
       <c r="L5">
-        <v>1.007910068255588</v>
+        <v>1.007910068255589</v>
       </c>
       <c r="M5">
-        <v>0.9847929602122492</v>
+        <v>0.9847929602122504</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9914348080278071</v>
+        <v>0.9914348080278066</v>
       </c>
       <c r="D6">
-        <v>1.008925007216436</v>
+        <v>1.008925007216435</v>
       </c>
       <c r="E6">
-        <v>0.99826743198029</v>
+        <v>0.9982674319802894</v>
       </c>
       <c r="F6">
-        <v>0.9750749374290538</v>
+        <v>0.9750749374290534</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.040038846173771</v>
       </c>
       <c r="J6">
-        <v>1.010521404171058</v>
+        <v>1.010521404171057</v>
       </c>
       <c r="K6">
         <v>1.018657707997981</v>
       </c>
       <c r="L6">
-        <v>1.008123892010614</v>
+        <v>1.008123892010613</v>
       </c>
       <c r="M6">
-        <v>0.985212358353314</v>
+        <v>0.9852123583533137</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9893033815458381</v>
+        <v>0.9893033815458374</v>
       </c>
       <c r="D7">
-        <v>1.007262845305396</v>
+        <v>1.007262845305395</v>
       </c>
       <c r="E7">
-        <v>0.9965077933149136</v>
+        <v>0.9965077933149131</v>
       </c>
       <c r="F7">
-        <v>0.9718633224136651</v>
+        <v>0.9718633224136641</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039360160799363</v>
+        <v>1.039360160799362</v>
       </c>
       <c r="J7">
         <v>1.008978530487155</v>
       </c>
       <c r="K7">
-        <v>1.017271425139325</v>
+        <v>1.017271425139324</v>
       </c>
       <c r="L7">
         <v>1.00664553402993</v>
       </c>
       <c r="M7">
-        <v>0.9823105083447562</v>
+        <v>0.9823105083447552</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9801000196041275</v>
+        <v>0.9801000196041287</v>
       </c>
       <c r="D8">
         <v>1.000079638745369</v>
       </c>
       <c r="E8">
-        <v>0.9889231455111838</v>
+        <v>0.9889231455111845</v>
       </c>
       <c r="F8">
-        <v>0.9579231178039038</v>
+        <v>0.9579231178039054</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036388610973211</v>
+        <v>1.036388610973212</v>
       </c>
       <c r="J8">
-        <v>1.002301659187572</v>
+        <v>1.002301659187573</v>
       </c>
       <c r="K8">
-        <v>1.011258531381394</v>
+        <v>1.011258531381395</v>
       </c>
       <c r="L8">
-        <v>1.000255280233079</v>
+        <v>1.00025528023308</v>
       </c>
       <c r="M8">
-        <v>0.9697049131654378</v>
+        <v>0.9697049131654395</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9626114192005334</v>
+        <v>0.9626114192005324</v>
       </c>
       <c r="D9">
-        <v>0.9864087299059149</v>
+        <v>0.9864087299059143</v>
       </c>
       <c r="E9">
-        <v>0.9745692313403831</v>
+        <v>0.9745692313403823</v>
       </c>
       <c r="F9">
-        <v>0.9310580412587802</v>
+        <v>0.9310580412587798</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030583958732642</v>
       </c>
       <c r="J9">
-        <v>0.9895572454861032</v>
+        <v>0.9895572454861026</v>
       </c>
       <c r="K9">
-        <v>0.999726233300484</v>
+        <v>0.9997262333004835</v>
       </c>
       <c r="L9">
-        <v>0.9880888358003969</v>
+        <v>0.9880888358003961</v>
       </c>
       <c r="M9">
-        <v>0.9453783191460917</v>
+        <v>0.9453783191460913</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9499139158823049</v>
+        <v>0.9499139158823031</v>
       </c>
       <c r="D10">
-        <v>0.9764706885955305</v>
+        <v>0.9764706885955288</v>
       </c>
       <c r="E10">
-        <v>0.9641951418960484</v>
+        <v>0.9641951418960467</v>
       </c>
       <c r="F10">
-        <v>0.9111815772438111</v>
+        <v>0.9111815772438088</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026262758695555</v>
       </c>
       <c r="J10">
-        <v>0.9802659930185338</v>
+        <v>0.9802659930185322</v>
       </c>
       <c r="K10">
-        <v>0.9912781771374496</v>
+        <v>0.991278177137448</v>
       </c>
       <c r="L10">
-        <v>0.9792424236993406</v>
+        <v>0.9792424236993389</v>
       </c>
       <c r="M10">
-        <v>0.9273637487974226</v>
+        <v>0.9273637487974203</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9441187017946081</v>
+        <v>0.9441187017946072</v>
       </c>
       <c r="D11">
-        <v>0.9719322330144597</v>
+        <v>0.9719322330144593</v>
       </c>
       <c r="E11">
-        <v>0.9594735191548586</v>
+        <v>0.9594735191548581</v>
       </c>
       <c r="F11">
-        <v>0.9019874558030279</v>
+        <v>0.9019874558030273</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024265276918945</v>
+        <v>1.024265276918944</v>
       </c>
       <c r="J11">
-        <v>0.9760162812869728</v>
+        <v>0.9760162812869722</v>
       </c>
       <c r="K11">
-        <v>0.9874036147055729</v>
+        <v>0.9874036147055724</v>
       </c>
       <c r="L11">
-        <v>0.9752024299334618</v>
+        <v>0.9752024299334613</v>
       </c>
       <c r="M11">
-        <v>0.9190290293037021</v>
+        <v>0.9190290293037016</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9419161973534681</v>
+        <v>0.941916197353469</v>
       </c>
       <c r="D12">
-        <v>0.9702069639054304</v>
+        <v>0.9702069639054309</v>
       </c>
       <c r="E12">
-        <v>0.9576811982147463</v>
+        <v>0.9576811982147473</v>
       </c>
       <c r="F12">
-        <v>0.8984710448634178</v>
+        <v>0.8984710448634182</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.023502321655443</v>
       </c>
       <c r="J12">
-        <v>0.9743997612203968</v>
+        <v>0.9743997612203978</v>
       </c>
       <c r="K12">
-        <v>0.9859281107700762</v>
+        <v>0.9859281107700769</v>
       </c>
       <c r="L12">
-        <v>0.9736666934534607</v>
+        <v>0.9736666934534617</v>
       </c>
       <c r="M12">
-        <v>0.9158412516874286</v>
+        <v>0.9158412516874292</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9423909953377829</v>
+        <v>0.9423909953377835</v>
       </c>
       <c r="D13">
-        <v>0.9705789018486017</v>
+        <v>0.9705789018486023</v>
       </c>
       <c r="E13">
-        <v>0.9580674717202727</v>
+        <v>0.9580674717202734</v>
       </c>
       <c r="F13">
-        <v>0.8992301517308234</v>
+        <v>0.8992301517308241</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.023666965041523</v>
       </c>
       <c r="J13">
-        <v>0.9747483008180265</v>
+        <v>0.9747483008180272</v>
       </c>
       <c r="K13">
-        <v>0.9862463236759443</v>
+        <v>0.9862463236759448</v>
       </c>
       <c r="L13">
-        <v>0.973997768370086</v>
+        <v>0.9739977683700864</v>
       </c>
       <c r="M13">
-        <v>0.9165294131456629</v>
+        <v>0.9165294131456635</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9439376939836958</v>
+        <v>0.9439376939836973</v>
       </c>
       <c r="D14">
-        <v>0.9717904539585049</v>
+        <v>0.9717904539585065</v>
       </c>
       <c r="E14">
-        <v>0.9593261765237054</v>
+        <v>0.9593261765237068</v>
       </c>
       <c r="F14">
-        <v>0.9016989403236538</v>
+        <v>0.9016989403236559</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.024202652235786</v>
       </c>
       <c r="J14">
-        <v>0.9758834596565497</v>
+        <v>0.9758834596565509</v>
       </c>
       <c r="K14">
-        <v>0.9872824144887499</v>
+        <v>0.9872824144887515</v>
       </c>
       <c r="L14">
-        <v>0.9750762249905804</v>
+        <v>0.9750762249905817</v>
       </c>
       <c r="M14">
-        <v>0.9187674773196566</v>
+        <v>0.9187674773196584</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9448838796053349</v>
+        <v>0.9448838796053352</v>
       </c>
       <c r="D15">
-        <v>0.9725315619327571</v>
+        <v>0.9725315619327572</v>
       </c>
       <c r="E15">
         <v>0.9600964722064302</v>
       </c>
       <c r="F15">
-        <v>0.903206180502523</v>
+        <v>0.9032061805025234</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024529857171695</v>
+        <v>1.024529857171696</v>
       </c>
       <c r="J15">
-        <v>0.97657770405217</v>
+        <v>0.9765777040521703</v>
       </c>
       <c r="K15">
-        <v>0.9879158459961558</v>
+        <v>0.987915845996156</v>
       </c>
       <c r="L15">
-        <v>0.9757359261025466</v>
+        <v>0.9757359261025468</v>
       </c>
       <c r="M15">
-        <v>0.9201338560606519</v>
+        <v>0.9201338560606523</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9502918367950079</v>
+        <v>0.9502918367950086</v>
       </c>
       <c r="D16">
-        <v>0.9767665983138323</v>
+        <v>0.9767665983138326</v>
       </c>
       <c r="E16">
-        <v>0.9645033373490737</v>
+        <v>0.9645033373490742</v>
       </c>
       <c r="F16">
-        <v>0.9117783317193174</v>
+        <v>0.9117783317193177</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.026392498713747</v>
       </c>
       <c r="J16">
-        <v>0.9805429381237841</v>
+        <v>0.9805429381237848</v>
       </c>
       <c r="K16">
-        <v>0.9915304497443832</v>
+        <v>0.9915304497443835</v>
       </c>
       <c r="L16">
-        <v>0.9795058363549234</v>
+        <v>0.9795058363549239</v>
       </c>
       <c r="M16">
         <v>0.9279047024016988</v>
@@ -991,13 +991,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9536011240444378</v>
+        <v>0.9536011240444379</v>
       </c>
       <c r="D17">
-        <v>0.9793574518856839</v>
+        <v>0.9793574518856841</v>
       </c>
       <c r="E17">
-        <v>0.9672035682446976</v>
+        <v>0.9672035682446973</v>
       </c>
       <c r="F17">
         <v>0.9169897494736291</v>
@@ -1012,13 +1012,13 @@
         <v>0.9829669989419524</v>
       </c>
       <c r="K17">
-        <v>0.9937373664658103</v>
+        <v>0.9937373664658107</v>
       </c>
       <c r="L17">
-        <v>0.981812158034047</v>
+        <v>0.9818121580340466</v>
       </c>
       <c r="M17">
-        <v>0.9326286305211622</v>
+        <v>0.9326286305211621</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9555031087670315</v>
+        <v>0.9555031087670316</v>
       </c>
       <c r="D18">
         <v>0.9808462739710002</v>
       </c>
       <c r="E18">
-        <v>0.9687567215414622</v>
+        <v>0.9687567215414624</v>
       </c>
       <c r="F18">
-        <v>0.9199738081460272</v>
+        <v>0.9199738081460269</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.028174700182063</v>
       </c>
       <c r="J18">
-        <v>0.9843593561378177</v>
+        <v>0.9843593561378178</v>
       </c>
       <c r="K18">
-        <v>0.9950040242844725</v>
+        <v>0.9950040242844727</v>
       </c>
       <c r="L18">
         <v>0.983137465506283</v>
       </c>
       <c r="M18">
-        <v>0.9353333657023675</v>
+        <v>0.9353333657023671</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.956146987103322</v>
+        <v>0.9561469871033218</v>
       </c>
       <c r="D19">
-        <v>0.981350241907483</v>
+        <v>0.9813502419074829</v>
       </c>
       <c r="E19">
-        <v>0.9692827117929567</v>
+        <v>0.9692827117929566</v>
       </c>
       <c r="F19">
-        <v>0.9209822047113547</v>
+        <v>0.9209822047113549</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028393992280186</v>
       </c>
       <c r="J19">
-        <v>0.9848305663693732</v>
+        <v>0.9848305663693731</v>
       </c>
       <c r="K19">
-        <v>0.9954325319631845</v>
+        <v>0.9954325319631847</v>
       </c>
       <c r="L19">
-        <v>0.9835860806135385</v>
+        <v>0.9835860806135384</v>
       </c>
       <c r="M19">
-        <v>0.9362473336881217</v>
+        <v>0.9362473336881222</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9532490276891812</v>
+        <v>0.953249027689182</v>
       </c>
       <c r="D20">
-        <v>0.9790818201426348</v>
+        <v>0.9790818201426356</v>
       </c>
       <c r="E20">
-        <v>0.9669161453519844</v>
+        <v>0.9669161453519852</v>
       </c>
       <c r="F20">
-        <v>0.9164364577609204</v>
+        <v>0.9164364577609206</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027405412154421</v>
+        <v>1.027405412154422</v>
       </c>
       <c r="J20">
-        <v>0.9827091761500408</v>
+        <v>0.9827091761500416</v>
       </c>
       <c r="K20">
-        <v>0.9935027410661555</v>
+        <v>0.9935027410661563</v>
       </c>
       <c r="L20">
-        <v>0.9815667973144198</v>
+        <v>0.9815667973144205</v>
       </c>
       <c r="M20">
-        <v>0.9321271132310552</v>
+        <v>0.9321271132310559</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.943483654465746</v>
+        <v>0.9434836544657449</v>
       </c>
       <c r="D21">
-        <v>0.9714348092247583</v>
+        <v>0.9714348092247579</v>
       </c>
       <c r="E21">
-        <v>0.9589566179761292</v>
+        <v>0.9589566179761284</v>
       </c>
       <c r="F21">
-        <v>0.900974859087639</v>
+        <v>0.9009748590876384</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.024045503545762</v>
       </c>
       <c r="J21">
-        <v>0.9755502677522566</v>
+        <v>0.9755502677522557</v>
       </c>
       <c r="K21">
-        <v>0.9869783482183877</v>
+        <v>0.986978348218387</v>
       </c>
       <c r="L21">
-        <v>0.9747596479776953</v>
+        <v>0.9747596479776947</v>
       </c>
       <c r="M21">
-        <v>0.9181110657380372</v>
+        <v>0.9181110657380366</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9370516875957574</v>
+        <v>0.9370516875957575</v>
       </c>
       <c r="D22">
-        <v>0.9663957173288626</v>
+        <v>0.9663957173288624</v>
       </c>
       <c r="E22">
-        <v>0.9537268383537809</v>
+        <v>0.9537268383537812</v>
       </c>
       <c r="F22">
-        <v>0.8906587054475703</v>
+        <v>0.89065870544757</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1202,13 +1202,13 @@
         <v>0.9708268555071655</v>
       </c>
       <c r="K22">
-        <v>0.982663626745016</v>
+        <v>0.9826636267450157</v>
       </c>
       <c r="L22">
-        <v>0.9702742993847299</v>
+        <v>0.97027429938473</v>
       </c>
       <c r="M22">
-        <v>0.9087592188718016</v>
+        <v>0.908759218871801</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,31 +1219,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9404911046149822</v>
+        <v>0.9404911046149828</v>
       </c>
       <c r="D23">
-        <v>0.9690905419460342</v>
+        <v>0.9690905419460344</v>
       </c>
       <c r="E23">
-        <v>0.9565221406471279</v>
+        <v>0.9565221406471288</v>
       </c>
       <c r="F23">
-        <v>0.8961890221667785</v>
+        <v>0.8961890221667786</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023007590464462</v>
+        <v>1.023007590464461</v>
       </c>
       <c r="J23">
-        <v>0.9733534224981695</v>
+        <v>0.9733534224981701</v>
       </c>
       <c r="K23">
-        <v>0.9849725580421977</v>
+        <v>0.9849725580421981</v>
       </c>
       <c r="L23">
-        <v>0.9726729392502669</v>
+        <v>0.9726729392502677</v>
       </c>
       <c r="M23">
         <v>0.9137725163549986</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9534082118397934</v>
+        <v>0.9534082118397944</v>
       </c>
       <c r="D24">
-        <v>0.9792064351150873</v>
+        <v>0.9792064351150882</v>
       </c>
       <c r="E24">
-        <v>0.9670460865994293</v>
+        <v>0.9670460865994304</v>
       </c>
       <c r="F24">
-        <v>0.9166866375576811</v>
+        <v>0.9166866375576825</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.027459819946205</v>
       </c>
       <c r="J24">
-        <v>0.982825741496265</v>
+        <v>0.982825741496266</v>
       </c>
       <c r="K24">
-        <v>0.9936088215635531</v>
+        <v>0.9936088215635541</v>
       </c>
       <c r="L24">
-        <v>0.9816777265865767</v>
+        <v>0.9816777265865778</v>
       </c>
       <c r="M24">
-        <v>0.9323538829827966</v>
+        <v>0.932353882982798</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9673005850680764</v>
+        <v>0.967300585068077</v>
       </c>
       <c r="D25">
-        <v>0.9900764793353435</v>
+        <v>0.9900764793353438</v>
       </c>
       <c r="E25">
-        <v>0.9784104282803627</v>
+        <v>0.9784104282803633</v>
       </c>
       <c r="F25">
-        <v>0.9383147804577335</v>
+        <v>0.9383147804577345</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.032158461926238</v>
       </c>
       <c r="J25">
-        <v>0.9929808508933324</v>
+        <v>0.9929808508933332</v>
       </c>
       <c r="K25">
-        <v>1.002830823621408</v>
+        <v>1.002830823621409</v>
       </c>
       <c r="L25">
-        <v>0.991353403014799</v>
+        <v>0.9913534030147994</v>
       </c>
       <c r="M25">
-        <v>0.9519526314886589</v>
+        <v>0.9519526314886601</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9776503248601478</v>
+        <v>0.9776638995644906</v>
       </c>
       <c r="D2">
-        <v>0.9981661897118799</v>
+        <v>0.998176769915915</v>
       </c>
       <c r="E2">
-        <v>0.9869079305819749</v>
+        <v>0.9869202710707525</v>
       </c>
       <c r="F2">
-        <v>0.9541913000084424</v>
+        <v>0.9542029878972245</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035587245713027</v>
+        <v>1.03559261248052</v>
       </c>
       <c r="J2">
-        <v>1.000520697802721</v>
+        <v>1.000533840362375</v>
       </c>
       <c r="K2">
-        <v>1.009651131684168</v>
+        <v>1.009661563806535</v>
       </c>
       <c r="L2">
-        <v>0.9985527231133643</v>
+        <v>0.998564885856548</v>
       </c>
       <c r="M2">
-        <v>0.9663279944033183</v>
+        <v>0.9663394988581425</v>
+      </c>
+      <c r="N2">
+        <v>1.002378975959006</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9848021054396185</v>
+        <v>0.984811946731869</v>
       </c>
       <c r="D3">
-        <v>1.003750769337761</v>
+        <v>1.003758490351878</v>
       </c>
       <c r="E3">
-        <v>0.9927955179478377</v>
+        <v>0.9928045741835668</v>
       </c>
       <c r="F3">
-        <v>0.965060541764547</v>
+        <v>0.9650689767762751</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037914827465376</v>
+        <v>1.037918748710525</v>
       </c>
       <c r="J3">
-        <v>1.005715832873839</v>
+        <v>1.005725394433451</v>
       </c>
       <c r="K3">
-        <v>1.014335882274383</v>
+        <v>1.014343505417272</v>
       </c>
       <c r="L3">
-        <v>1.003521419073917</v>
+        <v>1.003530357319322</v>
       </c>
       <c r="M3">
-        <v>0.97616090012305</v>
+        <v>0.9761692171216116</v>
+      </c>
+      <c r="N3">
+        <v>1.005948025671521</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9892785588851655</v>
+        <v>0.9892861078723749</v>
       </c>
       <c r="D4">
-        <v>1.007243484311299</v>
+        <v>1.007249448189503</v>
       </c>
       <c r="E4">
-        <v>0.9964873074103631</v>
+        <v>0.9964943427865035</v>
       </c>
       <c r="F4">
-        <v>0.9718258842913791</v>
+        <v>0.9718323568245717</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039352234672694</v>
+        <v>1.03935526591439</v>
       </c>
       <c r="J4">
-        <v>1.008960554100718</v>
+        <v>1.008967904264408</v>
       </c>
       <c r="K4">
-        <v>1.01725526595303</v>
+        <v>1.017261159130143</v>
       </c>
       <c r="L4">
-        <v>1.006628313240145</v>
+        <v>1.006635262960728</v>
       </c>
       <c r="M4">
-        <v>0.9822766756557598</v>
+        <v>0.9822830643031011</v>
+      </c>
+      <c r="N4">
+        <v>1.008175971615676</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9911264687822108</v>
+        <v>0.9911330808806188</v>
       </c>
       <c r="D5">
-        <v>1.008684589718135</v>
+        <v>1.008689835091075</v>
       </c>
       <c r="E5">
-        <v>0.9980128041782157</v>
+        <v>0.9980190127273205</v>
       </c>
       <c r="F5">
-        <v>0.9746107043101688</v>
+        <v>0.9746163820156709</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039940900205464</v>
+        <v>1.039943567136914</v>
       </c>
       <c r="J5">
-        <v>1.010298292210281</v>
+        <v>1.010304735784415</v>
       </c>
       <c r="K5">
-        <v>1.018457317346354</v>
+        <v>1.0184625023077</v>
       </c>
       <c r="L5">
-        <v>1.007910068255589</v>
+        <v>1.00791620339394</v>
       </c>
       <c r="M5">
-        <v>0.9847929602122504</v>
+        <v>0.9847985667053166</v>
+      </c>
+      <c r="N5">
+        <v>1.00909421441601</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9914348080278066</v>
+        <v>0.9914412643162039</v>
       </c>
       <c r="D6">
-        <v>1.008925007216435</v>
+        <v>1.008930133078561</v>
       </c>
       <c r="E6">
-        <v>0.9982674319802894</v>
+        <v>0.9982735029757973</v>
       </c>
       <c r="F6">
-        <v>0.9750749374290534</v>
+        <v>0.975080483348835</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040038846173771</v>
+        <v>1.04004145248648</v>
       </c>
       <c r="J6">
-        <v>1.010521404171057</v>
+        <v>1.010527696818592</v>
       </c>
       <c r="K6">
-        <v>1.018657707997981</v>
+        <v>1.018662775113477</v>
       </c>
       <c r="L6">
-        <v>1.008123892010613</v>
+        <v>1.008129891576681</v>
       </c>
       <c r="M6">
-        <v>0.9852123583533137</v>
+        <v>0.9852178350978682</v>
+      </c>
+      <c r="N6">
+        <v>1.009247343714468</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9893033815458374</v>
+        <v>0.9893109179123838</v>
       </c>
       <c r="D7">
-        <v>1.007262845305395</v>
+        <v>1.007268799506066</v>
       </c>
       <c r="E7">
-        <v>0.9965077933149131</v>
+        <v>0.9965148175563131</v>
       </c>
       <c r="F7">
-        <v>0.9718633224136641</v>
+        <v>0.9718697842123453</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039360160799362</v>
+        <v>1.03936318713567</v>
       </c>
       <c r="J7">
-        <v>1.008978530487155</v>
+        <v>1.008985868449</v>
       </c>
       <c r="K7">
-        <v>1.017271425139324</v>
+        <v>1.017277308780672</v>
       </c>
       <c r="L7">
-        <v>1.00664553402993</v>
+        <v>1.006652472784483</v>
       </c>
       <c r="M7">
-        <v>0.9823105083447552</v>
+        <v>0.9823168864331611</v>
+      </c>
+      <c r="N7">
+        <v>1.008188312068628</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9801000196041287</v>
+        <v>0.9801123052377754</v>
       </c>
       <c r="D8">
-        <v>1.000079638745369</v>
+        <v>1.000089232097128</v>
       </c>
       <c r="E8">
-        <v>0.9889231455111845</v>
+        <v>0.9889343530494218</v>
       </c>
       <c r="F8">
-        <v>0.9579231178039054</v>
+        <v>0.9579336743488982</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036388610973212</v>
+        <v>1.036393479178953</v>
       </c>
       <c r="J8">
-        <v>1.002301659187573</v>
+        <v>1.002313568193684</v>
       </c>
       <c r="K8">
-        <v>1.011258531381395</v>
+        <v>1.01126799481271</v>
       </c>
       <c r="L8">
-        <v>1.00025528023308</v>
+        <v>1.00026633163893</v>
       </c>
       <c r="M8">
-        <v>0.9697049131654395</v>
+        <v>0.9697153102780335</v>
+      </c>
+      <c r="N8">
+        <v>1.003602731480772</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9626114192005324</v>
+        <v>0.962633166722923</v>
       </c>
       <c r="D9">
-        <v>0.9864087299059143</v>
+        <v>0.9864255578874357</v>
       </c>
       <c r="E9">
-        <v>0.9745692313403823</v>
+        <v>0.9745887271221574</v>
       </c>
       <c r="F9">
-        <v>0.9310580412587798</v>
+        <v>0.9310771195356621</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030583958732642</v>
+        <v>1.030592473766623</v>
       </c>
       <c r="J9">
-        <v>0.9895572454861026</v>
+        <v>0.9895781381463592</v>
       </c>
       <c r="K9">
-        <v>0.9997262333004835</v>
+        <v>0.9997427784791801</v>
       </c>
       <c r="L9">
-        <v>0.9880888358003961</v>
+        <v>0.9881079935649186</v>
       </c>
       <c r="M9">
-        <v>0.9453783191460913</v>
+        <v>0.9453970248381127</v>
+      </c>
+      <c r="N9">
+        <v>0.9948412767183091</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9499139158823031</v>
+        <v>0.9499429608137057</v>
       </c>
       <c r="D10">
-        <v>0.9764706885955288</v>
+        <v>0.976493082765442</v>
       </c>
       <c r="E10">
-        <v>0.9641951418960467</v>
+        <v>0.9642209824809373</v>
       </c>
       <c r="F10">
-        <v>0.9111815772438088</v>
+        <v>0.9112076079234489</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026262758695555</v>
+        <v>1.026274067922966</v>
       </c>
       <c r="J10">
-        <v>0.9802659930185322</v>
+        <v>0.9802937037775019</v>
       </c>
       <c r="K10">
-        <v>0.991278177137448</v>
+        <v>0.9913001410678772</v>
       </c>
       <c r="L10">
-        <v>0.9792424236993389</v>
+        <v>0.9792677510795651</v>
       </c>
       <c r="M10">
-        <v>0.9273637487974203</v>
+        <v>0.9273891788801594</v>
+      </c>
+      <c r="N10">
+        <v>0.9884491380419484</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9441187017946072</v>
+        <v>0.9441512173547952</v>
       </c>
       <c r="D11">
-        <v>0.9719322330144593</v>
+        <v>0.9719572708251708</v>
       </c>
       <c r="E11">
-        <v>0.9594735191548581</v>
+        <v>0.9595023617515798</v>
       </c>
       <c r="F11">
-        <v>0.9019874558030273</v>
+        <v>0.9020169245055669</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024265276918944</v>
+        <v>1.024277910115684</v>
       </c>
       <c r="J11">
-        <v>0.9760162812869722</v>
+        <v>0.9760472018119407</v>
       </c>
       <c r="K11">
-        <v>0.9874036147055724</v>
+        <v>0.9874281437285415</v>
       </c>
       <c r="L11">
-        <v>0.9752024299334613</v>
+        <v>0.9752306661184901</v>
       </c>
       <c r="M11">
-        <v>0.9190290293037016</v>
+        <v>0.9190577672937246</v>
+      </c>
+      <c r="N11">
+        <v>0.985524703725765</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.941916197353469</v>
+        <v>0.9419500572078784</v>
       </c>
       <c r="D12">
-        <v>0.9702069639054309</v>
+        <v>0.9702330251377497</v>
       </c>
       <c r="E12">
-        <v>0.9576811982147473</v>
+        <v>0.9577112008284695</v>
       </c>
       <c r="F12">
-        <v>0.8984710448634182</v>
+        <v>0.8985018697206074</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023502321655443</v>
+        <v>1.023515466891117</v>
       </c>
       <c r="J12">
-        <v>0.9743997612203978</v>
+        <v>0.9744319194193624</v>
       </c>
       <c r="K12">
-        <v>0.9859281107700769</v>
+        <v>0.9859536313939493</v>
       </c>
       <c r="L12">
-        <v>0.9736666934534617</v>
+        <v>0.9736960519250192</v>
       </c>
       <c r="M12">
-        <v>0.9158412516874292</v>
+        <v>0.9158712914252225</v>
+      </c>
+      <c r="N12">
+        <v>0.9844122215386196</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9423909953377835</v>
+        <v>0.9424245641824002</v>
       </c>
       <c r="D13">
-        <v>0.9705789018486023</v>
+        <v>0.9706047415574464</v>
       </c>
       <c r="E13">
-        <v>0.9580674717202734</v>
+        <v>0.9580972233480104</v>
       </c>
       <c r="F13">
-        <v>0.8992301517308241</v>
+        <v>0.8992606818191806</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023666965041523</v>
+        <v>1.023679999467689</v>
       </c>
       <c r="J13">
-        <v>0.9747483008180272</v>
+        <v>0.9747801913499212</v>
       </c>
       <c r="K13">
-        <v>0.9862463236759448</v>
+        <v>0.9862716297298076</v>
       </c>
       <c r="L13">
-        <v>0.9739977683700864</v>
+        <v>0.9740268840990516</v>
       </c>
       <c r="M13">
-        <v>0.9165294131456635</v>
+        <v>0.916559170087087</v>
+      </c>
+      <c r="N13">
+        <v>0.9846520877766883</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9439376939836973</v>
+        <v>0.9439703194823374</v>
       </c>
       <c r="D14">
-        <v>0.9717904539585065</v>
+        <v>0.9718155754772294</v>
       </c>
       <c r="E14">
-        <v>0.9593261765237068</v>
+        <v>0.9593551140467207</v>
       </c>
       <c r="F14">
-        <v>0.9016989403236559</v>
+        <v>0.9017285194100706</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024202652235786</v>
+        <v>1.024215327323721</v>
       </c>
       <c r="J14">
-        <v>0.9758834596565509</v>
+        <v>0.9759144815165454</v>
       </c>
       <c r="K14">
-        <v>0.9872824144887515</v>
+        <v>0.9873070246462632</v>
       </c>
       <c r="L14">
-        <v>0.9750762249905817</v>
+        <v>0.9751045530498502</v>
       </c>
       <c r="M14">
-        <v>0.9187674773196584</v>
+        <v>0.9187963213297793</v>
+      </c>
+      <c r="N14">
+        <v>0.9854332977557064</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9448838796053352</v>
+        <v>0.9449159314730415</v>
       </c>
       <c r="D15">
-        <v>0.9725315619327572</v>
+        <v>0.9725562466621686</v>
       </c>
       <c r="E15">
-        <v>0.9600964722064302</v>
+        <v>0.9601249143141481</v>
       </c>
       <c r="F15">
-        <v>0.9032061805025234</v>
+        <v>0.9032351846509237</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024529857171696</v>
+        <v>1.024542313650425</v>
       </c>
       <c r="J15">
-        <v>0.9765777040521703</v>
+        <v>0.9766081969432412</v>
       </c>
       <c r="K15">
-        <v>0.987915845996156</v>
+        <v>0.9879400327350686</v>
       </c>
       <c r="L15">
-        <v>0.9757359261025468</v>
+        <v>0.975763774604957</v>
       </c>
       <c r="M15">
-        <v>0.9201338560606523</v>
+        <v>0.9201621477355232</v>
+      </c>
+      <c r="N15">
+        <v>0.9859110640990671</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9502918367950086</v>
+        <v>0.9503206586169749</v>
       </c>
       <c r="D16">
-        <v>0.9767665983138326</v>
+        <v>0.9767888224625521</v>
       </c>
       <c r="E16">
-        <v>0.9645033373490742</v>
+        <v>0.9645289846005752</v>
       </c>
       <c r="F16">
-        <v>0.9117783317193177</v>
+        <v>0.9118041444102448</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026392498713747</v>
+        <v>1.026403722726317</v>
       </c>
       <c r="J16">
-        <v>0.9805429381237848</v>
+        <v>0.9805704418257203</v>
       </c>
       <c r="K16">
-        <v>0.9915304497443835</v>
+        <v>0.9915522485219463</v>
       </c>
       <c r="L16">
-        <v>0.9795058363549239</v>
+        <v>0.979530976181755</v>
       </c>
       <c r="M16">
-        <v>0.9279047024016988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9279299223637519</v>
+      </c>
+      <c r="N16">
+        <v>0.9886397050718277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9536011240444379</v>
+        <v>0.9536280083209154</v>
       </c>
       <c r="D17">
-        <v>0.9793574518856841</v>
+        <v>0.9793781991198844</v>
       </c>
       <c r="E17">
-        <v>0.9672035682446973</v>
+        <v>0.9672275347825723</v>
       </c>
       <c r="F17">
-        <v>0.9169897494736291</v>
+        <v>0.9170136839369426</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027525739471115</v>
+        <v>1.027536222905572</v>
       </c>
       <c r="J17">
-        <v>0.9829669989419524</v>
+        <v>0.9829927008227465</v>
       </c>
       <c r="K17">
-        <v>0.9937373664658107</v>
+        <v>0.9937577296674919</v>
       </c>
       <c r="L17">
-        <v>0.9818121580340466</v>
+        <v>0.9818356662409139</v>
       </c>
       <c r="M17">
-        <v>0.9326286305211621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9326520381384837</v>
+      </c>
+      <c r="N17">
+        <v>0.9903076312814282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9555031087670316</v>
+        <v>0.9555288922298506</v>
       </c>
       <c r="D18">
-        <v>0.9808462739710002</v>
+        <v>0.9808661817674058</v>
       </c>
       <c r="E18">
-        <v>0.9687567215414624</v>
+        <v>0.9687797317961092</v>
       </c>
       <c r="F18">
-        <v>0.9199738081460269</v>
+        <v>0.9199966871269643</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028174700182063</v>
+        <v>1.028184762409818</v>
       </c>
       <c r="J18">
-        <v>0.9843593561378178</v>
+        <v>0.9843840313615435</v>
       </c>
       <c r="K18">
-        <v>0.9950040242844727</v>
+        <v>0.9950235707756196</v>
       </c>
       <c r="L18">
-        <v>0.983137465506283</v>
+        <v>0.9831600444307816</v>
       </c>
       <c r="M18">
-        <v>0.9353333657023671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9353557533492826</v>
+      </c>
+      <c r="N18">
+        <v>0.9912656000558774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9561469871033218</v>
+        <v>0.9561723999657474</v>
       </c>
       <c r="D19">
-        <v>0.9813502419074829</v>
+        <v>0.9813698670429274</v>
       </c>
       <c r="E19">
-        <v>0.9692827117929566</v>
+        <v>0.969305399880637</v>
       </c>
       <c r="F19">
-        <v>0.9209822047113549</v>
+        <v>0.9210047302100908</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028393992280186</v>
+        <v>1.028403912629497</v>
       </c>
       <c r="J19">
-        <v>0.9848305663693731</v>
+        <v>0.9848548954739996</v>
       </c>
       <c r="K19">
-        <v>0.9954325319631847</v>
+        <v>0.9954518033194663</v>
       </c>
       <c r="L19">
-        <v>0.9835860806135384</v>
+        <v>0.9836083463138512</v>
       </c>
       <c r="M19">
-        <v>0.9362473336881222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9362693795011567</v>
+      </c>
+      <c r="N19">
+        <v>0.9915897886560135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.953249027689182</v>
+        <v>0.9532761167581019</v>
       </c>
       <c r="D20">
-        <v>0.9790818201426356</v>
+        <v>0.9791027235167611</v>
       </c>
       <c r="E20">
-        <v>0.9669161453519852</v>
+        <v>0.9669402896837708</v>
       </c>
       <c r="F20">
-        <v>0.9164364577609206</v>
+        <v>0.9164605895032579</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027405412154422</v>
+        <v>1.02741597391278</v>
       </c>
       <c r="J20">
-        <v>0.9827091761500416</v>
+        <v>0.9827350687905138</v>
       </c>
       <c r="K20">
-        <v>0.9935027410661563</v>
+        <v>0.9935232561185777</v>
       </c>
       <c r="L20">
-        <v>0.9815667973144205</v>
+        <v>0.9815904782202585</v>
       </c>
       <c r="M20">
-        <v>0.9321271132310559</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9321507113688645</v>
+      </c>
+      <c r="N20">
+        <v>0.9901302381206319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9434836544657449</v>
+        <v>0.9435165561555939</v>
       </c>
       <c r="D21">
-        <v>0.9714348092247579</v>
+        <v>0.9714601410288846</v>
       </c>
       <c r="E21">
-        <v>0.9589566179761284</v>
+        <v>0.958985793930513</v>
       </c>
       <c r="F21">
-        <v>0.9009748590876384</v>
+        <v>0.9010047158941202</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024045503545762</v>
+        <v>1.024058283861645</v>
       </c>
       <c r="J21">
-        <v>0.9755502677522557</v>
+        <v>0.97558154409818</v>
       </c>
       <c r="K21">
-        <v>0.986978348218387</v>
+        <v>0.9870031621733674</v>
       </c>
       <c r="L21">
-        <v>0.9747596479776947</v>
+        <v>0.9747882067743422</v>
       </c>
       <c r="M21">
-        <v>0.9181110657380366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9181401764383971</v>
+      </c>
+      <c r="N21">
+        <v>0.985203998709036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9370516875957575</v>
+        <v>0.9370885688342707</v>
       </c>
       <c r="D22">
-        <v>0.9663957173288624</v>
+        <v>0.9664240777635343</v>
       </c>
       <c r="E22">
-        <v>0.9537268383537812</v>
+        <v>0.9537594424790973</v>
       </c>
       <c r="F22">
-        <v>0.89065870544757</v>
+        <v>0.8906926306538577</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021810189255708</v>
+        <v>1.021824483847473</v>
       </c>
       <c r="J22">
-        <v>0.9708268555071655</v>
+        <v>0.9708617842681696</v>
       </c>
       <c r="K22">
-        <v>0.9826636267450157</v>
+        <v>0.9826913722911877</v>
       </c>
       <c r="L22">
-        <v>0.97027429938473</v>
+        <v>0.9703061713618576</v>
       </c>
       <c r="M22">
-        <v>0.908759218871801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.908792228147089</v>
+      </c>
+      <c r="N22">
+        <v>0.9819532681681922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9404911046149828</v>
+        <v>0.9405258420151897</v>
       </c>
       <c r="D23">
-        <v>0.9690905419460344</v>
+        <v>0.9691172711074935</v>
       </c>
       <c r="E23">
-        <v>0.9565221406471288</v>
+        <v>0.9565528996715627</v>
       </c>
       <c r="F23">
-        <v>0.8961890221667786</v>
+        <v>0.8962207399448787</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023007590464461</v>
+        <v>1.023021069731912</v>
       </c>
       <c r="J23">
-        <v>0.9733534224981701</v>
+        <v>0.973386386980693</v>
       </c>
       <c r="K23">
-        <v>0.9849725580421981</v>
+        <v>0.9849987254113327</v>
       </c>
       <c r="L23">
-        <v>0.9726729392502677</v>
+        <v>0.9727030290240599</v>
       </c>
       <c r="M23">
-        <v>0.9137725163549986</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9138034122515062</v>
+      </c>
+      <c r="N23">
+        <v>0.9836921193536453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9534082118397944</v>
+        <v>0.9534352082818238</v>
       </c>
       <c r="D24">
-        <v>0.9792064351150882</v>
+        <v>0.9792272678687155</v>
       </c>
       <c r="E24">
-        <v>0.9670460865994304</v>
+        <v>0.9670701505199711</v>
       </c>
       <c r="F24">
-        <v>0.9166866375576825</v>
+        <v>0.9167106800354106</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027459819946205</v>
+        <v>1.02747034628034</v>
       </c>
       <c r="J24">
-        <v>0.982825741496266</v>
+        <v>0.9828515478660039</v>
       </c>
       <c r="K24">
-        <v>0.9936088215635541</v>
+        <v>0.9936292679378232</v>
       </c>
       <c r="L24">
-        <v>0.9816777265865778</v>
+        <v>0.9817013293883694</v>
       </c>
       <c r="M24">
-        <v>0.932353882982798</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9323773949188044</v>
+      </c>
+      <c r="N24">
+        <v>0.9902104403147396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.967300585068077</v>
+        <v>0.9673197337190398</v>
       </c>
       <c r="D25">
-        <v>0.9900764793353438</v>
+        <v>0.9900913222435187</v>
       </c>
       <c r="E25">
-        <v>0.9784104282803633</v>
+        <v>0.9784276541627274</v>
       </c>
       <c r="F25">
-        <v>0.9383147804577345</v>
+        <v>0.9383314660793229</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032158461926238</v>
+        <v>1.032165978131192</v>
       </c>
       <c r="J25">
-        <v>0.9929808508933332</v>
+        <v>0.9929992923013641</v>
       </c>
       <c r="K25">
-        <v>1.002830823621409</v>
+        <v>1.002845430160515</v>
       </c>
       <c r="L25">
-        <v>0.9913534030147994</v>
+        <v>0.9913703461047177</v>
       </c>
       <c r="M25">
-        <v>0.9519526314886601</v>
+        <v>0.9519690118587922</v>
+      </c>
+      <c r="N25">
+        <v>0.9971958041861327</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9776638995644906</v>
+        <v>1.002572272011455</v>
       </c>
       <c r="D2">
-        <v>0.998176769915915</v>
+        <v>1.018616618394787</v>
       </c>
       <c r="E2">
-        <v>0.9869202710707525</v>
+        <v>1.013570580487311</v>
       </c>
       <c r="F2">
-        <v>0.9542029878972245</v>
+        <v>1.01478694844293</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03559261248052</v>
+        <v>1.041517969393304</v>
       </c>
       <c r="J2">
-        <v>1.000533840362375</v>
+        <v>1.024676318121823</v>
       </c>
       <c r="K2">
-        <v>1.009661563806535</v>
+        <v>1.0298225464685</v>
       </c>
       <c r="L2">
-        <v>0.998564885856548</v>
+        <v>1.024844038385221</v>
       </c>
       <c r="M2">
-        <v>0.9663394988581425</v>
+        <v>1.026044050806715</v>
       </c>
       <c r="N2">
-        <v>1.002378975959006</v>
+        <v>1.026131476025578</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.984811946731869</v>
+        <v>1.010673569812523</v>
       </c>
       <c r="D3">
-        <v>1.003758490351878</v>
+        <v>1.024765484452095</v>
       </c>
       <c r="E3">
-        <v>0.9928045741835668</v>
+        <v>1.02088658362324</v>
       </c>
       <c r="F3">
-        <v>0.9650689767762751</v>
+        <v>1.023201662766756</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037918748710525</v>
+        <v>1.043943658204889</v>
       </c>
       <c r="J3">
-        <v>1.005725394433451</v>
+        <v>1.030877432033392</v>
       </c>
       <c r="K3">
-        <v>1.014343505417272</v>
+        <v>1.035090996801245</v>
       </c>
       <c r="L3">
-        <v>1.003530357319322</v>
+        <v>1.031259013621194</v>
       </c>
       <c r="M3">
-        <v>0.9761692171216116</v>
+        <v>1.033546037342443</v>
       </c>
       <c r="N3">
-        <v>1.005948025671521</v>
+        <v>1.032341396230174</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9892861078723749</v>
+        <v>1.015744982707367</v>
       </c>
       <c r="D4">
-        <v>1.007249448189503</v>
+        <v>1.028616573875794</v>
       </c>
       <c r="E4">
-        <v>0.9964943427865035</v>
+        <v>1.02547259456038</v>
       </c>
       <c r="F4">
-        <v>0.9718323568245717</v>
+        <v>1.028479344295297</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03935526591439</v>
+        <v>1.045448842846872</v>
       </c>
       <c r="J4">
-        <v>1.008967904264408</v>
+        <v>1.03475432890135</v>
       </c>
       <c r="K4">
-        <v>1.017261159130143</v>
+        <v>1.038381467120921</v>
       </c>
       <c r="L4">
-        <v>1.006635262960728</v>
+        <v>1.035273008995416</v>
       </c>
       <c r="M4">
-        <v>0.9822830643031011</v>
+        <v>1.038245782398797</v>
       </c>
       <c r="N4">
-        <v>1.008175971615676</v>
+        <v>1.03622379873637</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9911330808806188</v>
+        <v>1.017838640868609</v>
       </c>
       <c r="D5">
-        <v>1.008689835091075</v>
+        <v>1.030206764492798</v>
       </c>
       <c r="E5">
-        <v>0.9980190127273205</v>
+        <v>1.027367267550651</v>
       </c>
       <c r="F5">
-        <v>0.9746163820156709</v>
+        <v>1.030660536824348</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039943567136914</v>
+        <v>1.046066974986722</v>
       </c>
       <c r="J5">
-        <v>1.010304735784415</v>
+        <v>1.036353579342711</v>
       </c>
       <c r="K5">
-        <v>1.0184625023077</v>
+        <v>1.039737979043318</v>
       </c>
       <c r="L5">
-        <v>1.00791620339394</v>
+        <v>1.036929633637985</v>
       </c>
       <c r="M5">
-        <v>0.9847985667053166</v>
+        <v>1.04018679266122</v>
       </c>
       <c r="N5">
-        <v>1.00909421441601</v>
+        <v>1.037825320296795</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9914412643162039</v>
+        <v>1.018187993837457</v>
       </c>
       <c r="D6">
-        <v>1.008930133078561</v>
+        <v>1.030472123125756</v>
       </c>
       <c r="E6">
-        <v>0.9982735029757973</v>
+        <v>1.027683497859016</v>
       </c>
       <c r="F6">
-        <v>0.975080483348835</v>
+        <v>1.031024634954588</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04004145248648</v>
+        <v>1.046169924223622</v>
       </c>
       <c r="J6">
-        <v>1.010527696818592</v>
+        <v>1.036620357622188</v>
       </c>
       <c r="K6">
-        <v>1.018662775113477</v>
+        <v>1.039964215051596</v>
       </c>
       <c r="L6">
-        <v>1.008129891576681</v>
+        <v>1.03720603117962</v>
       </c>
       <c r="M6">
-        <v>0.9852178350978682</v>
+        <v>1.040510719492738</v>
       </c>
       <c r="N6">
-        <v>1.009247343714468</v>
+        <v>1.038092477432028</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9893109179123838</v>
+        <v>1.015773105888477</v>
       </c>
       <c r="D7">
-        <v>1.007268799506066</v>
+        <v>1.028637933079114</v>
       </c>
       <c r="E7">
-        <v>0.9965148175563131</v>
+        <v>1.025498039394996</v>
       </c>
       <c r="F7">
-        <v>0.9718697842123453</v>
+        <v>1.028508633909356</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03936318713567</v>
+        <v>1.045457158947943</v>
       </c>
       <c r="J7">
-        <v>1.008985868449</v>
+        <v>1.03477581603839</v>
       </c>
       <c r="K7">
-        <v>1.017277308780672</v>
+        <v>1.038399696225898</v>
       </c>
       <c r="L7">
-        <v>1.006652472784483</v>
+        <v>1.035295263741888</v>
       </c>
       <c r="M7">
-        <v>0.9823168864331611</v>
+        <v>1.038271852064337</v>
       </c>
       <c r="N7">
-        <v>1.008188312068628</v>
+        <v>1.03624531638761</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9801123052377754</v>
+        <v>1.005347060042125</v>
       </c>
       <c r="D8">
-        <v>1.000089232097128</v>
+        <v>1.020722190571872</v>
       </c>
       <c r="E8">
-        <v>0.9889343530494218</v>
+        <v>1.016075034778656</v>
       </c>
       <c r="F8">
-        <v>0.9579336743488982</v>
+        <v>1.017666931669046</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036393479178953</v>
+        <v>1.042351562959277</v>
       </c>
       <c r="J8">
-        <v>1.002313568193684</v>
+        <v>1.026801284335042</v>
       </c>
       <c r="K8">
-        <v>1.01126799481271</v>
+        <v>1.031628596020779</v>
       </c>
       <c r="L8">
-        <v>1.00026633163893</v>
+        <v>1.027041574564459</v>
       </c>
       <c r="M8">
-        <v>0.9697153102780335</v>
+        <v>1.028612794858331</v>
       </c>
       <c r="N8">
-        <v>1.003602731480772</v>
+        <v>1.028259459934552</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.962633166722923</v>
+        <v>0.9855417600809077</v>
       </c>
       <c r="D9">
-        <v>0.9864255578874357</v>
+        <v>1.005707859348685</v>
       </c>
       <c r="E9">
-        <v>0.9745887271221574</v>
+        <v>0.9982300169200761</v>
       </c>
       <c r="F9">
-        <v>0.9310771195356621</v>
+        <v>0.9971564064315204</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030592473766623</v>
+        <v>1.036347053980551</v>
       </c>
       <c r="J9">
-        <v>0.9895781381463592</v>
+        <v>1.011615614019972</v>
       </c>
       <c r="K9">
-        <v>0.9997427784791801</v>
+        <v>1.018709004372035</v>
       </c>
       <c r="L9">
-        <v>0.9881079935649186</v>
+        <v>1.011351876287882</v>
       </c>
       <c r="M9">
-        <v>0.9453970248381127</v>
+        <v>1.010295788052016</v>
       </c>
       <c r="N9">
-        <v>0.9948412767183091</v>
+        <v>1.013052224225813</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9499429608137057</v>
+        <v>0.9711717459527858</v>
       </c>
       <c r="D10">
-        <v>0.976493082765442</v>
+        <v>0.9948403828136066</v>
       </c>
       <c r="E10">
-        <v>0.9642209824809373</v>
+        <v>0.985326855673518</v>
       </c>
       <c r="F10">
-        <v>0.9112076079234489</v>
+        <v>0.9823357868481316</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026274067922966</v>
+        <v>1.031924065431251</v>
       </c>
       <c r="J10">
-        <v>0.9802937037775019</v>
+        <v>1.00057774136504</v>
       </c>
       <c r="K10">
-        <v>0.9913001410678772</v>
+        <v>1.009303424856477</v>
       </c>
       <c r="L10">
-        <v>0.9792677510795651</v>
+        <v>0.9999661902941703</v>
       </c>
       <c r="M10">
-        <v>0.9273891788801594</v>
+        <v>0.9970314703474327</v>
       </c>
       <c r="N10">
-        <v>0.9884491380419484</v>
+        <v>1.001998676525649</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9441512173547952</v>
+        <v>0.96461784557761</v>
       </c>
       <c r="D11">
-        <v>0.9719572708251708</v>
+        <v>0.9898931128720257</v>
       </c>
       <c r="E11">
-        <v>0.9595023617515798</v>
+        <v>0.9794544161024806</v>
       </c>
       <c r="F11">
-        <v>0.9020169245055669</v>
+        <v>0.9755918066378113</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024277910115684</v>
+        <v>1.029892482743979</v>
       </c>
       <c r="J11">
-        <v>0.9760472018119407</v>
+        <v>0.9955404150734731</v>
       </c>
       <c r="K11">
-        <v>0.9874281437285415</v>
+        <v>1.005008180849569</v>
       </c>
       <c r="L11">
-        <v>0.9752306661184901</v>
+        <v>0.9947744793283551</v>
       </c>
       <c r="M11">
-        <v>0.9190577672937246</v>
+        <v>0.9909891876072703</v>
       </c>
       <c r="N11">
-        <v>0.985524703725765</v>
+        <v>0.9969541966529594</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9419500572078784</v>
+        <v>0.9621280475588828</v>
       </c>
       <c r="D12">
-        <v>0.9702330251377497</v>
+        <v>0.9880153339116042</v>
       </c>
       <c r="E12">
-        <v>0.9577112008284695</v>
+        <v>0.9772255586629967</v>
       </c>
       <c r="F12">
-        <v>0.8985018697206074</v>
+        <v>0.9730322070299804</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023515466891117</v>
+        <v>1.029118678709842</v>
       </c>
       <c r="J12">
-        <v>0.9744319194193624</v>
+        <v>0.9936264342116357</v>
       </c>
       <c r="K12">
-        <v>0.9859536313939493</v>
+        <v>1.003375800328948</v>
       </c>
       <c r="L12">
-        <v>0.9736960519250192</v>
+        <v>0.9928024862953003</v>
       </c>
       <c r="M12">
-        <v>0.9158712914252225</v>
+        <v>0.9886949701633641</v>
       </c>
       <c r="N12">
-        <v>0.9844122215386196</v>
+        <v>0.9950374977187614</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9424245641824002</v>
+        <v>0.9626647232437858</v>
       </c>
       <c r="D13">
-        <v>0.9706047415574464</v>
+        <v>0.9884200087542957</v>
       </c>
       <c r="E13">
-        <v>0.9580972233480104</v>
+        <v>0.9777058926288069</v>
       </c>
       <c r="F13">
-        <v>0.8992606818191806</v>
+        <v>0.9735838182086574</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023679999467689</v>
+        <v>1.029285560532291</v>
       </c>
       <c r="J13">
-        <v>0.9747801913499212</v>
+        <v>0.9940390044808248</v>
       </c>
       <c r="K13">
-        <v>0.9862716297298076</v>
+        <v>1.003727685060738</v>
       </c>
       <c r="L13">
-        <v>0.9740268840990516</v>
+        <v>0.9932275323069532</v>
       </c>
       <c r="M13">
-        <v>0.916559170087087</v>
+        <v>0.989189431410527</v>
       </c>
       <c r="N13">
-        <v>0.9846520877766883</v>
+        <v>0.9954506538850549</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9439703194823374</v>
+        <v>0.9644132033602896</v>
       </c>
       <c r="D14">
-        <v>0.9718155754772294</v>
+        <v>0.9897387383608057</v>
       </c>
       <c r="E14">
-        <v>0.9593551140467207</v>
+        <v>0.9792711783851746</v>
       </c>
       <c r="F14">
-        <v>0.9017285194100706</v>
+        <v>0.9753813779197504</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024215327323721</v>
+        <v>1.029828921953114</v>
       </c>
       <c r="J14">
-        <v>0.9759144815165454</v>
+        <v>0.9953831061842501</v>
       </c>
       <c r="K14">
-        <v>0.9873070246462632</v>
+        <v>1.004874023419018</v>
       </c>
       <c r="L14">
-        <v>0.9751045530498502</v>
+        <v>0.9946123893658592</v>
       </c>
       <c r="M14">
-        <v>0.9187963213297793</v>
+        <v>0.9908005951762504</v>
       </c>
       <c r="N14">
-        <v>0.9854332977557064</v>
+        <v>0.9967966643670696</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9449159314730415</v>
+        <v>0.9654829786388816</v>
       </c>
       <c r="D15">
-        <v>0.9725562466621686</v>
+        <v>0.9905458066698611</v>
       </c>
       <c r="E15">
-        <v>0.9601249143141481</v>
+        <v>0.9802291454117453</v>
       </c>
       <c r="F15">
-        <v>0.9032351846509237</v>
+        <v>0.9764815006753046</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024542313650425</v>
+        <v>1.03016110761957</v>
       </c>
       <c r="J15">
-        <v>0.9766081969432412</v>
+        <v>0.9962054324759235</v>
       </c>
       <c r="K15">
-        <v>0.9879400327350686</v>
+        <v>1.005575312097543</v>
       </c>
       <c r="L15">
-        <v>0.975763774604957</v>
+        <v>0.9954597347917898</v>
       </c>
       <c r="M15">
-        <v>0.9201621477355232</v>
+        <v>0.9917865197818847</v>
       </c>
       <c r="N15">
-        <v>0.9859110640990671</v>
+        <v>0.9976201584563993</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9503206586169749</v>
+        <v>0.9715992646402563</v>
       </c>
       <c r="D16">
-        <v>0.9767888224625521</v>
+        <v>0.995163311763716</v>
       </c>
       <c r="E16">
-        <v>0.9645289846005752</v>
+        <v>0.9857101937143423</v>
       </c>
       <c r="F16">
-        <v>0.9118041444102448</v>
+        <v>0.9827760302669362</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026403722726317</v>
+        <v>1.0320563035319</v>
       </c>
       <c r="J16">
-        <v>0.9805704418257203</v>
+        <v>1.000906279264878</v>
       </c>
       <c r="K16">
-        <v>0.9915522485219463</v>
+        <v>1.00958351036442</v>
       </c>
       <c r="L16">
-        <v>0.979530976181755</v>
+        <v>1.000304886458852</v>
       </c>
       <c r="M16">
-        <v>0.9279299223637519</v>
+        <v>0.9974257763033422</v>
       </c>
       <c r="N16">
-        <v>0.9886397050718277</v>
+        <v>1.002327680986989</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9536280083209154</v>
+        <v>0.9753434050169637</v>
       </c>
       <c r="D17">
-        <v>0.9793781991198844</v>
+        <v>0.9979925345457519</v>
       </c>
       <c r="E17">
-        <v>0.9672275347825723</v>
+        <v>0.9890688259913556</v>
       </c>
       <c r="F17">
-        <v>0.9170136839369426</v>
+        <v>0.9866333552584878</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027536222905572</v>
+        <v>1.033212827666605</v>
       </c>
       <c r="J17">
-        <v>0.9829927008227465</v>
+        <v>1.003783223234745</v>
       </c>
       <c r="K17">
-        <v>0.9937577296674919</v>
+        <v>1.012035853695122</v>
       </c>
       <c r="L17">
-        <v>0.9818356662409139</v>
+        <v>1.00327127193574</v>
       </c>
       <c r="M17">
-        <v>0.9326520381384837</v>
+        <v>1.000879880770054</v>
       </c>
       <c r="N17">
-        <v>0.9903076312814282</v>
+        <v>1.005208710547283</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9555288922298506</v>
+        <v>0.9774957240461055</v>
       </c>
       <c r="D18">
-        <v>0.9808661817674058</v>
+        <v>0.9996197520152621</v>
       </c>
       <c r="E18">
-        <v>0.9687797317961092</v>
+        <v>0.9910006872681996</v>
       </c>
       <c r="F18">
-        <v>0.9199966871269643</v>
+        <v>0.9888521751292251</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028184762409818</v>
+        <v>1.033876305046116</v>
       </c>
       <c r="J18">
-        <v>0.9843840313615435</v>
+        <v>1.005436728754319</v>
       </c>
       <c r="K18">
-        <v>0.9950235707756196</v>
+        <v>1.013445052264235</v>
       </c>
       <c r="L18">
-        <v>0.9831600444307816</v>
+        <v>1.004976589966605</v>
       </c>
       <c r="M18">
-        <v>0.9353557533492826</v>
+        <v>1.002866149642532</v>
       </c>
       <c r="N18">
-        <v>0.9912656000558774</v>
+        <v>1.006864564234355</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9561723999657474</v>
+        <v>0.9782244089464555</v>
       </c>
       <c r="D19">
-        <v>0.9813698670429274</v>
+        <v>1.000170794002487</v>
       </c>
       <c r="E19">
-        <v>0.969305399880637</v>
+        <v>0.9916549247207581</v>
       </c>
       <c r="F19">
-        <v>0.9210047302100908</v>
+        <v>0.9896036156660126</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028403912629497</v>
+        <v>1.03410069772173</v>
       </c>
       <c r="J19">
-        <v>0.9848548954739996</v>
+        <v>1.005996480354878</v>
       </c>
       <c r="K19">
-        <v>0.9954518033194663</v>
+        <v>1.013922052366757</v>
       </c>
       <c r="L19">
-        <v>0.9836083463138512</v>
+        <v>1.005553950473839</v>
       </c>
       <c r="M19">
-        <v>0.9362693795011567</v>
+        <v>1.003538728553343</v>
       </c>
       <c r="N19">
-        <v>0.9915897886560135</v>
+        <v>1.007425110746392</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9532761167581019</v>
+        <v>0.9749449976056291</v>
       </c>
       <c r="D20">
-        <v>0.9791027235167611</v>
+        <v>0.9976913927613017</v>
       </c>
       <c r="E20">
-        <v>0.9669402896837708</v>
+        <v>0.9887113188167144</v>
       </c>
       <c r="F20">
-        <v>0.9164605895032579</v>
+        <v>0.9862227540397068</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02741597391278</v>
+        <v>1.033089903504234</v>
       </c>
       <c r="J20">
-        <v>0.9827350687905138</v>
+        <v>1.003477123465695</v>
       </c>
       <c r="K20">
-        <v>0.9935232561185777</v>
+        <v>1.011774958076845</v>
       </c>
       <c r="L20">
-        <v>0.9815904782202585</v>
+        <v>1.002955613554791</v>
       </c>
       <c r="M20">
-        <v>0.9321507113688645</v>
+        <v>1.000512264376271</v>
       </c>
       <c r="N20">
-        <v>0.9901302381206319</v>
+        <v>1.004902176081451</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9435165561555939</v>
+        <v>0.9638998976962802</v>
       </c>
       <c r="D21">
-        <v>0.9714601410288846</v>
+        <v>0.98935154739846</v>
       </c>
       <c r="E21">
-        <v>0.958985793930513</v>
+        <v>0.9788115955070847</v>
       </c>
       <c r="F21">
-        <v>0.9010047158941202</v>
+        <v>0.9748535969560529</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024058283861645</v>
+        <v>1.029669460068423</v>
       </c>
       <c r="J21">
-        <v>0.97558154409818</v>
+        <v>0.994988522441989</v>
       </c>
       <c r="K21">
-        <v>0.9870031621733674</v>
+        <v>1.004537505782215</v>
       </c>
       <c r="L21">
-        <v>0.9747882067743422</v>
+        <v>0.9942058234677946</v>
       </c>
       <c r="M21">
-        <v>0.9181401764383971</v>
+        <v>0.9903275673332544</v>
       </c>
       <c r="N21">
-        <v>0.985203998709036</v>
+        <v>0.9964015202706352</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9370885688342707</v>
+        <v>0.9566315023805019</v>
       </c>
       <c r="D22">
-        <v>0.9664240777635343</v>
+        <v>0.9838733328088279</v>
       </c>
       <c r="E22">
-        <v>0.9537594424790973</v>
+        <v>0.9723091029178887</v>
       </c>
       <c r="F22">
-        <v>0.8906926306538577</v>
+        <v>0.9673861292761089</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021824483847473</v>
+        <v>1.027406855558706</v>
       </c>
       <c r="J22">
-        <v>0.9708617842681696</v>
+        <v>0.9894006691267847</v>
       </c>
       <c r="K22">
-        <v>0.9826913722911877</v>
+        <v>0.9997711775365472</v>
       </c>
       <c r="L22">
-        <v>0.9703061713618576</v>
+        <v>0.9884498311305501</v>
       </c>
       <c r="M22">
-        <v>0.908792228147089</v>
+        <v>0.9836325937033993</v>
       </c>
       <c r="N22">
-        <v>0.9819532681681922</v>
+        <v>0.9908057315627876</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9405258420151897</v>
+        <v>0.9605174213759509</v>
       </c>
       <c r="D23">
-        <v>0.9691172711074935</v>
+        <v>0.9868011263069066</v>
       </c>
       <c r="E23">
-        <v>0.9565528996715627</v>
+        <v>0.9757843377874897</v>
       </c>
       <c r="F23">
-        <v>0.8962207399448787</v>
+        <v>0.9713771185067943</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023021069731912</v>
+        <v>1.028617563317403</v>
       </c>
       <c r="J23">
-        <v>0.973386386980693</v>
+        <v>0.9923882283582844</v>
       </c>
       <c r="K23">
-        <v>0.9849987254113327</v>
+        <v>1.002319676531864</v>
       </c>
       <c r="L23">
-        <v>0.9727030290240599</v>
+        <v>0.9915269328219124</v>
       </c>
       <c r="M23">
-        <v>0.9138034122515062</v>
+        <v>0.9872112232295319</v>
       </c>
       <c r="N23">
-        <v>0.9836921193536453</v>
+        <v>0.9937975334710741</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9534352082818238</v>
+        <v>0.9751251179299265</v>
       </c>
       <c r="D24">
-        <v>0.9792272678687155</v>
+        <v>0.997827536626959</v>
       </c>
       <c r="E24">
-        <v>0.9670701505199711</v>
+        <v>0.988872944542624</v>
       </c>
       <c r="F24">
-        <v>0.9167106800354106</v>
+        <v>0.9864083827341774</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02747034628034</v>
+        <v>1.033145481830101</v>
       </c>
       <c r="J24">
-        <v>0.9828515478660039</v>
+        <v>1.003615512388945</v>
       </c>
       <c r="K24">
-        <v>0.9936292679378232</v>
+        <v>1.011892910869288</v>
       </c>
       <c r="L24">
-        <v>0.9817013293883694</v>
+        <v>1.003098322699907</v>
       </c>
       <c r="M24">
-        <v>0.9323773949188044</v>
+        <v>1.000678461959392</v>
       </c>
       <c r="N24">
-        <v>0.9902104403147396</v>
+        <v>1.005040761532846</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9673197337190398</v>
+        <v>0.9908509994512197</v>
       </c>
       <c r="D25">
-        <v>0.9900913222435187</v>
+        <v>1.009729161453366</v>
       </c>
       <c r="E25">
-        <v>0.9784276541627274</v>
+        <v>1.003006766344179</v>
       </c>
       <c r="F25">
-        <v>0.9383314660793229</v>
+        <v>1.002644629379918</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032165978131192</v>
+        <v>1.037968331598825</v>
       </c>
       <c r="J25">
-        <v>0.9929992923013641</v>
+        <v>1.015690236183752</v>
       </c>
       <c r="K25">
-        <v>1.002845430160515</v>
+        <v>1.022178299064372</v>
       </c>
       <c r="L25">
-        <v>0.9913703461047177</v>
+        <v>1.015558584767893</v>
       </c>
       <c r="M25">
-        <v>0.9519690118587922</v>
+        <v>1.015202029139978</v>
       </c>
       <c r="N25">
-        <v>0.9971958041861327</v>
+        <v>1.017132632820431</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002572272011455</v>
+        <v>1.01234433743521</v>
       </c>
       <c r="D2">
-        <v>1.018616618394787</v>
+        <v>1.03242457688823</v>
       </c>
       <c r="E2">
-        <v>1.013570580487311</v>
+        <v>1.017074671133482</v>
       </c>
       <c r="F2">
-        <v>1.01478694844293</v>
+        <v>1.038050629549594</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041517969393304</v>
+        <v>1.049069874142576</v>
       </c>
       <c r="J2">
-        <v>1.024676318121823</v>
+        <v>1.03416199766488</v>
       </c>
       <c r="K2">
-        <v>1.0298225464685</v>
+        <v>1.043449937832934</v>
       </c>
       <c r="L2">
-        <v>1.024844038385221</v>
+        <v>1.028301145406442</v>
       </c>
       <c r="M2">
-        <v>1.026044050806715</v>
+        <v>1.049004138598037</v>
       </c>
       <c r="N2">
-        <v>1.026131476025578</v>
+        <v>1.035630626321612</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010673569812523</v>
+        <v>1.016362083553609</v>
       </c>
       <c r="D3">
-        <v>1.024765484452095</v>
+        <v>1.035540886173103</v>
       </c>
       <c r="E3">
-        <v>1.02088658362324</v>
+        <v>1.020260420279316</v>
       </c>
       <c r="F3">
-        <v>1.023201662766756</v>
+        <v>1.041800259930262</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043943658204889</v>
+        <v>1.050283634910232</v>
       </c>
       <c r="J3">
-        <v>1.030877432033392</v>
+        <v>1.036416426561393</v>
       </c>
       <c r="K3">
-        <v>1.035090996801245</v>
+        <v>1.045738346794379</v>
       </c>
       <c r="L3">
-        <v>1.031259013621194</v>
+        <v>1.030640465657618</v>
       </c>
       <c r="M3">
-        <v>1.033546037342443</v>
+        <v>1.051924839104923</v>
       </c>
       <c r="N3">
-        <v>1.032341396230174</v>
+        <v>1.037888256765735</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015744982707367</v>
+        <v>1.018914200499253</v>
       </c>
       <c r="D4">
-        <v>1.028616573875794</v>
+        <v>1.037523427276354</v>
       </c>
       <c r="E4">
-        <v>1.02547259456038</v>
+        <v>1.022289720443841</v>
       </c>
       <c r="F4">
-        <v>1.028479344295297</v>
+        <v>1.044187081921027</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045448842846872</v>
+        <v>1.051046868635916</v>
       </c>
       <c r="J4">
-        <v>1.03475432890135</v>
+        <v>1.037846149047406</v>
       </c>
       <c r="K4">
-        <v>1.038381467120921</v>
+        <v>1.047189126215019</v>
       </c>
       <c r="L4">
-        <v>1.035273008995416</v>
+        <v>1.032126370082487</v>
       </c>
       <c r="M4">
-        <v>1.038245782398797</v>
+        <v>1.053779926677962</v>
       </c>
       <c r="N4">
-        <v>1.03622379873637</v>
+        <v>1.03932000962167</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017838640868609</v>
+        <v>1.019976065258606</v>
       </c>
       <c r="D5">
-        <v>1.030206764492798</v>
+        <v>1.038348993503335</v>
       </c>
       <c r="E5">
-        <v>1.027367267550651</v>
+        <v>1.023135382216405</v>
       </c>
       <c r="F5">
-        <v>1.030660536824348</v>
+        <v>1.045181342074283</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046066974986722</v>
+        <v>1.05136253618899</v>
       </c>
       <c r="J5">
-        <v>1.036353579342711</v>
+        <v>1.038440433366819</v>
       </c>
       <c r="K5">
-        <v>1.039737979043318</v>
+        <v>1.04779203911296</v>
       </c>
       <c r="L5">
-        <v>1.036929633637985</v>
+        <v>1.032744570102609</v>
       </c>
       <c r="M5">
-        <v>1.04018679266122</v>
+        <v>1.054551699696002</v>
       </c>
       <c r="N5">
-        <v>1.037825320296795</v>
+        <v>1.039915137892983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018187993837457</v>
+        <v>1.020153719459348</v>
       </c>
       <c r="D6">
-        <v>1.030472123125756</v>
+        <v>1.038487153202392</v>
       </c>
       <c r="E6">
-        <v>1.027683497859016</v>
+        <v>1.0232769417537</v>
       </c>
       <c r="F6">
-        <v>1.031024634954588</v>
+        <v>1.045347753581748</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046169924223622</v>
+        <v>1.051415236494024</v>
       </c>
       <c r="J6">
-        <v>1.036620357622188</v>
+        <v>1.038539824414495</v>
       </c>
       <c r="K6">
-        <v>1.039964215051596</v>
+        <v>1.047892865788333</v>
       </c>
       <c r="L6">
-        <v>1.03720603117962</v>
+        <v>1.032847994029634</v>
       </c>
       <c r="M6">
-        <v>1.040510719492738</v>
+        <v>1.054680814839791</v>
       </c>
       <c r="N6">
-        <v>1.038092477432028</v>
+        <v>1.040014670087347</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015773105888477</v>
+        <v>1.018928432124236</v>
       </c>
       <c r="D7">
-        <v>1.028637933079114</v>
+        <v>1.037534489257087</v>
       </c>
       <c r="E7">
-        <v>1.025498039394996</v>
+        <v>1.022301049220169</v>
       </c>
       <c r="F7">
-        <v>1.028508633909356</v>
+        <v>1.044200402899547</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045457158947943</v>
+        <v>1.051051106878666</v>
       </c>
       <c r="J7">
-        <v>1.03477581603839</v>
+        <v>1.037854116272809</v>
       </c>
       <c r="K7">
-        <v>1.038399696225898</v>
+        <v>1.047197209616316</v>
       </c>
       <c r="L7">
-        <v>1.035295263741888</v>
+        <v>1.032134655707931</v>
       </c>
       <c r="M7">
-        <v>1.038271852064337</v>
+        <v>1.053790270704236</v>
       </c>
       <c r="N7">
-        <v>1.03624531638761</v>
+        <v>1.039327988161448</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005347060042125</v>
+        <v>1.013712237138308</v>
       </c>
       <c r="D8">
-        <v>1.020722190571872</v>
+        <v>1.033484910708059</v>
       </c>
       <c r="E8">
-        <v>1.016075034778656</v>
+        <v>1.018158094621722</v>
       </c>
       <c r="F8">
-        <v>1.017666931669046</v>
+        <v>1.039326174511272</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042351562959277</v>
+        <v>1.049484722660596</v>
       </c>
       <c r="J8">
-        <v>1.026801284335042</v>
+        <v>1.034930018339236</v>
       </c>
       <c r="K8">
-        <v>1.031628596020779</v>
+        <v>1.044229634243556</v>
       </c>
       <c r="L8">
-        <v>1.027041574564459</v>
+        <v>1.0290975946</v>
       </c>
       <c r="M8">
-        <v>1.028612794858331</v>
+        <v>1.049998547661208</v>
       </c>
       <c r="N8">
-        <v>1.028259459934552</v>
+        <v>1.03639973767341</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9855417600809077</v>
+        <v>1.004138913617209</v>
       </c>
       <c r="D9">
-        <v>1.005707859348685</v>
+        <v>1.026078606832816</v>
       </c>
       <c r="E9">
-        <v>0.9982300169200761</v>
+        <v>1.010601213616267</v>
       </c>
       <c r="F9">
-        <v>0.9971564064315204</v>
+        <v>1.03042183222153</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036347053980551</v>
+        <v>1.046549854698795</v>
       </c>
       <c r="J9">
-        <v>1.011615614019972</v>
+        <v>1.029546358017861</v>
       </c>
       <c r="K9">
-        <v>1.018709004372035</v>
+        <v>1.03876228619675</v>
       </c>
       <c r="L9">
-        <v>1.011351876287882</v>
+        <v>1.023524603578269</v>
       </c>
       <c r="M9">
-        <v>1.010295788052016</v>
+        <v>1.04303989194292</v>
       </c>
       <c r="N9">
-        <v>1.013052224225813</v>
+        <v>1.031008431936864</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9711717459527858</v>
+        <v>0.9974751239062047</v>
       </c>
       <c r="D10">
-        <v>0.9948403828136066</v>
+        <v>1.020943603784972</v>
       </c>
       <c r="E10">
-        <v>0.985326855673518</v>
+        <v>1.005375179424679</v>
       </c>
       <c r="F10">
-        <v>0.9823357868481316</v>
+        <v>1.024254099637568</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031924065431251</v>
+        <v>1.044468369205455</v>
       </c>
       <c r="J10">
-        <v>1.00057774136504</v>
+        <v>1.025789276985616</v>
       </c>
       <c r="K10">
-        <v>1.009303424856477</v>
+        <v>1.034944738279164</v>
       </c>
       <c r="L10">
-        <v>0.9999661902941703</v>
+        <v>1.01964805684487</v>
       </c>
       <c r="M10">
-        <v>0.9970314703474327</v>
+        <v>1.038198825133456</v>
       </c>
       <c r="N10">
-        <v>1.001998676525649</v>
+        <v>1.02724601541861</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.96461784557761</v>
+        <v>0.9945168850402967</v>
       </c>
       <c r="D11">
-        <v>0.9898931128720257</v>
+        <v>1.018669531402517</v>
       </c>
       <c r="E11">
-        <v>0.9794544161024806</v>
+        <v>1.003063901533678</v>
       </c>
       <c r="F11">
-        <v>0.9755918066378113</v>
+        <v>1.021523855613097</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029892482743979</v>
+        <v>1.043535656766896</v>
       </c>
       <c r="J11">
-        <v>0.9955404150734731</v>
+        <v>1.024119560511168</v>
       </c>
       <c r="K11">
-        <v>1.005008180849569</v>
+        <v>1.03324775183579</v>
       </c>
       <c r="L11">
-        <v>0.9947744793283551</v>
+        <v>1.017928267548036</v>
       </c>
       <c r="M11">
-        <v>0.9909891876072703</v>
+        <v>1.036050966908064</v>
       </c>
       <c r="N11">
-        <v>0.9969541966529594</v>
+        <v>1.02557392775525</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9621280475588828</v>
+        <v>0.9934065873310314</v>
       </c>
       <c r="D12">
-        <v>0.9880153339116042</v>
+        <v>1.01781690253625</v>
       </c>
       <c r="E12">
-        <v>0.9772255586629967</v>
+        <v>1.002197784672368</v>
       </c>
       <c r="F12">
-        <v>0.9730322070299804</v>
+        <v>1.02050035023717</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029118678709842</v>
+        <v>1.043184323965676</v>
       </c>
       <c r="J12">
-        <v>0.9936264342116357</v>
+        <v>1.023492637481521</v>
       </c>
       <c r="K12">
-        <v>1.003375800328948</v>
+        <v>1.032610538290052</v>
       </c>
       <c r="L12">
-        <v>0.9928024862953003</v>
+        <v>1.017282999379359</v>
       </c>
       <c r="M12">
-        <v>0.9886949701633641</v>
+        <v>1.035245060034053</v>
       </c>
       <c r="N12">
-        <v>0.9950374977187614</v>
+        <v>1.024946114422991</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9626647232437858</v>
+        <v>0.9936452783540738</v>
       </c>
       <c r="D13">
-        <v>0.9884200087542957</v>
+        <v>1.018000159131875</v>
       </c>
       <c r="E13">
-        <v>0.9777058926288069</v>
+        <v>1.002383919482156</v>
       </c>
       <c r="F13">
-        <v>0.9735838182086574</v>
+        <v>1.020720326703393</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029285560532291</v>
+        <v>1.043259909667594</v>
       </c>
       <c r="J13">
-        <v>0.9940390044808248</v>
+        <v>1.02362742309818</v>
       </c>
       <c r="K13">
-        <v>1.003727685060738</v>
+        <v>1.032747538516103</v>
       </c>
       <c r="L13">
-        <v>0.9932275323069532</v>
+        <v>1.017421708500644</v>
       </c>
       <c r="M13">
-        <v>0.989189431410527</v>
+        <v>1.035418301826191</v>
       </c>
       <c r="N13">
-        <v>0.9954506538850549</v>
+        <v>1.025081091450686</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9644132033602896</v>
+        <v>0.9944253448481929</v>
       </c>
       <c r="D14">
-        <v>0.9897387383608057</v>
+        <v>1.018599216770676</v>
       </c>
       <c r="E14">
-        <v>0.9792711783851746</v>
+        <v>1.002992465214312</v>
       </c>
       <c r="F14">
-        <v>0.9753813779197504</v>
+        <v>1.021439446026563</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029828921953114</v>
+        <v>1.043506716047565</v>
       </c>
       <c r="J14">
-        <v>0.9953831061842501</v>
+        <v>1.024067877506114</v>
       </c>
       <c r="K14">
-        <v>1.004874023419018</v>
+        <v>1.03319522148922</v>
       </c>
       <c r="L14">
-        <v>0.9946123893658592</v>
+        <v>1.017875062911631</v>
       </c>
       <c r="M14">
-        <v>0.9908005951762504</v>
+        <v>1.035984517586356</v>
       </c>
       <c r="N14">
-        <v>0.9967966643670696</v>
+        <v>1.025522171354399</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9654829786388816</v>
+        <v>0.9949044320805058</v>
       </c>
       <c r="D15">
-        <v>0.9905458066698611</v>
+        <v>1.018967253778062</v>
       </c>
       <c r="E15">
-        <v>0.9802291454117453</v>
+        <v>1.003366392100162</v>
       </c>
       <c r="F15">
-        <v>0.9764815006753046</v>
+        <v>1.021881264411921</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03016110761957</v>
+        <v>1.043658129699365</v>
       </c>
       <c r="J15">
-        <v>0.9962054324759235</v>
+        <v>1.0243383575883</v>
       </c>
       <c r="K15">
-        <v>1.005575312097543</v>
+        <v>1.033470134032599</v>
       </c>
       <c r="L15">
-        <v>0.9954597347917898</v>
+        <v>1.018153524952484</v>
       </c>
       <c r="M15">
-        <v>0.9917865197818847</v>
+        <v>1.036332298481664</v>
       </c>
       <c r="N15">
-        <v>0.9976201584563993</v>
+        <v>1.025793035549327</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9715992646402563</v>
+        <v>0.9976698736438658</v>
       </c>
       <c r="D16">
-        <v>0.995163311763716</v>
+        <v>1.021093432381086</v>
       </c>
       <c r="E16">
-        <v>0.9857101937143423</v>
+        <v>1.005527523782192</v>
       </c>
       <c r="F16">
-        <v>0.9827760302669362</v>
+        <v>1.024434006399381</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0320563035319</v>
+        <v>1.044529594754763</v>
       </c>
       <c r="J16">
-        <v>1.000906279264878</v>
+        <v>1.025899164173069</v>
       </c>
       <c r="K16">
-        <v>1.00958351036442</v>
+        <v>1.035056412549895</v>
       </c>
       <c r="L16">
-        <v>1.000304886458852</v>
+        <v>1.019761302540414</v>
       </c>
       <c r="M16">
-        <v>0.9974257763033422</v>
+        <v>1.038340254938291</v>
       </c>
       <c r="N16">
-        <v>1.002327680986989</v>
+        <v>1.027356058658474</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9753434050169637</v>
+        <v>0.9993847055733147</v>
       </c>
       <c r="D17">
-        <v>0.9979925345457519</v>
+        <v>1.02241335332815</v>
       </c>
       <c r="E17">
-        <v>0.9890688259913556</v>
+        <v>1.006869961632518</v>
       </c>
       <c r="F17">
-        <v>0.9866333552584878</v>
+        <v>1.026019034540402</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033212827666605</v>
+        <v>1.045067719512194</v>
       </c>
       <c r="J17">
-        <v>1.003783223234745</v>
+        <v>1.026866549190083</v>
       </c>
       <c r="K17">
-        <v>1.012035853695122</v>
+        <v>1.036039485725017</v>
       </c>
       <c r="L17">
-        <v>1.00327127193574</v>
+        <v>1.020758598301504</v>
       </c>
       <c r="M17">
-        <v>1.000879880770054</v>
+        <v>1.039585733949974</v>
       </c>
       <c r="N17">
-        <v>1.005208710547283</v>
+        <v>1.028324817473173</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9774957240461055</v>
+        <v>1.000377954738115</v>
       </c>
       <c r="D18">
-        <v>0.9996197520152621</v>
+        <v>1.023178384242473</v>
       </c>
       <c r="E18">
-        <v>0.9910006872681996</v>
+        <v>1.007648339691339</v>
       </c>
       <c r="F18">
-        <v>0.9888521751292251</v>
+        <v>1.026937836156437</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033876305046116</v>
+        <v>1.045378578880092</v>
       </c>
       <c r="J18">
-        <v>1.005436728754319</v>
+        <v>1.027426690998584</v>
       </c>
       <c r="K18">
-        <v>1.013445052264235</v>
+        <v>1.036608673092475</v>
       </c>
       <c r="L18">
-        <v>1.004976589966605</v>
+        <v>1.021336345999645</v>
       </c>
       <c r="M18">
-        <v>1.002866149642532</v>
+        <v>1.040307241667668</v>
       </c>
       <c r="N18">
-        <v>1.006864564234355</v>
+        <v>1.02888575474729</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9782244089464555</v>
+        <v>1.000715458490114</v>
       </c>
       <c r="D19">
-        <v>1.000170794002487</v>
+        <v>1.023438426183922</v>
       </c>
       <c r="E19">
-        <v>0.9916549247207581</v>
+        <v>1.007912968877953</v>
       </c>
       <c r="F19">
-        <v>0.9896036156660126</v>
+        <v>1.027250166191846</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03410069772173</v>
+        <v>1.045484066462592</v>
       </c>
       <c r="J19">
-        <v>1.005996480354878</v>
+        <v>1.02761699454876</v>
       </c>
       <c r="K19">
-        <v>1.013922052366757</v>
+        <v>1.036802043061171</v>
       </c>
       <c r="L19">
-        <v>1.005553950473839</v>
+        <v>1.021532679598791</v>
       </c>
       <c r="M19">
-        <v>1.003538728553343</v>
+        <v>1.040552425938853</v>
       </c>
       <c r="N19">
-        <v>1.007425110746392</v>
+        <v>1.029076328550336</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9749449976056291</v>
+        <v>0.9992014464674198</v>
       </c>
       <c r="D20">
-        <v>0.9976913927613017</v>
+        <v>1.022272243027268</v>
       </c>
       <c r="E20">
-        <v>0.9887113188167144</v>
+        <v>1.006726413409885</v>
       </c>
       <c r="F20">
-        <v>0.9862227540397068</v>
+        <v>1.025849570474976</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033089903504234</v>
+        <v>1.045010297301066</v>
       </c>
       <c r="J20">
-        <v>1.003477123465695</v>
+        <v>1.026763185757884</v>
       </c>
       <c r="K20">
-        <v>1.011774958076845</v>
+        <v>1.035934449956187</v>
       </c>
       <c r="L20">
-        <v>1.002955613554791</v>
+        <v>1.020652009199629</v>
       </c>
       <c r="M20">
-        <v>1.000512264376271</v>
+        <v>1.039452621163014</v>
       </c>
       <c r="N20">
-        <v>1.004902176081451</v>
+        <v>1.028221307253044</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9638998976962802</v>
+        <v>0.9941959560289332</v>
       </c>
       <c r="D21">
-        <v>0.98935154739846</v>
+        <v>1.018423031140967</v>
       </c>
       <c r="E21">
-        <v>0.9788115955070847</v>
+        <v>1.002813476422404</v>
       </c>
       <c r="F21">
-        <v>0.9748535969560529</v>
+        <v>1.021227945500651</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029669460068423</v>
+        <v>1.043434173833647</v>
       </c>
       <c r="J21">
-        <v>0.994988522441989</v>
+        <v>1.023938362340941</v>
       </c>
       <c r="K21">
-        <v>1.004537505782215</v>
+        <v>1.033063582124034</v>
       </c>
       <c r="L21">
-        <v>0.9942058234677946</v>
+        <v>1.017741741957005</v>
       </c>
       <c r="M21">
-        <v>0.9903275673332544</v>
+        <v>1.035818007476949</v>
       </c>
       <c r="N21">
-        <v>0.9964015202706352</v>
+        <v>1.025392472262837</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9566315023805019</v>
+        <v>0.9909821151803934</v>
       </c>
       <c r="D22">
-        <v>0.9838733328088279</v>
+        <v>1.01595677544717</v>
       </c>
       <c r="E22">
-        <v>0.9723091029178887</v>
+        <v>1.000309073618609</v>
       </c>
       <c r="F22">
-        <v>0.9673861292761089</v>
+        <v>1.018267701408718</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027406855558706</v>
+        <v>1.042414870074557</v>
       </c>
       <c r="J22">
-        <v>0.9894006691267847</v>
+        <v>1.02212327916614</v>
       </c>
       <c r="K22">
-        <v>0.9997711775365472</v>
+        <v>1.031218617419339</v>
       </c>
       <c r="L22">
-        <v>0.9884498311305501</v>
+        <v>1.015874410185799</v>
       </c>
       <c r="M22">
-        <v>0.9836325937033993</v>
+        <v>1.033485754859413</v>
       </c>
       <c r="N22">
-        <v>0.9908057315627876</v>
+        <v>1.023574811461735</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9605174213759509</v>
+        <v>0.9926923444719177</v>
       </c>
       <c r="D23">
-        <v>0.9868011263069066</v>
+        <v>1.017268672236824</v>
       </c>
       <c r="E23">
-        <v>0.9757843377874897</v>
+        <v>1.001641011133535</v>
       </c>
       <c r="F23">
-        <v>0.9713771185067943</v>
+        <v>1.01984229046558</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028617563317403</v>
+        <v>1.042957964523777</v>
       </c>
       <c r="J23">
-        <v>0.9923882283582844</v>
+        <v>1.023089282224587</v>
       </c>
       <c r="K23">
-        <v>1.002319676531864</v>
+        <v>1.032200548752779</v>
       </c>
       <c r="L23">
-        <v>0.9915269328219124</v>
+        <v>1.016867969673596</v>
       </c>
       <c r="M23">
-        <v>0.9872112232295319</v>
+        <v>1.034726701649423</v>
       </c>
       <c r="N23">
-        <v>0.9937975334710741</v>
+        <v>1.024542186355327</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9751251179299265</v>
+        <v>0.9992842749103669</v>
       </c>
       <c r="D24">
-        <v>0.997827536626959</v>
+        <v>1.022336019682662</v>
       </c>
       <c r="E24">
-        <v>0.988872944542624</v>
+        <v>1.006791290997661</v>
       </c>
       <c r="F24">
-        <v>0.9864083827341774</v>
+        <v>1.025926161633453</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033145481830101</v>
+        <v>1.045036253246656</v>
       </c>
       <c r="J24">
-        <v>1.003615512388945</v>
+        <v>1.026809903948314</v>
       </c>
       <c r="K24">
-        <v>1.011892910869288</v>
+        <v>1.03598192412846</v>
       </c>
       <c r="L24">
-        <v>1.003098322699907</v>
+        <v>1.02070018443901</v>
       </c>
       <c r="M24">
-        <v>1.000678461959392</v>
+        <v>1.039512784402688</v>
       </c>
       <c r="N24">
-        <v>1.005040761532846</v>
+        <v>1.028268091788663</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9908509994512197</v>
+        <v>1.006661562769232</v>
       </c>
       <c r="D25">
-        <v>1.009729161453366</v>
+        <v>1.02802692048809</v>
       </c>
       <c r="E25">
-        <v>1.003006766344179</v>
+        <v>1.01258680405113</v>
       </c>
       <c r="F25">
-        <v>1.002644629379918</v>
+        <v>1.032763129276079</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037968331598825</v>
+        <v>1.047330032351285</v>
       </c>
       <c r="J25">
-        <v>1.015690236183752</v>
+        <v>1.030966799865172</v>
       </c>
       <c r="K25">
-        <v>1.022178299064372</v>
+        <v>1.040205193983034</v>
       </c>
       <c r="L25">
-        <v>1.015558584767893</v>
+        <v>1.024992818528224</v>
       </c>
       <c r="M25">
-        <v>1.015202029139978</v>
+        <v>1.044873271698846</v>
       </c>
       <c r="N25">
-        <v>1.017132632820431</v>
+        <v>1.032430890974526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01234433743521</v>
+        <v>1.037535968089784</v>
       </c>
       <c r="D2">
-        <v>1.03242457688823</v>
+        <v>1.047018807962933</v>
       </c>
       <c r="E2">
-        <v>1.017074671133482</v>
+        <v>1.036314708015164</v>
       </c>
       <c r="F2">
-        <v>1.038050629549594</v>
+        <v>1.057583501978786</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049069874142576</v>
+        <v>1.0416363482431</v>
       </c>
       <c r="J2">
-        <v>1.03416199766488</v>
+        <v>1.042638307426631</v>
       </c>
       <c r="K2">
-        <v>1.043449937832934</v>
+        <v>1.049782618260352</v>
       </c>
       <c r="L2">
-        <v>1.028301145406442</v>
+        <v>1.039108802664993</v>
       </c>
       <c r="M2">
-        <v>1.049004138598037</v>
+        <v>1.060318073686908</v>
       </c>
       <c r="N2">
-        <v>1.035630626321612</v>
+        <v>1.044118973415462</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016362083553609</v>
+        <v>1.038392959414711</v>
       </c>
       <c r="D3">
-        <v>1.035540886173103</v>
+        <v>1.047710356703334</v>
       </c>
       <c r="E3">
-        <v>1.020260420279316</v>
+        <v>1.037041227658753</v>
       </c>
       <c r="F3">
-        <v>1.041800259930262</v>
+        <v>1.058438122700043</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050283634910232</v>
+        <v>1.041851486440149</v>
       </c>
       <c r="J3">
-        <v>1.036416426561393</v>
+        <v>1.043140183149734</v>
       </c>
       <c r="K3">
-        <v>1.045738346794379</v>
+        <v>1.050286238753185</v>
       </c>
       <c r="L3">
-        <v>1.030640465657618</v>
+        <v>1.039645118768165</v>
       </c>
       <c r="M3">
-        <v>1.051924839104923</v>
+        <v>1.060986455766684</v>
       </c>
       <c r="N3">
-        <v>1.037888256765735</v>
+        <v>1.044621561859658</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018914200499253</v>
+        <v>1.038948153058497</v>
       </c>
       <c r="D4">
-        <v>1.037523427276354</v>
+        <v>1.048158426837216</v>
       </c>
       <c r="E4">
-        <v>1.022289720443841</v>
+        <v>1.037512275436404</v>
       </c>
       <c r="F4">
-        <v>1.044187081921027</v>
+        <v>1.058992096763948</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051046868635916</v>
+        <v>1.041989876830475</v>
       </c>
       <c r="J4">
-        <v>1.037846149047406</v>
+        <v>1.043464932975555</v>
       </c>
       <c r="K4">
-        <v>1.047189126215019</v>
+        <v>1.050612028034786</v>
       </c>
       <c r="L4">
-        <v>1.032126370082487</v>
+        <v>1.03999242175089</v>
       </c>
       <c r="M4">
-        <v>1.053779926677962</v>
+        <v>1.061419274351417</v>
       </c>
       <c r="N4">
-        <v>1.03932000962167</v>
+        <v>1.044946772867481</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019976065258606</v>
+        <v>1.039181713611396</v>
       </c>
       <c r="D5">
-        <v>1.038348993503335</v>
+        <v>1.048346935466272</v>
       </c>
       <c r="E5">
-        <v>1.023135382216405</v>
+        <v>1.037710527429864</v>
       </c>
       <c r="F5">
-        <v>1.045181342074283</v>
+        <v>1.059225219534524</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05136253618899</v>
+        <v>1.04204785950206</v>
       </c>
       <c r="J5">
-        <v>1.038440433366819</v>
+        <v>1.043601457198713</v>
       </c>
       <c r="K5">
-        <v>1.04779203911296</v>
+        <v>1.050748967741826</v>
       </c>
       <c r="L5">
-        <v>1.032744570102609</v>
+        <v>1.040138491363459</v>
       </c>
       <c r="M5">
-        <v>1.054551699696002</v>
+        <v>1.061601308850251</v>
       </c>
       <c r="N5">
-        <v>1.039915137892983</v>
+        <v>1.045083490970695</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020153719459348</v>
+        <v>1.039220938625538</v>
       </c>
       <c r="D6">
-        <v>1.038487153202392</v>
+        <v>1.048378595050199</v>
       </c>
       <c r="E6">
-        <v>1.0232769417537</v>
+        <v>1.037743827867139</v>
       </c>
       <c r="F6">
-        <v>1.045347753581748</v>
+        <v>1.059264375427331</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051415236494024</v>
+        <v>1.042057583495311</v>
       </c>
       <c r="J6">
-        <v>1.038539824414495</v>
+        <v>1.043624380144983</v>
       </c>
       <c r="K6">
-        <v>1.047892865788333</v>
+        <v>1.050771959186654</v>
       </c>
       <c r="L6">
-        <v>1.032847994029634</v>
+        <v>1.040163020775148</v>
       </c>
       <c r="M6">
-        <v>1.054680814839791</v>
+        <v>1.061631877745569</v>
       </c>
       <c r="N6">
-        <v>1.040014670087347</v>
+        <v>1.045106446470178</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018928432124236</v>
+        <v>1.038951273290518</v>
       </c>
       <c r="D7">
-        <v>1.037534489257087</v>
+        <v>1.048160945151051</v>
       </c>
       <c r="E7">
-        <v>1.022301049220169</v>
+        <v>1.037514923613231</v>
       </c>
       <c r="F7">
-        <v>1.044200402899547</v>
+        <v>1.058995210852302</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051051106878666</v>
+        <v>1.04199065237136</v>
       </c>
       <c r="J7">
-        <v>1.037854116272809</v>
+        <v>1.043466757222836</v>
       </c>
       <c r="K7">
-        <v>1.047197209616316</v>
+        <v>1.050613857918365</v>
       </c>
       <c r="L7">
-        <v>1.032134655707931</v>
+        <v>1.039994373292618</v>
       </c>
       <c r="M7">
-        <v>1.053790270704236</v>
+        <v>1.061421706402525</v>
       </c>
       <c r="N7">
-        <v>1.039327988161448</v>
+        <v>1.044948599705402</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013712237138308</v>
+        <v>1.037825454108851</v>
       </c>
       <c r="D8">
-        <v>1.033484910708059</v>
+        <v>1.047252396499702</v>
       </c>
       <c r="E8">
-        <v>1.018158094621722</v>
+        <v>1.036560042830785</v>
       </c>
       <c r="F8">
-        <v>1.039326174511272</v>
+        <v>1.057872121554011</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049484722660596</v>
+        <v>1.041709224227724</v>
       </c>
       <c r="J8">
-        <v>1.034930018339236</v>
+        <v>1.04280791737545</v>
       </c>
       <c r="K8">
-        <v>1.044229634243556</v>
+        <v>1.049952836357088</v>
       </c>
       <c r="L8">
-        <v>1.0290975946</v>
+        <v>1.03928999636519</v>
       </c>
       <c r="M8">
-        <v>1.049998547661208</v>
+        <v>1.060543887106532</v>
       </c>
       <c r="N8">
-        <v>1.03639973767341</v>
+        <v>1.044288824229862</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004138913617209</v>
+        <v>1.035846763681862</v>
       </c>
       <c r="D9">
-        <v>1.026078606832816</v>
+        <v>1.045656027851019</v>
       </c>
       <c r="E9">
-        <v>1.010601213616267</v>
+        <v>1.034884705838522</v>
       </c>
       <c r="F9">
-        <v>1.03042183222153</v>
+        <v>1.055900663645517</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046549854698795</v>
+        <v>1.041207075746784</v>
       </c>
       <c r="J9">
-        <v>1.029546358017861</v>
+        <v>1.041647032887566</v>
       </c>
       <c r="K9">
-        <v>1.03876228619675</v>
+        <v>1.048787424858885</v>
       </c>
       <c r="L9">
-        <v>1.023524603578269</v>
+        <v>1.038050926146663</v>
       </c>
       <c r="M9">
-        <v>1.04303989194292</v>
+        <v>1.058999660855606</v>
       </c>
       <c r="N9">
-        <v>1.031008431936864</v>
+        <v>1.043126291152852</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9974751239062047</v>
+        <v>1.034531190472219</v>
       </c>
       <c r="D10">
-        <v>1.020943603784972</v>
+        <v>1.044594985931969</v>
       </c>
       <c r="E10">
-        <v>1.005375179424679</v>
+        <v>1.033772817929168</v>
       </c>
       <c r="F10">
-        <v>1.024254099637568</v>
+        <v>1.054591560452129</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044468369205455</v>
+        <v>1.040868160283168</v>
       </c>
       <c r="J10">
-        <v>1.025789276985616</v>
+        <v>1.040873234814864</v>
       </c>
       <c r="K10">
-        <v>1.034944738279164</v>
+        <v>1.04801015411057</v>
       </c>
       <c r="L10">
-        <v>1.01964805684487</v>
+        <v>1.037226392881189</v>
       </c>
       <c r="M10">
-        <v>1.038198825133456</v>
+        <v>1.05797202267742</v>
       </c>
       <c r="N10">
-        <v>1.02724601541861</v>
+        <v>1.04235139419813</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9945168850402967</v>
+        <v>1.033962395242903</v>
       </c>
       <c r="D11">
-        <v>1.018669531402517</v>
+        <v>1.044136324996521</v>
       </c>
       <c r="E11">
-        <v>1.003063901533678</v>
+        <v>1.033292567218569</v>
       </c>
       <c r="F11">
-        <v>1.021523855613097</v>
+        <v>1.054025962066183</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043535656766896</v>
+        <v>1.040720430923833</v>
       </c>
       <c r="J11">
-        <v>1.024119560511168</v>
+        <v>1.040538216961669</v>
       </c>
       <c r="K11">
-        <v>1.03324775183579</v>
+        <v>1.047673525614519</v>
       </c>
       <c r="L11">
-        <v>1.017928267548036</v>
+        <v>1.036869736782578</v>
       </c>
       <c r="M11">
-        <v>1.036050966908064</v>
+        <v>1.057527501999932</v>
       </c>
       <c r="N11">
-        <v>1.02557392775525</v>
+        <v>1.042015900581156</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9934065873310314</v>
+        <v>1.033751249638818</v>
       </c>
       <c r="D12">
-        <v>1.01781690253625</v>
+        <v>1.0439660764531</v>
       </c>
       <c r="E12">
-        <v>1.002197784672368</v>
+        <v>1.033114363431529</v>
       </c>
       <c r="F12">
-        <v>1.02050035023717</v>
+        <v>1.053816063663605</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043184323965676</v>
+        <v>1.040665411635363</v>
       </c>
       <c r="J12">
-        <v>1.023492637481521</v>
+        <v>1.040413783950755</v>
       </c>
       <c r="K12">
-        <v>1.032610538290052</v>
+        <v>1.047548478344142</v>
       </c>
       <c r="L12">
-        <v>1.017282999379359</v>
+        <v>1.036737316117137</v>
       </c>
       <c r="M12">
-        <v>1.035245060034053</v>
+        <v>1.057362456974898</v>
       </c>
       <c r="N12">
-        <v>1.024946114422991</v>
+        <v>1.041891290861094</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9936452783540738</v>
+        <v>1.033796535167457</v>
       </c>
       <c r="D13">
-        <v>1.018000159131875</v>
+        <v>1.044002589950356</v>
       </c>
       <c r="E13">
-        <v>1.002383919482156</v>
+        <v>1.033152580451734</v>
       </c>
       <c r="F13">
-        <v>1.020720326703393</v>
+        <v>1.053861078953586</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043259909667594</v>
+        <v>1.040677220056016</v>
       </c>
       <c r="J13">
-        <v>1.02362742309818</v>
+        <v>1.040440474892816</v>
       </c>
       <c r="K13">
-        <v>1.032747538516103</v>
+        <v>1.047575301769576</v>
       </c>
       <c r="L13">
-        <v>1.017421708500644</v>
+        <v>1.03676571818501</v>
       </c>
       <c r="M13">
-        <v>1.035418301826191</v>
+        <v>1.057397856510759</v>
       </c>
       <c r="N13">
-        <v>1.025081091450686</v>
+        <v>1.041918019707355</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9944253448481929</v>
+        <v>1.033944939214858</v>
       </c>
       <c r="D14">
-        <v>1.018599216770676</v>
+        <v>1.044122249770129</v>
       </c>
       <c r="E14">
-        <v>1.002992465214312</v>
+        <v>1.033277833100256</v>
       </c>
       <c r="F14">
-        <v>1.021439446026563</v>
+        <v>1.054008607911195</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043506716047565</v>
+        <v>1.040715885987039</v>
       </c>
       <c r="J14">
-        <v>1.024067877506114</v>
+        <v>1.040527931129174</v>
       </c>
       <c r="K14">
-        <v>1.03319522148922</v>
+        <v>1.047663189333015</v>
       </c>
       <c r="L14">
-        <v>1.017875062911631</v>
+        <v>1.036858789672483</v>
       </c>
       <c r="M14">
-        <v>1.035984517586356</v>
+        <v>1.057513857894469</v>
       </c>
       <c r="N14">
-        <v>1.025522171354399</v>
+        <v>1.042005600141599</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9949044320805058</v>
+        <v>1.034036393155374</v>
       </c>
       <c r="D15">
-        <v>1.018967253778062</v>
+        <v>1.044195991896654</v>
       </c>
       <c r="E15">
-        <v>1.003366392100162</v>
+        <v>1.033355029655807</v>
       </c>
       <c r="F15">
-        <v>1.021881264411921</v>
+        <v>1.054099530608514</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043658129699365</v>
+        <v>1.040739690014759</v>
       </c>
       <c r="J15">
-        <v>1.0243383575883</v>
+        <v>1.040581816838982</v>
       </c>
       <c r="K15">
-        <v>1.033470134032599</v>
+        <v>1.047717338680372</v>
       </c>
       <c r="L15">
-        <v>1.018153524952484</v>
+        <v>1.0369161417199</v>
       </c>
       <c r="M15">
-        <v>1.036332298481664</v>
+        <v>1.057585339466217</v>
       </c>
       <c r="N15">
-        <v>1.025793035549327</v>
+        <v>1.042059562375296</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9976698736438658</v>
+        <v>1.034568957720673</v>
       </c>
       <c r="D16">
-        <v>1.021093432381086</v>
+        <v>1.044625442274878</v>
       </c>
       <c r="E16">
-        <v>1.005527523782192</v>
+        <v>1.033804716110425</v>
       </c>
       <c r="F16">
-        <v>1.024434006399381</v>
+        <v>1.054629123895994</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044529594754763</v>
+        <v>1.040877944076711</v>
       </c>
       <c r="J16">
-        <v>1.025899164173069</v>
+        <v>1.040895469834486</v>
       </c>
       <c r="K16">
-        <v>1.035056412549895</v>
+        <v>1.048032493776164</v>
       </c>
       <c r="L16">
-        <v>1.019761302540414</v>
+        <v>1.037250070931061</v>
       </c>
       <c r="M16">
-        <v>1.038340254938291</v>
+        <v>1.058001533742692</v>
       </c>
       <c r="N16">
-        <v>1.027356058658474</v>
+        <v>1.04237366079403</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9993847055733147</v>
+        <v>1.034903251857496</v>
       </c>
       <c r="D17">
-        <v>1.02241335332815</v>
+        <v>1.044895034492419</v>
       </c>
       <c r="E17">
-        <v>1.006869961632518</v>
+        <v>1.034087116189707</v>
       </c>
       <c r="F17">
-        <v>1.026019034540402</v>
+        <v>1.054961660315877</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045067719512194</v>
+        <v>1.040964406203886</v>
       </c>
       <c r="J17">
-        <v>1.026866549190083</v>
+        <v>1.041092228152676</v>
       </c>
       <c r="K17">
-        <v>1.036039485725017</v>
+        <v>1.04823016573998</v>
       </c>
       <c r="L17">
-        <v>1.020758598301504</v>
+        <v>1.037459636526676</v>
       </c>
       <c r="M17">
-        <v>1.039585733949974</v>
+        <v>1.058262723959696</v>
       </c>
       <c r="N17">
-        <v>1.028324817473173</v>
+        <v>1.0425706985316</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000377954738115</v>
+        <v>1.035098322520837</v>
       </c>
       <c r="D18">
-        <v>1.023178384242473</v>
+        <v>1.045052357942527</v>
       </c>
       <c r="E18">
-        <v>1.007648339691339</v>
+        <v>1.034251951434253</v>
       </c>
       <c r="F18">
-        <v>1.026937836156437</v>
+        <v>1.055155743847531</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045378578880092</v>
+        <v>1.041014743811735</v>
       </c>
       <c r="J18">
-        <v>1.027426690998584</v>
+        <v>1.041206997901547</v>
       </c>
       <c r="K18">
-        <v>1.036608673092475</v>
+        <v>1.048345458078719</v>
       </c>
       <c r="L18">
-        <v>1.021336345999645</v>
+        <v>1.037581908417947</v>
       </c>
       <c r="M18">
-        <v>1.040307241667668</v>
+        <v>1.058415115435261</v>
       </c>
       <c r="N18">
-        <v>1.02888575474729</v>
+        <v>1.042685631266679</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000715458490114</v>
+        <v>1.0351648505301</v>
       </c>
       <c r="D19">
-        <v>1.023438426183922</v>
+        <v>1.045106013818571</v>
       </c>
       <c r="E19">
-        <v>1.007912968877953</v>
+        <v>1.034308175622999</v>
       </c>
       <c r="F19">
-        <v>1.027250166191846</v>
+        <v>1.055221941724199</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045484066462592</v>
+        <v>1.041031891620541</v>
       </c>
       <c r="J19">
-        <v>1.02761699454876</v>
+        <v>1.041246132051987</v>
       </c>
       <c r="K19">
-        <v>1.036802043061171</v>
+        <v>1.048384768665411</v>
       </c>
       <c r="L19">
-        <v>1.021532679598791</v>
+        <v>1.037623606008115</v>
       </c>
       <c r="M19">
-        <v>1.040552425938853</v>
+        <v>1.058467084343175</v>
       </c>
       <c r="N19">
-        <v>1.029076328550336</v>
+        <v>1.042724820992101</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9992014464674198</v>
+        <v>1.034867376710586</v>
       </c>
       <c r="D20">
-        <v>1.022272243027268</v>
+        <v>1.044866102041784</v>
       </c>
       <c r="E20">
-        <v>1.006726413409885</v>
+        <v>1.034056805316528</v>
       </c>
       <c r="F20">
-        <v>1.025849570474976</v>
+        <v>1.054925969810334</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045010297301066</v>
+        <v>1.040955139383413</v>
       </c>
       <c r="J20">
-        <v>1.026763185757884</v>
+        <v>1.041071117429545</v>
       </c>
       <c r="K20">
-        <v>1.035934449956187</v>
+        <v>1.04820895805867</v>
       </c>
       <c r="L20">
-        <v>1.020652009199629</v>
+        <v>1.037437148406196</v>
       </c>
       <c r="M20">
-        <v>1.039452621163014</v>
+        <v>1.058234696195588</v>
       </c>
       <c r="N20">
-        <v>1.028221307253044</v>
+        <v>1.042549557828821</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9941959560289332</v>
+        <v>1.033901234313081</v>
       </c>
       <c r="D21">
-        <v>1.018423031140967</v>
+        <v>1.044087009648786</v>
       </c>
       <c r="E21">
-        <v>1.002813476422404</v>
+        <v>1.033240944258894</v>
       </c>
       <c r="F21">
-        <v>1.021227945500651</v>
+        <v>1.053965159049205</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043434173833647</v>
+        <v>1.040704503859372</v>
       </c>
       <c r="J21">
-        <v>1.023938362340941</v>
+        <v>1.040502177229241</v>
       </c>
       <c r="K21">
-        <v>1.033063582124034</v>
+        <v>1.047637308858959</v>
       </c>
       <c r="L21">
-        <v>1.017741741957005</v>
+        <v>1.036831380846739</v>
       </c>
       <c r="M21">
-        <v>1.035818007476949</v>
+        <v>1.057479696439827</v>
       </c>
       <c r="N21">
-        <v>1.025392472262837</v>
+        <v>1.041979809668174</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9909821151803934</v>
+        <v>1.033294536721066</v>
       </c>
       <c r="D22">
-        <v>1.01595677544717</v>
+        <v>1.043597850113668</v>
       </c>
       <c r="E22">
-        <v>1.000309073618609</v>
+        <v>1.032729038028927</v>
       </c>
       <c r="F22">
-        <v>1.018267701408718</v>
+        <v>1.053362159550518</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042414870074557</v>
+        <v>1.040546074847752</v>
       </c>
       <c r="J22">
-        <v>1.02212327916614</v>
+        <v>1.040144506168927</v>
       </c>
       <c r="K22">
-        <v>1.031218617419339</v>
+        <v>1.047277842037308</v>
       </c>
       <c r="L22">
-        <v>1.015874410185799</v>
+        <v>1.036450842874913</v>
       </c>
       <c r="M22">
-        <v>1.033485754859413</v>
+        <v>1.057005402465812</v>
       </c>
       <c r="N22">
-        <v>1.023574811461735</v>
+        <v>1.041621630673929</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9926923444719177</v>
+        <v>1.033616086553217</v>
       </c>
       <c r="D23">
-        <v>1.017268672236824</v>
+        <v>1.043857097145415</v>
       </c>
       <c r="E23">
-        <v>1.001641011133535</v>
+        <v>1.033000308317322</v>
       </c>
       <c r="F23">
-        <v>1.01984229046558</v>
+        <v>1.05368171604697</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042957964523777</v>
+        <v>1.04063014087466</v>
       </c>
       <c r="J23">
-        <v>1.023089282224587</v>
+        <v>1.040334109754479</v>
       </c>
       <c r="K23">
-        <v>1.032200548752779</v>
+        <v>1.047468406333972</v>
       </c>
       <c r="L23">
-        <v>1.016867969673596</v>
+        <v>1.036652541315753</v>
       </c>
       <c r="M23">
-        <v>1.034726701649423</v>
+        <v>1.057256795806408</v>
       </c>
       <c r="N23">
-        <v>1.024542186355327</v>
+        <v>1.041811503518321</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9992842749103669</v>
+        <v>1.034883586890368</v>
       </c>
       <c r="D24">
-        <v>1.022336019682662</v>
+        <v>1.044879175139733</v>
       </c>
       <c r="E24">
-        <v>1.006791290997661</v>
+        <v>1.034070501137041</v>
       </c>
       <c r="F24">
-        <v>1.025926161633453</v>
+        <v>1.054942096440921</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045036253246656</v>
+        <v>1.04095932695212</v>
       </c>
       <c r="J24">
-        <v>1.026809903948314</v>
+        <v>1.041080656444574</v>
       </c>
       <c r="K24">
-        <v>1.03598192412846</v>
+        <v>1.048218540916837</v>
       </c>
       <c r="L24">
-        <v>1.02070018443901</v>
+        <v>1.037447309709329</v>
       </c>
       <c r="M24">
-        <v>1.039512784402688</v>
+        <v>1.058247360601106</v>
       </c>
       <c r="N24">
-        <v>1.028268091788663</v>
+        <v>1.042559110390346</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006661562769232</v>
+        <v>1.036357683062707</v>
       </c>
       <c r="D25">
-        <v>1.02802692048809</v>
+        <v>1.046068170341111</v>
       </c>
       <c r="E25">
-        <v>1.01258680405113</v>
+        <v>1.035316946437178</v>
       </c>
       <c r="F25">
-        <v>1.032763129276079</v>
+        <v>1.056409424157513</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047330032351285</v>
+        <v>1.041337627755927</v>
       </c>
       <c r="J25">
-        <v>1.030966799865172</v>
+        <v>1.041947132769334</v>
       </c>
       <c r="K25">
-        <v>1.040205193983034</v>
+        <v>1.049088775530134</v>
       </c>
       <c r="L25">
-        <v>1.024992818528224</v>
+        <v>1.038370994595065</v>
       </c>
       <c r="M25">
-        <v>1.044873271698846</v>
+        <v>1.059398561987741</v>
       </c>
       <c r="N25">
-        <v>1.032430890974526</v>
+        <v>1.043426817210873</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037535968089784</v>
+        <v>1.012344337435209</v>
       </c>
       <c r="D2">
-        <v>1.047018807962933</v>
+        <v>1.03242457688823</v>
       </c>
       <c r="E2">
-        <v>1.036314708015164</v>
+        <v>1.017074671133481</v>
       </c>
       <c r="F2">
-        <v>1.057583501978786</v>
+        <v>1.038050629549594</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0416363482431</v>
+        <v>1.049069874142576</v>
       </c>
       <c r="J2">
-        <v>1.042638307426631</v>
+        <v>1.034161997664879</v>
       </c>
       <c r="K2">
-        <v>1.049782618260352</v>
+        <v>1.043449937832934</v>
       </c>
       <c r="L2">
-        <v>1.039108802664993</v>
+        <v>1.028301145406441</v>
       </c>
       <c r="M2">
-        <v>1.060318073686908</v>
+        <v>1.049004138598037</v>
       </c>
       <c r="N2">
-        <v>1.044118973415462</v>
+        <v>1.035630626321612</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038392959414711</v>
+        <v>1.016362083553609</v>
       </c>
       <c r="D3">
-        <v>1.047710356703334</v>
+        <v>1.035540886173103</v>
       </c>
       <c r="E3">
-        <v>1.037041227658753</v>
+        <v>1.020260420279316</v>
       </c>
       <c r="F3">
-        <v>1.058438122700043</v>
+        <v>1.041800259930262</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041851486440149</v>
+        <v>1.050283634910232</v>
       </c>
       <c r="J3">
-        <v>1.043140183149734</v>
+        <v>1.036416426561393</v>
       </c>
       <c r="K3">
-        <v>1.050286238753185</v>
+        <v>1.045738346794379</v>
       </c>
       <c r="L3">
-        <v>1.039645118768165</v>
+        <v>1.030640465657618</v>
       </c>
       <c r="M3">
-        <v>1.060986455766684</v>
+        <v>1.051924839104923</v>
       </c>
       <c r="N3">
-        <v>1.044621561859658</v>
+        <v>1.037888256765735</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038948153058497</v>
+        <v>1.018914200499253</v>
       </c>
       <c r="D4">
-        <v>1.048158426837216</v>
+        <v>1.037523427276355</v>
       </c>
       <c r="E4">
-        <v>1.037512275436404</v>
+        <v>1.022289720443842</v>
       </c>
       <c r="F4">
-        <v>1.058992096763948</v>
+        <v>1.044187081921027</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041989876830475</v>
+        <v>1.051046868635917</v>
       </c>
       <c r="J4">
-        <v>1.043464932975555</v>
+        <v>1.037846149047406</v>
       </c>
       <c r="K4">
-        <v>1.050612028034786</v>
+        <v>1.04718912621502</v>
       </c>
       <c r="L4">
-        <v>1.03999242175089</v>
+        <v>1.032126370082487</v>
       </c>
       <c r="M4">
-        <v>1.061419274351417</v>
+        <v>1.053779926677962</v>
       </c>
       <c r="N4">
-        <v>1.044946772867481</v>
+        <v>1.039320009621671</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039181713611396</v>
+        <v>1.019976065258606</v>
       </c>
       <c r="D5">
-        <v>1.048346935466272</v>
+        <v>1.038348993503336</v>
       </c>
       <c r="E5">
-        <v>1.037710527429864</v>
+        <v>1.023135382216406</v>
       </c>
       <c r="F5">
-        <v>1.059225219534524</v>
+        <v>1.045181342074283</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04204785950206</v>
+        <v>1.05136253618899</v>
       </c>
       <c r="J5">
-        <v>1.043601457198713</v>
+        <v>1.03844043336682</v>
       </c>
       <c r="K5">
-        <v>1.050748967741826</v>
+        <v>1.04779203911296</v>
       </c>
       <c r="L5">
-        <v>1.040138491363459</v>
+        <v>1.032744570102609</v>
       </c>
       <c r="M5">
-        <v>1.061601308850251</v>
+        <v>1.054551699696002</v>
       </c>
       <c r="N5">
-        <v>1.045083490970695</v>
+        <v>1.039915137892983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039220938625538</v>
+        <v>1.020153719459348</v>
       </c>
       <c r="D6">
-        <v>1.048378595050199</v>
+        <v>1.038487153202392</v>
       </c>
       <c r="E6">
-        <v>1.037743827867139</v>
+        <v>1.023276941753699</v>
       </c>
       <c r="F6">
-        <v>1.059264375427331</v>
+        <v>1.045347753581748</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042057583495311</v>
+        <v>1.051415236494023</v>
       </c>
       <c r="J6">
-        <v>1.043624380144983</v>
+        <v>1.038539824414495</v>
       </c>
       <c r="K6">
-        <v>1.050771959186654</v>
+        <v>1.047892865788333</v>
       </c>
       <c r="L6">
-        <v>1.040163020775148</v>
+        <v>1.032847994029633</v>
       </c>
       <c r="M6">
-        <v>1.061631877745569</v>
+        <v>1.054680814839791</v>
       </c>
       <c r="N6">
-        <v>1.045106446470178</v>
+        <v>1.040014670087347</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038951273290518</v>
+        <v>1.018928432124236</v>
       </c>
       <c r="D7">
-        <v>1.048160945151051</v>
+        <v>1.037534489257087</v>
       </c>
       <c r="E7">
-        <v>1.037514923613231</v>
+        <v>1.022301049220168</v>
       </c>
       <c r="F7">
-        <v>1.058995210852302</v>
+        <v>1.044200402899547</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04199065237136</v>
+        <v>1.051051106878666</v>
       </c>
       <c r="J7">
-        <v>1.043466757222836</v>
+        <v>1.037854116272809</v>
       </c>
       <c r="K7">
-        <v>1.050613857918365</v>
+        <v>1.047197209616316</v>
       </c>
       <c r="L7">
-        <v>1.039994373292618</v>
+        <v>1.032134655707931</v>
       </c>
       <c r="M7">
-        <v>1.061421706402525</v>
+        <v>1.053790270704236</v>
       </c>
       <c r="N7">
-        <v>1.044948599705402</v>
+        <v>1.039327988161447</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037825454108851</v>
+        <v>1.013712237138309</v>
       </c>
       <c r="D8">
-        <v>1.047252396499702</v>
+        <v>1.033484910708059</v>
       </c>
       <c r="E8">
-        <v>1.036560042830785</v>
+        <v>1.018158094621722</v>
       </c>
       <c r="F8">
-        <v>1.057872121554011</v>
+        <v>1.039326174511273</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041709224227724</v>
+        <v>1.049484722660596</v>
       </c>
       <c r="J8">
-        <v>1.04280791737545</v>
+        <v>1.034930018339236</v>
       </c>
       <c r="K8">
-        <v>1.049952836357088</v>
+        <v>1.044229634243556</v>
       </c>
       <c r="L8">
-        <v>1.03928999636519</v>
+        <v>1.029097594600001</v>
       </c>
       <c r="M8">
-        <v>1.060543887106532</v>
+        <v>1.049998547661209</v>
       </c>
       <c r="N8">
-        <v>1.044288824229862</v>
+        <v>1.036399737673411</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035846763681862</v>
+        <v>1.004138913617209</v>
       </c>
       <c r="D9">
-        <v>1.045656027851019</v>
+        <v>1.026078606832816</v>
       </c>
       <c r="E9">
-        <v>1.034884705838522</v>
+        <v>1.010601213616267</v>
       </c>
       <c r="F9">
-        <v>1.055900663645517</v>
+        <v>1.03042183222153</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041207075746784</v>
+        <v>1.046549854698795</v>
       </c>
       <c r="J9">
-        <v>1.041647032887566</v>
+        <v>1.02954635801786</v>
       </c>
       <c r="K9">
-        <v>1.048787424858885</v>
+        <v>1.03876228619675</v>
       </c>
       <c r="L9">
-        <v>1.038050926146663</v>
+        <v>1.023524603578269</v>
       </c>
       <c r="M9">
-        <v>1.058999660855606</v>
+        <v>1.043039891942921</v>
       </c>
       <c r="N9">
-        <v>1.043126291152852</v>
+        <v>1.031008431936864</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034531190472219</v>
+        <v>0.9974751239062039</v>
       </c>
       <c r="D10">
-        <v>1.044594985931969</v>
+        <v>1.020943603784971</v>
       </c>
       <c r="E10">
-        <v>1.033772817929168</v>
+        <v>1.005375179424678</v>
       </c>
       <c r="F10">
-        <v>1.054591560452129</v>
+        <v>1.024254099637566</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040868160283168</v>
+        <v>1.044468369205454</v>
       </c>
       <c r="J10">
-        <v>1.040873234814864</v>
+        <v>1.025789276985615</v>
       </c>
       <c r="K10">
-        <v>1.04801015411057</v>
+        <v>1.034944738279163</v>
       </c>
       <c r="L10">
-        <v>1.037226392881189</v>
+        <v>1.019648056844868</v>
       </c>
       <c r="M10">
-        <v>1.05797202267742</v>
+        <v>1.038198825133455</v>
       </c>
       <c r="N10">
-        <v>1.04235139419813</v>
+        <v>1.027246015418609</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033962395242903</v>
+        <v>0.9945168850402974</v>
       </c>
       <c r="D11">
-        <v>1.044136324996521</v>
+        <v>1.018669531402518</v>
       </c>
       <c r="E11">
-        <v>1.033292567218569</v>
+        <v>1.003063901533679</v>
       </c>
       <c r="F11">
-        <v>1.054025962066183</v>
+        <v>1.021523855613099</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040720430923833</v>
+        <v>1.043535656766896</v>
       </c>
       <c r="J11">
-        <v>1.040538216961669</v>
+        <v>1.024119560511169</v>
       </c>
       <c r="K11">
-        <v>1.047673525614519</v>
+        <v>1.033247751835792</v>
       </c>
       <c r="L11">
-        <v>1.036869736782578</v>
+        <v>1.017928267548036</v>
       </c>
       <c r="M11">
-        <v>1.057527501999932</v>
+        <v>1.036050966908066</v>
       </c>
       <c r="N11">
-        <v>1.042015900581156</v>
+        <v>1.02557392775525</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033751249638818</v>
+        <v>0.9934065873310316</v>
       </c>
       <c r="D12">
-        <v>1.0439660764531</v>
+        <v>1.017816902536251</v>
       </c>
       <c r="E12">
-        <v>1.033114363431529</v>
+        <v>1.002197784672368</v>
       </c>
       <c r="F12">
-        <v>1.053816063663605</v>
+        <v>1.02050035023717</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040665411635363</v>
+        <v>1.043184323965677</v>
       </c>
       <c r="J12">
-        <v>1.040413783950755</v>
+        <v>1.023492637481521</v>
       </c>
       <c r="K12">
-        <v>1.047548478344142</v>
+        <v>1.032610538290053</v>
       </c>
       <c r="L12">
-        <v>1.036737316117137</v>
+        <v>1.017282999379359</v>
       </c>
       <c r="M12">
-        <v>1.057362456974898</v>
+        <v>1.035245060034053</v>
       </c>
       <c r="N12">
-        <v>1.041891290861094</v>
+        <v>1.024946114422991</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033796535167457</v>
+        <v>0.9936452783540736</v>
       </c>
       <c r="D13">
-        <v>1.044002589950356</v>
+        <v>1.018000159131874</v>
       </c>
       <c r="E13">
-        <v>1.033152580451734</v>
+        <v>1.002383919482155</v>
       </c>
       <c r="F13">
-        <v>1.053861078953586</v>
+        <v>1.020720326703392</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040677220056016</v>
+        <v>1.043259909667594</v>
       </c>
       <c r="J13">
-        <v>1.040440474892816</v>
+        <v>1.02362742309818</v>
       </c>
       <c r="K13">
-        <v>1.047575301769576</v>
+        <v>1.032747538516103</v>
       </c>
       <c r="L13">
-        <v>1.03676571818501</v>
+        <v>1.017421708500643</v>
       </c>
       <c r="M13">
-        <v>1.057397856510759</v>
+        <v>1.03541830182619</v>
       </c>
       <c r="N13">
-        <v>1.041918019707355</v>
+        <v>1.025081091450685</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033944939214858</v>
+        <v>0.994425344848193</v>
       </c>
       <c r="D14">
-        <v>1.044122249770129</v>
+        <v>1.018599216770676</v>
       </c>
       <c r="E14">
-        <v>1.033277833100256</v>
+        <v>1.002992465214312</v>
       </c>
       <c r="F14">
-        <v>1.054008607911195</v>
+        <v>1.021439446026563</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040715885987039</v>
+        <v>1.043506716047565</v>
       </c>
       <c r="J14">
-        <v>1.040527931129174</v>
+        <v>1.024067877506114</v>
       </c>
       <c r="K14">
-        <v>1.047663189333015</v>
+        <v>1.03319522148922</v>
       </c>
       <c r="L14">
-        <v>1.036858789672483</v>
+        <v>1.017875062911631</v>
       </c>
       <c r="M14">
-        <v>1.057513857894469</v>
+        <v>1.035984517586356</v>
       </c>
       <c r="N14">
-        <v>1.042005600141599</v>
+        <v>1.0255221713544</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034036393155374</v>
+        <v>0.9949044320805049</v>
       </c>
       <c r="D15">
-        <v>1.044195991896654</v>
+        <v>1.018967253778062</v>
       </c>
       <c r="E15">
-        <v>1.033355029655807</v>
+        <v>1.003366392100161</v>
       </c>
       <c r="F15">
-        <v>1.054099530608514</v>
+        <v>1.02188126441192</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040739690014759</v>
+        <v>1.043658129699365</v>
       </c>
       <c r="J15">
-        <v>1.040581816838982</v>
+        <v>1.024338357588299</v>
       </c>
       <c r="K15">
-        <v>1.047717338680372</v>
+        <v>1.033470134032598</v>
       </c>
       <c r="L15">
-        <v>1.0369161417199</v>
+        <v>1.018153524952483</v>
       </c>
       <c r="M15">
-        <v>1.057585339466217</v>
+        <v>1.036332298481664</v>
       </c>
       <c r="N15">
-        <v>1.042059562375296</v>
+        <v>1.025793035549327</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034568957720673</v>
+        <v>0.9976698736438649</v>
       </c>
       <c r="D16">
-        <v>1.044625442274878</v>
+        <v>1.021093432381085</v>
       </c>
       <c r="E16">
-        <v>1.033804716110425</v>
+        <v>1.005527523782191</v>
       </c>
       <c r="F16">
-        <v>1.054629123895994</v>
+        <v>1.02443400639938</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040877944076711</v>
+        <v>1.044529594754763</v>
       </c>
       <c r="J16">
-        <v>1.040895469834486</v>
+        <v>1.025899164173069</v>
       </c>
       <c r="K16">
-        <v>1.048032493776164</v>
+        <v>1.035056412549894</v>
       </c>
       <c r="L16">
-        <v>1.037250070931061</v>
+        <v>1.019761302540413</v>
       </c>
       <c r="M16">
-        <v>1.058001533742692</v>
+        <v>1.038340254938289</v>
       </c>
       <c r="N16">
-        <v>1.04237366079403</v>
+        <v>1.027356058658474</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.034903251857496</v>
+        <v>0.9993847055733139</v>
       </c>
       <c r="D17">
-        <v>1.044895034492419</v>
+        <v>1.022413353328149</v>
       </c>
       <c r="E17">
-        <v>1.034087116189707</v>
+        <v>1.006869961632518</v>
       </c>
       <c r="F17">
-        <v>1.054961660315877</v>
+        <v>1.026019034540401</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040964406203886</v>
+        <v>1.045067719512194</v>
       </c>
       <c r="J17">
-        <v>1.041092228152676</v>
+        <v>1.026866549190082</v>
       </c>
       <c r="K17">
-        <v>1.04823016573998</v>
+        <v>1.036039485725016</v>
       </c>
       <c r="L17">
-        <v>1.037459636526676</v>
+        <v>1.020758598301504</v>
       </c>
       <c r="M17">
-        <v>1.058262723959696</v>
+        <v>1.039585733949973</v>
       </c>
       <c r="N17">
-        <v>1.0425706985316</v>
+        <v>1.028324817473172</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035098322520837</v>
+        <v>1.000377954738114</v>
       </c>
       <c r="D18">
-        <v>1.045052357942527</v>
+        <v>1.023178384242472</v>
       </c>
       <c r="E18">
-        <v>1.034251951434253</v>
+        <v>1.007648339691339</v>
       </c>
       <c r="F18">
-        <v>1.055155743847531</v>
+        <v>1.026937836156436</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041014743811735</v>
+        <v>1.045378578880092</v>
       </c>
       <c r="J18">
-        <v>1.041206997901547</v>
+        <v>1.027426690998583</v>
       </c>
       <c r="K18">
-        <v>1.048345458078719</v>
+        <v>1.036608673092474</v>
       </c>
       <c r="L18">
-        <v>1.037581908417947</v>
+        <v>1.021336345999645</v>
       </c>
       <c r="M18">
-        <v>1.058415115435261</v>
+        <v>1.040307241667668</v>
       </c>
       <c r="N18">
-        <v>1.042685631266679</v>
+        <v>1.02888575474729</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0351648505301</v>
+        <v>1.000715458490113</v>
       </c>
       <c r="D19">
-        <v>1.045106013818571</v>
+        <v>1.023438426183922</v>
       </c>
       <c r="E19">
-        <v>1.034308175622999</v>
+        <v>1.007912968877952</v>
       </c>
       <c r="F19">
-        <v>1.055221941724199</v>
+        <v>1.027250166191845</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041031891620541</v>
+        <v>1.045484066462592</v>
       </c>
       <c r="J19">
-        <v>1.041246132051987</v>
+        <v>1.027616994548759</v>
       </c>
       <c r="K19">
-        <v>1.048384768665411</v>
+        <v>1.03680204306117</v>
       </c>
       <c r="L19">
-        <v>1.037623606008115</v>
+        <v>1.02153267959879</v>
       </c>
       <c r="M19">
-        <v>1.058467084343175</v>
+        <v>1.040552425938852</v>
       </c>
       <c r="N19">
-        <v>1.042724820992101</v>
+        <v>1.029076328550335</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034867376710586</v>
+        <v>0.9992014464674192</v>
       </c>
       <c r="D20">
-        <v>1.044866102041784</v>
+        <v>1.022272243027268</v>
       </c>
       <c r="E20">
-        <v>1.034056805316528</v>
+        <v>1.006726413409884</v>
       </c>
       <c r="F20">
-        <v>1.054925969810334</v>
+        <v>1.025849570474975</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040955139383413</v>
+        <v>1.045010297301065</v>
       </c>
       <c r="J20">
-        <v>1.041071117429545</v>
+        <v>1.026763185757883</v>
       </c>
       <c r="K20">
-        <v>1.04820895805867</v>
+        <v>1.035934449956186</v>
       </c>
       <c r="L20">
-        <v>1.037437148406196</v>
+        <v>1.020652009199629</v>
       </c>
       <c r="M20">
-        <v>1.058234696195588</v>
+        <v>1.039452621163014</v>
       </c>
       <c r="N20">
-        <v>1.042549557828821</v>
+        <v>1.028221307253043</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033901234313081</v>
+        <v>0.994195956028933</v>
       </c>
       <c r="D21">
-        <v>1.044087009648786</v>
+        <v>1.018423031140967</v>
       </c>
       <c r="E21">
-        <v>1.033240944258894</v>
+        <v>1.002813476422404</v>
       </c>
       <c r="F21">
-        <v>1.053965159049205</v>
+        <v>1.021227945500651</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040704503859372</v>
+        <v>1.043434173833647</v>
       </c>
       <c r="J21">
-        <v>1.040502177229241</v>
+        <v>1.023938362340941</v>
       </c>
       <c r="K21">
-        <v>1.047637308858959</v>
+        <v>1.033063582124034</v>
       </c>
       <c r="L21">
-        <v>1.036831380846739</v>
+        <v>1.017741741957005</v>
       </c>
       <c r="M21">
-        <v>1.057479696439827</v>
+        <v>1.035818007476949</v>
       </c>
       <c r="N21">
-        <v>1.041979809668174</v>
+        <v>1.025392472262837</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033294536721066</v>
+        <v>0.9909821151803934</v>
       </c>
       <c r="D22">
-        <v>1.043597850113668</v>
+        <v>1.01595677544717</v>
       </c>
       <c r="E22">
-        <v>1.032729038028927</v>
+        <v>1.000309073618609</v>
       </c>
       <c r="F22">
-        <v>1.053362159550518</v>
+        <v>1.018267701408718</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040546074847752</v>
+        <v>1.042414870074557</v>
       </c>
       <c r="J22">
-        <v>1.040144506168927</v>
+        <v>1.02212327916614</v>
       </c>
       <c r="K22">
-        <v>1.047277842037308</v>
+        <v>1.031218617419339</v>
       </c>
       <c r="L22">
-        <v>1.036450842874913</v>
+        <v>1.015874410185799</v>
       </c>
       <c r="M22">
-        <v>1.057005402465812</v>
+        <v>1.033485754859413</v>
       </c>
       <c r="N22">
-        <v>1.041621630673929</v>
+        <v>1.023574811461735</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033616086553217</v>
+        <v>0.9926923444719173</v>
       </c>
       <c r="D23">
-        <v>1.043857097145415</v>
+        <v>1.017268672236824</v>
       </c>
       <c r="E23">
-        <v>1.033000308317322</v>
+        <v>1.001641011133535</v>
       </c>
       <c r="F23">
-        <v>1.05368171604697</v>
+        <v>1.019842290465579</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04063014087466</v>
+        <v>1.042957964523777</v>
       </c>
       <c r="J23">
-        <v>1.040334109754479</v>
+        <v>1.023089282224586</v>
       </c>
       <c r="K23">
-        <v>1.047468406333972</v>
+        <v>1.032200548752778</v>
       </c>
       <c r="L23">
-        <v>1.036652541315753</v>
+        <v>1.016867969673595</v>
       </c>
       <c r="M23">
-        <v>1.057256795806408</v>
+        <v>1.034726701649422</v>
       </c>
       <c r="N23">
-        <v>1.041811503518321</v>
+        <v>1.024542186355326</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034883586890368</v>
+        <v>0.9992842749103665</v>
       </c>
       <c r="D24">
-        <v>1.044879175139733</v>
+        <v>1.022336019682662</v>
       </c>
       <c r="E24">
-        <v>1.034070501137041</v>
+        <v>1.006791290997661</v>
       </c>
       <c r="F24">
-        <v>1.054942096440921</v>
+        <v>1.025926161633453</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04095932695212</v>
+        <v>1.045036253246656</v>
       </c>
       <c r="J24">
-        <v>1.041080656444574</v>
+        <v>1.026809903948314</v>
       </c>
       <c r="K24">
-        <v>1.048218540916837</v>
+        <v>1.03598192412846</v>
       </c>
       <c r="L24">
-        <v>1.037447309709329</v>
+        <v>1.02070018443901</v>
       </c>
       <c r="M24">
-        <v>1.058247360601106</v>
+        <v>1.039512784402687</v>
       </c>
       <c r="N24">
-        <v>1.042559110390346</v>
+        <v>1.028268091788662</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036357683062707</v>
+        <v>1.006661562769232</v>
       </c>
       <c r="D25">
-        <v>1.046068170341111</v>
+        <v>1.02802692048809</v>
       </c>
       <c r="E25">
-        <v>1.035316946437178</v>
+        <v>1.01258680405113</v>
       </c>
       <c r="F25">
-        <v>1.056409424157513</v>
+        <v>1.032763129276079</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041337627755927</v>
+        <v>1.047330032351285</v>
       </c>
       <c r="J25">
-        <v>1.041947132769334</v>
+        <v>1.030966799865172</v>
       </c>
       <c r="K25">
-        <v>1.049088775530134</v>
+        <v>1.040205193983034</v>
       </c>
       <c r="L25">
-        <v>1.038370994595065</v>
+        <v>1.024992818528224</v>
       </c>
       <c r="M25">
-        <v>1.059398561987741</v>
+        <v>1.044873271698845</v>
       </c>
       <c r="N25">
-        <v>1.043426817210873</v>
+        <v>1.032430890974526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012344337435209</v>
+        <v>1.01599530465115</v>
       </c>
       <c r="D2">
-        <v>1.03242457688823</v>
+        <v>1.030823027505857</v>
       </c>
       <c r="E2">
-        <v>1.017074671133481</v>
+        <v>1.027931056801703</v>
       </c>
       <c r="F2">
-        <v>1.038050629549594</v>
+        <v>1.034199870340872</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049069874142576</v>
+        <v>1.048260166926561</v>
       </c>
       <c r="J2">
-        <v>1.034161997664879</v>
+        <v>1.037707901936887</v>
       </c>
       <c r="K2">
-        <v>1.043449937832934</v>
+        <v>1.041869021678466</v>
       </c>
       <c r="L2">
-        <v>1.028301145406441</v>
+        <v>1.039014512975852</v>
       </c>
       <c r="M2">
-        <v>1.049004138598037</v>
+        <v>1.045202453005519</v>
       </c>
       <c r="N2">
-        <v>1.035630626321612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016153085675237</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044347089920779</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040675307277984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016362083553609</v>
+        <v>1.019834480359447</v>
       </c>
       <c r="D3">
-        <v>1.035540886173103</v>
+        <v>1.033346811452541</v>
       </c>
       <c r="E3">
-        <v>1.020260420279316</v>
+        <v>1.031005666206879</v>
       </c>
       <c r="F3">
-        <v>1.041800259930262</v>
+        <v>1.03723125099063</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050283634910232</v>
+        <v>1.049189295365444</v>
       </c>
       <c r="J3">
-        <v>1.036416426561393</v>
+        <v>1.039798663128107</v>
       </c>
       <c r="K3">
-        <v>1.045738346794379</v>
+        <v>1.043570077679115</v>
       </c>
       <c r="L3">
-        <v>1.030640465657618</v>
+        <v>1.041256617871667</v>
       </c>
       <c r="M3">
-        <v>1.051924839104923</v>
+        <v>1.047408922494716</v>
       </c>
       <c r="N3">
-        <v>1.037888256765735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016878868117232</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046093351245115</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041875438060209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018914200499253</v>
+        <v>1.022273947239705</v>
       </c>
       <c r="D4">
-        <v>1.037523427276355</v>
+        <v>1.034954308673993</v>
       </c>
       <c r="E4">
-        <v>1.022289720443842</v>
+        <v>1.032965010380829</v>
       </c>
       <c r="F4">
-        <v>1.044187081921027</v>
+        <v>1.039166502004945</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051046868635917</v>
+        <v>1.049771683849728</v>
       </c>
       <c r="J4">
-        <v>1.037846149047406</v>
+        <v>1.041124548977101</v>
       </c>
       <c r="K4">
-        <v>1.04718912621502</v>
+        <v>1.044648404037279</v>
       </c>
       <c r="L4">
-        <v>1.032126370082487</v>
+        <v>1.042681212795072</v>
       </c>
       <c r="M4">
-        <v>1.053779926677962</v>
+        <v>1.048814130496485</v>
       </c>
       <c r="N4">
-        <v>1.039320009621671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017338964093335</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047205469779685</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042638795297566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019976065258606</v>
+        <v>1.023292773291957</v>
       </c>
       <c r="D5">
-        <v>1.038348993503336</v>
+        <v>1.035628813906697</v>
       </c>
       <c r="E5">
-        <v>1.023135382216406</v>
+        <v>1.033784755495688</v>
       </c>
       <c r="F5">
-        <v>1.045181342074283</v>
+        <v>1.039976142254447</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05136253618899</v>
+        <v>1.050014643935138</v>
       </c>
       <c r="J5">
-        <v>1.03844043336682</v>
+        <v>1.041679229703444</v>
       </c>
       <c r="K5">
-        <v>1.04779203911296</v>
+        <v>1.045101126171396</v>
       </c>
       <c r="L5">
-        <v>1.032744570102609</v>
+        <v>1.043277015587946</v>
       </c>
       <c r="M5">
-        <v>1.054551699696002</v>
+        <v>1.049401770854214</v>
       </c>
       <c r="N5">
-        <v>1.039915137892983</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017531887713134</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047670543302128</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042966047784456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020153719459348</v>
+        <v>1.023467704128574</v>
       </c>
       <c r="D6">
-        <v>1.038487153202392</v>
+        <v>1.035747416475332</v>
       </c>
       <c r="E6">
-        <v>1.023276941753699</v>
+        <v>1.033925706699916</v>
       </c>
       <c r="F6">
-        <v>1.045347753581748</v>
+        <v>1.04011436807085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051415236494023</v>
+        <v>1.050058291012252</v>
       </c>
       <c r="J6">
-        <v>1.038539824414495</v>
+        <v>1.041776360343209</v>
       </c>
       <c r="K6">
-        <v>1.047892865788333</v>
+        <v>1.045182471377791</v>
       </c>
       <c r="L6">
-        <v>1.032847994029633</v>
+        <v>1.043380377456559</v>
       </c>
       <c r="M6">
-        <v>1.054680814839791</v>
+        <v>1.049502742910003</v>
       </c>
       <c r="N6">
-        <v>1.040014670087347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017566261880081</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04775045512529</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043032274600265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018928432124236</v>
+        <v>1.022299631716194</v>
       </c>
       <c r="D7">
-        <v>1.037534489257087</v>
+        <v>1.034978648259704</v>
       </c>
       <c r="E7">
-        <v>1.022301049220168</v>
+        <v>1.032986017077583</v>
       </c>
       <c r="F7">
-        <v>1.044200402899547</v>
+        <v>1.039184455790892</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051051106878666</v>
+        <v>1.049783321304676</v>
       </c>
       <c r="J7">
-        <v>1.037854116272809</v>
+        <v>1.041143725748476</v>
       </c>
       <c r="K7">
-        <v>1.047197209616316</v>
+        <v>1.044669607696071</v>
       </c>
       <c r="L7">
-        <v>1.032134655707931</v>
+        <v>1.042699112033516</v>
       </c>
       <c r="M7">
-        <v>1.053790270704236</v>
+        <v>1.048829036567049</v>
       </c>
       <c r="N7">
-        <v>1.039327988161447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017347253772444</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047217266826599</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042673821590068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013712237138309</v>
+        <v>1.017317350852131</v>
       </c>
       <c r="D8">
-        <v>1.033484910708059</v>
+        <v>1.031700402749054</v>
       </c>
       <c r="E8">
-        <v>1.018158094621722</v>
+        <v>1.028989138496998</v>
       </c>
       <c r="F8">
-        <v>1.039326174511273</v>
+        <v>1.035238866429224</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049484722660596</v>
+        <v>1.048588609645936</v>
       </c>
       <c r="J8">
-        <v>1.034930018339236</v>
+        <v>1.038434867759046</v>
       </c>
       <c r="K8">
-        <v>1.044229634243556</v>
+        <v>1.042467433014533</v>
       </c>
       <c r="L8">
-        <v>1.029097594600001</v>
+        <v>1.039790244879033</v>
       </c>
       <c r="M8">
-        <v>1.049998547661209</v>
+        <v>1.045961758490493</v>
       </c>
       <c r="N8">
-        <v>1.036399737673411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016407609521469</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044948025870309</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041121266141665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004138913617209</v>
+        <v>1.008160948178318</v>
       </c>
       <c r="D9">
-        <v>1.026078606832816</v>
+        <v>1.025696245004895</v>
       </c>
       <c r="E9">
-        <v>1.010601213616267</v>
+        <v>1.021689781705266</v>
       </c>
       <c r="F9">
-        <v>1.03042183222153</v>
+        <v>1.028065095426877</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046549854698795</v>
+        <v>1.04632220180357</v>
       </c>
       <c r="J9">
-        <v>1.02954635801786</v>
+        <v>1.03342877754105</v>
       </c>
       <c r="K9">
-        <v>1.03876228619675</v>
+        <v>1.038385735209047</v>
       </c>
       <c r="L9">
-        <v>1.023524603578269</v>
+        <v>1.034440492803797</v>
       </c>
       <c r="M9">
-        <v>1.043039891942921</v>
+        <v>1.040718674278604</v>
       </c>
       <c r="N9">
-        <v>1.031008431936864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014667156663001</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040798489843963</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038232080832844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9974751239062039</v>
+        <v>1.001885476268121</v>
       </c>
       <c r="D10">
-        <v>1.020943603784971</v>
+        <v>1.021617107455005</v>
       </c>
       <c r="E10">
-        <v>1.005375179424678</v>
+        <v>1.016780557811406</v>
       </c>
       <c r="F10">
-        <v>1.024254099637566</v>
+        <v>1.023323878323273</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044468369205454</v>
+        <v>1.044752522378416</v>
       </c>
       <c r="J10">
-        <v>1.025789276985615</v>
+        <v>1.030024486119332</v>
       </c>
       <c r="K10">
-        <v>1.034944738279163</v>
+        <v>1.035606727556655</v>
       </c>
       <c r="L10">
-        <v>1.019648056844868</v>
+        <v>1.030853302772148</v>
       </c>
       <c r="M10">
-        <v>1.038198825133455</v>
+        <v>1.037284406665878</v>
       </c>
       <c r="N10">
-        <v>1.027246015418609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013490826492229</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03813195328876</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036283938206044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9945168850402974</v>
+        <v>0.9998292588299887</v>
       </c>
       <c r="D11">
-        <v>1.018669531402518</v>
+        <v>1.020372176902271</v>
       </c>
       <c r="E11">
-        <v>1.003063901533679</v>
+        <v>1.015663179809281</v>
       </c>
       <c r="F11">
-        <v>1.021523855613099</v>
+        <v>1.022776084638357</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043535656766896</v>
+        <v>1.044410306181679</v>
       </c>
       <c r="J11">
-        <v>1.024119560511169</v>
+        <v>1.029209142560047</v>
       </c>
       <c r="K11">
-        <v>1.033247751835792</v>
+        <v>1.034919865308346</v>
       </c>
       <c r="L11">
-        <v>1.017928267548036</v>
+        <v>1.030295635536399</v>
       </c>
       <c r="M11">
-        <v>1.036050966908066</v>
+        <v>1.037280890531687</v>
       </c>
       <c r="N11">
-        <v>1.02557392775525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013272822338471</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.03856533454061</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03583110387979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9934065873310316</v>
+        <v>0.9993266194087346</v>
       </c>
       <c r="D12">
-        <v>1.017816902536251</v>
+        <v>1.020107491905259</v>
       </c>
       <c r="E12">
-        <v>1.002197784672368</v>
+        <v>1.015628385605834</v>
       </c>
       <c r="F12">
-        <v>1.02050035023717</v>
+        <v>1.023127590261378</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043184323965677</v>
+        <v>1.044413896841104</v>
       </c>
       <c r="J12">
-        <v>1.023492637481521</v>
+        <v>1.029159505277104</v>
       </c>
       <c r="K12">
-        <v>1.032610538290053</v>
+        <v>1.034859343563728</v>
       </c>
       <c r="L12">
-        <v>1.017282999379359</v>
+        <v>1.030462172878832</v>
       </c>
       <c r="M12">
-        <v>1.035245060034053</v>
+        <v>1.037824722140536</v>
       </c>
       <c r="N12">
-        <v>1.024946114422991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01330634656421</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039321704319814</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.0357883131446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9936452783540736</v>
+        <v>0.9999987987662395</v>
       </c>
       <c r="D13">
-        <v>1.018000159131874</v>
+        <v>1.020595025381251</v>
       </c>
       <c r="E13">
-        <v>1.002383919482155</v>
+        <v>1.016436523379701</v>
       </c>
       <c r="F13">
-        <v>1.020720326703392</v>
+        <v>1.02421753399545</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043259909667594</v>
+        <v>1.044696574315795</v>
       </c>
       <c r="J13">
-        <v>1.02362742309818</v>
+        <v>1.029710588207091</v>
       </c>
       <c r="K13">
-        <v>1.032747538516103</v>
+        <v>1.035295268728572</v>
       </c>
       <c r="L13">
-        <v>1.017421708500643</v>
+        <v>1.031212457692989</v>
       </c>
       <c r="M13">
-        <v>1.03541830182619</v>
+        <v>1.038852492994474</v>
       </c>
       <c r="N13">
-        <v>1.025081091450685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013542919989796</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04041076945485</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.036094036471699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.994425344848193</v>
+        <v>1.000998555841013</v>
       </c>
       <c r="D14">
-        <v>1.018599216770676</v>
+        <v>1.021276393446098</v>
       </c>
       <c r="E14">
-        <v>1.002992465214312</v>
+        <v>1.017377692772372</v>
       </c>
       <c r="F14">
-        <v>1.021439446026563</v>
+        <v>1.025307872272173</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043506716047565</v>
+        <v>1.045019801309405</v>
       </c>
       <c r="J14">
-        <v>1.024067877506114</v>
+        <v>1.03036544742121</v>
       </c>
       <c r="K14">
-        <v>1.03319522148922</v>
+        <v>1.035824379035658</v>
       </c>
       <c r="L14">
-        <v>1.017875062911631</v>
+        <v>1.031995716487909</v>
       </c>
       <c r="M14">
-        <v>1.035984517586356</v>
+        <v>1.039784160999175</v>
       </c>
       <c r="N14">
-        <v>1.0255221713544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013799630662936</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04132037019562</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.036469556309263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9949044320805049</v>
+        <v>1.001505247438651</v>
       </c>
       <c r="D15">
-        <v>1.018967253778062</v>
+        <v>1.021613968010492</v>
       </c>
       <c r="E15">
-        <v>1.003366392100161</v>
+        <v>1.017804569109776</v>
       </c>
       <c r="F15">
-        <v>1.02188126441192</v>
+        <v>1.025758380226558</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043658129699365</v>
+        <v>1.045164239746113</v>
       </c>
       <c r="J15">
-        <v>1.024338357588299</v>
+        <v>1.030664829422187</v>
       </c>
       <c r="K15">
-        <v>1.033470134032598</v>
+        <v>1.036069741842376</v>
       </c>
       <c r="L15">
-        <v>1.018153524952483</v>
+        <v>1.032328243514953</v>
       </c>
       <c r="M15">
-        <v>1.036332298481664</v>
+        <v>1.04014102433642</v>
       </c>
       <c r="N15">
-        <v>1.025793035549327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013910071013933</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041639928701977</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036648896307494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,81 +1175,105 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9976698736438649</v>
+        <v>1.004023967705094</v>
       </c>
       <c r="D16">
-        <v>1.021093432381085</v>
+        <v>1.023240398331072</v>
       </c>
       <c r="E16">
-        <v>1.005527523782191</v>
+        <v>1.019724704621604</v>
       </c>
       <c r="F16">
-        <v>1.02443400639938</v>
+        <v>1.027590818765803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044529594754763</v>
+        <v>1.045783507762581</v>
       </c>
       <c r="J16">
-        <v>1.025899164173069</v>
+        <v>1.032002559968179</v>
       </c>
       <c r="K16">
-        <v>1.035056412549894</v>
+        <v>1.037166862537947</v>
       </c>
       <c r="L16">
-        <v>1.019761302540413</v>
+        <v>1.033711068049333</v>
       </c>
       <c r="M16">
-        <v>1.038340254938289</v>
+        <v>1.04144389343269</v>
       </c>
       <c r="N16">
-        <v>1.027356058658474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014363707693384</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042631049804893</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037427757181347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9993847055733139</v>
+        <v>1.005436904254986</v>
       </c>
       <c r="D17">
-        <v>1.022413353328149</v>
+        <v>1.024135384038783</v>
       </c>
       <c r="E17">
-        <v>1.006869961632518</v>
+        <v>1.020709002531774</v>
       </c>
       <c r="F17">
-        <v>1.026019034540401</v>
+        <v>1.028422384920656</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045067719512194</v>
+        <v>1.046088715584452</v>
       </c>
       <c r="J17">
-        <v>1.026866549190082</v>
+        <v>1.032687741720591</v>
       </c>
       <c r="K17">
-        <v>1.036039485725016</v>
+        <v>1.037733064776242</v>
       </c>
       <c r="L17">
-        <v>1.020758598301504</v>
+        <v>1.034363416213746</v>
       </c>
       <c r="M17">
-        <v>1.039585733949973</v>
+        <v>1.041949766984454</v>
       </c>
       <c r="N17">
-        <v>1.028324817473172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01457781165148</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042902059785852</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037830664447464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000377954738114</v>
+        <v>1.00600809570158</v>
       </c>
       <c r="D18">
-        <v>1.023178384242472</v>
+        <v>1.02446060082998</v>
       </c>
       <c r="E18">
-        <v>1.007648339691339</v>
+        <v>1.020930746940172</v>
       </c>
       <c r="F18">
-        <v>1.026937836156436</v>
+        <v>1.028388480620382</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045378578880092</v>
+        <v>1.046138044077767</v>
       </c>
       <c r="J18">
-        <v>1.027426690998583</v>
+        <v>1.032846030289427</v>
       </c>
       <c r="K18">
-        <v>1.036608673092474</v>
+        <v>1.037870060038448</v>
       </c>
       <c r="L18">
-        <v>1.021336345999645</v>
+        <v>1.034397710994198</v>
       </c>
       <c r="M18">
-        <v>1.040307241667668</v>
+        <v>1.041734545997758</v>
       </c>
       <c r="N18">
-        <v>1.02888575474729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014593492865926</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042494596582078</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037915912767589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000715458490113</v>
+        <v>1.005832578842189</v>
       </c>
       <c r="D19">
-        <v>1.023438426183922</v>
+        <v>1.024292674364174</v>
       </c>
       <c r="E19">
-        <v>1.007912968877952</v>
+        <v>1.020464114526218</v>
       </c>
       <c r="F19">
-        <v>1.027250166191845</v>
+        <v>1.02755937176973</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045484066462592</v>
+        <v>1.04597078198226</v>
       </c>
       <c r="J19">
-        <v>1.027616994548759</v>
+        <v>1.032543684809123</v>
       </c>
       <c r="K19">
-        <v>1.03680204306117</v>
+        <v>1.037642489553141</v>
       </c>
       <c r="L19">
-        <v>1.02153267959879</v>
+        <v>1.033876017606413</v>
       </c>
       <c r="M19">
-        <v>1.040552425938852</v>
+        <v>1.040856679865778</v>
       </c>
       <c r="N19">
-        <v>1.029076328550335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014441318877469</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041475402061278</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037761396171042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9992014464674192</v>
+        <v>1.003545945286476</v>
       </c>
       <c r="D20">
-        <v>1.022272243027268</v>
+        <v>1.022713411980446</v>
       </c>
       <c r="E20">
-        <v>1.006726413409884</v>
+        <v>1.018081462777311</v>
       </c>
       <c r="F20">
-        <v>1.025849570474975</v>
+        <v>1.024575602414296</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045010297301065</v>
+        <v>1.045185455451281</v>
       </c>
       <c r="J20">
-        <v>1.026763185757883</v>
+        <v>1.030940857712282</v>
       </c>
       <c r="K20">
-        <v>1.035934449956186</v>
+        <v>1.036368294744549</v>
       </c>
       <c r="L20">
-        <v>1.020652009199629</v>
+        <v>1.031813651972379</v>
       </c>
       <c r="M20">
-        <v>1.039452621163014</v>
+        <v>1.038199659046286</v>
       </c>
       <c r="N20">
-        <v>1.028221307253043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013812731565535</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038845726006236</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036864412088584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.994195956028933</v>
+        <v>0.9986936821972706</v>
       </c>
       <c r="D21">
-        <v>1.018423031140967</v>
+        <v>1.019549646194448</v>
       </c>
       <c r="E21">
-        <v>1.002813476422404</v>
+        <v>1.01420483407954</v>
       </c>
       <c r="F21">
-        <v>1.021227945500651</v>
+        <v>1.020735125846753</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043434173833647</v>
+        <v>1.043922654527466</v>
       </c>
       <c r="J21">
-        <v>1.023938362340941</v>
+        <v>1.028246121735015</v>
       </c>
       <c r="K21">
-        <v>1.033063582124034</v>
+        <v>1.034169874498785</v>
       </c>
       <c r="L21">
-        <v>1.017741741957005</v>
+        <v>1.028921997888151</v>
       </c>
       <c r="M21">
-        <v>1.035818007476949</v>
+        <v>1.035334032566087</v>
       </c>
       <c r="N21">
-        <v>1.025392472262837</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012869452714841</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036536896072382</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.035313277873431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9909821151803934</v>
+        <v>0.995611081420186</v>
       </c>
       <c r="D22">
-        <v>1.01595677544717</v>
+        <v>1.017543153028261</v>
       </c>
       <c r="E22">
-        <v>1.000309073618609</v>
+        <v>1.011779124675854</v>
       </c>
       <c r="F22">
-        <v>1.018267701408718</v>
+        <v>1.018371874322851</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042414870074557</v>
+        <v>1.043117632816909</v>
       </c>
       <c r="J22">
-        <v>1.02212327916614</v>
+        <v>1.026545124478662</v>
       </c>
       <c r="K22">
-        <v>1.031218617419339</v>
+        <v>1.032774907587864</v>
       </c>
       <c r="L22">
-        <v>1.015874410185799</v>
+        <v>1.027120791475324</v>
       </c>
       <c r="M22">
-        <v>1.033485754859413</v>
+        <v>1.033587959973111</v>
       </c>
       <c r="N22">
-        <v>1.023574811461735</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012275406009374</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035154987686322</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034313480841422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9926923444719173</v>
+        <v>0.9972396681488871</v>
       </c>
       <c r="D23">
-        <v>1.017268672236824</v>
+        <v>1.018596030775918</v>
       </c>
       <c r="E23">
-        <v>1.001641011133535</v>
+        <v>1.013059244504897</v>
       </c>
       <c r="F23">
-        <v>1.019842290465579</v>
+        <v>1.01962120020011</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042957964523777</v>
+        <v>1.043538721134834</v>
       </c>
       <c r="J23">
-        <v>1.023089282224586</v>
+        <v>1.027439225025019</v>
       </c>
       <c r="K23">
-        <v>1.032200548752778</v>
+        <v>1.033503387736893</v>
       </c>
       <c r="L23">
-        <v>1.016867969673595</v>
+        <v>1.028069434196542</v>
       </c>
       <c r="M23">
-        <v>1.034726701649422</v>
+        <v>1.034509676702466</v>
       </c>
       <c r="N23">
-        <v>1.024542186355326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012585833138556</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035884469764735</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034818915521011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9992842749103665</v>
+        <v>1.003538764876626</v>
       </c>
       <c r="D24">
-        <v>1.022336019682662</v>
+        <v>1.022690954592121</v>
       </c>
       <c r="E24">
-        <v>1.006791290997661</v>
+        <v>1.018027942559419</v>
       </c>
       <c r="F24">
-        <v>1.025926161633453</v>
+        <v>1.024474696401433</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045036253246656</v>
+        <v>1.045159416160979</v>
       </c>
       <c r="J24">
-        <v>1.026809903948314</v>
+        <v>1.030901270172634</v>
       </c>
       <c r="K24">
-        <v>1.03598192412846</v>
+        <v>1.036330974361416</v>
       </c>
       <c r="L24">
-        <v>1.02070018443901</v>
+        <v>1.031745694904055</v>
       </c>
       <c r="M24">
-        <v>1.039512784402687</v>
+        <v>1.038085221894069</v>
       </c>
       <c r="N24">
-        <v>1.028268091788662</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013790702979325</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038714286694475</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036810656199533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006661562769232</v>
+        <v>1.010592181506889</v>
       </c>
       <c r="D25">
-        <v>1.02802692048809</v>
+        <v>1.027297898165812</v>
       </c>
       <c r="E25">
-        <v>1.01258680405113</v>
+        <v>1.02362303921918</v>
       </c>
       <c r="F25">
-        <v>1.032763129276079</v>
+        <v>1.029957428239787</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047330032351285</v>
+        <v>1.046939641613976</v>
       </c>
       <c r="J25">
-        <v>1.030966799865172</v>
+        <v>1.034768260039114</v>
       </c>
       <c r="K25">
-        <v>1.040205193983034</v>
+        <v>1.039486729479048</v>
       </c>
       <c r="L25">
-        <v>1.024992818528224</v>
+        <v>1.035865380972886</v>
       </c>
       <c r="M25">
-        <v>1.044873271698845</v>
+        <v>1.042107835263685</v>
       </c>
       <c r="N25">
-        <v>1.032430890974526</v>
+        <v>1.015135835459759</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041897916331634</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039039071118238</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01599530465115</v>
+        <v>1.01522151952807</v>
       </c>
       <c r="D2">
-        <v>1.030823027505857</v>
+        <v>1.029546873878687</v>
       </c>
       <c r="E2">
-        <v>1.027931056801703</v>
+        <v>1.027348628468543</v>
       </c>
       <c r="F2">
-        <v>1.034199870340872</v>
+        <v>1.03378604063861</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048260166926561</v>
+        <v>1.047706371302646</v>
       </c>
       <c r="J2">
-        <v>1.037707901936887</v>
+        <v>1.036956297421615</v>
       </c>
       <c r="K2">
-        <v>1.041869021678466</v>
+        <v>1.04060936661801</v>
       </c>
       <c r="L2">
-        <v>1.039014512975852</v>
+        <v>1.038439661250298</v>
       </c>
       <c r="M2">
-        <v>1.045202453005519</v>
+        <v>1.044793924292313</v>
       </c>
       <c r="N2">
-        <v>1.016153085675237</v>
+        <v>1.016778136805703</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044347089920779</v>
+        <v>1.044023768477431</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040675307277984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039793377747812</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022784387689242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019834480359447</v>
+        <v>1.018884047471383</v>
       </c>
       <c r="D3">
-        <v>1.033346811452541</v>
+        <v>1.031859121285687</v>
       </c>
       <c r="E3">
-        <v>1.031005666206879</v>
+        <v>1.030282650125194</v>
       </c>
       <c r="F3">
-        <v>1.03723125099063</v>
+        <v>1.036718061903291</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049189295365444</v>
+        <v>1.048525208893494</v>
       </c>
       <c r="J3">
-        <v>1.039798663128107</v>
+        <v>1.0388728253665</v>
       </c>
       <c r="K3">
-        <v>1.043570077679115</v>
+        <v>1.042099962310301</v>
       </c>
       <c r="L3">
-        <v>1.041256617871667</v>
+        <v>1.040542183398125</v>
       </c>
       <c r="M3">
-        <v>1.047408922494716</v>
+        <v>1.046901732877332</v>
       </c>
       <c r="N3">
-        <v>1.016878868117232</v>
+        <v>1.01730488979838</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046093351245115</v>
+        <v>1.045691947642865</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041875438060209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040844418885344</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023089061514278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022273947239705</v>
+        <v>1.021212567614305</v>
       </c>
       <c r="D4">
-        <v>1.034954308673993</v>
+        <v>1.033333067475532</v>
       </c>
       <c r="E4">
-        <v>1.032965010380829</v>
+        <v>1.032153670091972</v>
       </c>
       <c r="F4">
-        <v>1.039166502004945</v>
+        <v>1.038590996511999</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049771683849728</v>
+        <v>1.049037955208803</v>
       </c>
       <c r="J4">
-        <v>1.041124548977101</v>
+        <v>1.040088789951812</v>
       </c>
       <c r="K4">
-        <v>1.044648404037279</v>
+        <v>1.043045171780505</v>
       </c>
       <c r="L4">
-        <v>1.042681212795072</v>
+        <v>1.041878919027957</v>
       </c>
       <c r="M4">
-        <v>1.048814130496485</v>
+        <v>1.048244946389093</v>
       </c>
       <c r="N4">
-        <v>1.017338964093335</v>
+        <v>1.017639065480984</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047205469779685</v>
+        <v>1.046755002723889</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042638795297566</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041513734121066</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023279854755221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023292773291957</v>
+        <v>1.02218527357614</v>
       </c>
       <c r="D5">
-        <v>1.035628813906697</v>
+        <v>1.033951976478648</v>
       </c>
       <c r="E5">
-        <v>1.033784755495688</v>
+        <v>1.032936685132025</v>
       </c>
       <c r="F5">
-        <v>1.039976142254447</v>
+        <v>1.039374745384094</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050014643935138</v>
+        <v>1.049251888417526</v>
       </c>
       <c r="J5">
-        <v>1.041679229703444</v>
+        <v>1.040597670595508</v>
       </c>
       <c r="K5">
-        <v>1.045101126171396</v>
+        <v>1.043442424084583</v>
       </c>
       <c r="L5">
-        <v>1.043277015587946</v>
+        <v>1.042438148432736</v>
       </c>
       <c r="M5">
-        <v>1.049401770854214</v>
+        <v>1.048806803558168</v>
       </c>
       <c r="N5">
-        <v>1.017531887713134</v>
+        <v>1.017779276862599</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047670543302128</v>
+        <v>1.047199671052534</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042966047784456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041802477605684</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023360000341737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023467704128574</v>
+        <v>1.022352204451644</v>
       </c>
       <c r="D6">
-        <v>1.035747416475332</v>
+        <v>1.034061019752191</v>
       </c>
       <c r="E6">
-        <v>1.033925706699916</v>
+        <v>1.033071251416739</v>
       </c>
       <c r="F6">
-        <v>1.04011436807085</v>
+        <v>1.039508470755231</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050058291012252</v>
+        <v>1.049290503362998</v>
       </c>
       <c r="J6">
-        <v>1.041776360343209</v>
+        <v>1.040686855165827</v>
       </c>
       <c r="K6">
-        <v>1.045182471377791</v>
+        <v>1.043514230568373</v>
       </c>
       <c r="L6">
-        <v>1.043380377456559</v>
+        <v>1.042535152025056</v>
       </c>
       <c r="M6">
-        <v>1.049502742910003</v>
+        <v>1.048903293580634</v>
       </c>
       <c r="N6">
-        <v>1.017566261880081</v>
+        <v>1.01780429669702</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04775045512529</v>
+        <v>1.047276035730679</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043032274600265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041862830475149</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023375114181109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022299631716194</v>
+        <v>1.021245568459568</v>
       </c>
       <c r="D7">
-        <v>1.034978648259704</v>
+        <v>1.033362402860112</v>
       </c>
       <c r="E7">
-        <v>1.032986017077583</v>
+        <v>1.032180701166402</v>
       </c>
       <c r="F7">
-        <v>1.039184455790892</v>
+        <v>1.038613225740573</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049783321304676</v>
+        <v>1.049053106032878</v>
       </c>
       <c r="J7">
-        <v>1.041143725748476</v>
+        <v>1.040115095262468</v>
       </c>
       <c r="K7">
-        <v>1.044669607696071</v>
+        <v>1.043071308618821</v>
       </c>
       <c r="L7">
-        <v>1.042699112033516</v>
+        <v>1.041902771965875</v>
       </c>
       <c r="M7">
-        <v>1.048829036567049</v>
+        <v>1.04826407855539</v>
       </c>
       <c r="N7">
-        <v>1.017347253772444</v>
+        <v>1.017673650671771</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047217266826599</v>
+        <v>1.046770144420669</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042673821590068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041554251426576</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023287694696155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017317350852131</v>
+        <v>1.016509088734129</v>
       </c>
       <c r="D8">
-        <v>1.031700402749054</v>
+        <v>1.030371170243431</v>
       </c>
       <c r="E8">
-        <v>1.028989138496998</v>
+        <v>1.028380041442781</v>
       </c>
       <c r="F8">
-        <v>1.035238866429224</v>
+        <v>1.034806241224977</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048588609645936</v>
+        <v>1.04801017470406</v>
       </c>
       <c r="J8">
-        <v>1.038434867759046</v>
+        <v>1.03764900039616</v>
       </c>
       <c r="K8">
-        <v>1.042467433014533</v>
+        <v>1.04115487882008</v>
       </c>
       <c r="L8">
-        <v>1.039790244879033</v>
+        <v>1.039188834012195</v>
       </c>
       <c r="M8">
-        <v>1.045961758490493</v>
+        <v>1.045534509603718</v>
       </c>
       <c r="N8">
-        <v>1.016407609521469</v>
+        <v>1.017049653143131</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044948025870309</v>
+        <v>1.044609889014401</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041121266141665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04020420298576</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022901029245582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008160948178318</v>
+        <v>1.007786654762367</v>
       </c>
       <c r="D9">
-        <v>1.025696245004895</v>
+        <v>1.024880156547216</v>
       </c>
       <c r="E9">
-        <v>1.021689781705266</v>
+        <v>1.021426053926808</v>
       </c>
       <c r="F9">
-        <v>1.028065095426877</v>
+        <v>1.027877307306679</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04632220180357</v>
+        <v>1.046011861711278</v>
       </c>
       <c r="J9">
-        <v>1.03342877754105</v>
+        <v>1.03306741113942</v>
       </c>
       <c r="K9">
-        <v>1.038385735209047</v>
+        <v>1.037582067524577</v>
       </c>
       <c r="L9">
-        <v>1.034440492803797</v>
+        <v>1.034180816426904</v>
       </c>
       <c r="M9">
-        <v>1.040718674278604</v>
+        <v>1.040533725297824</v>
       </c>
       <c r="N9">
-        <v>1.014667156663001</v>
+        <v>1.015798777311231</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040798489843963</v>
+        <v>1.040652115171878</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038232080832844</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037674555904866</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022155734585532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001885476268121</v>
+        <v>1.001853104565721</v>
       </c>
       <c r="D10">
-        <v>1.021617107455005</v>
+        <v>1.021184254853014</v>
       </c>
       <c r="E10">
-        <v>1.016780557811406</v>
+        <v>1.016789553210339</v>
       </c>
       <c r="F10">
-        <v>1.023323878323273</v>
+        <v>1.023330293532015</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044752522378416</v>
+        <v>1.044646381755166</v>
       </c>
       <c r="J10">
-        <v>1.030024486119332</v>
+        <v>1.029993392008739</v>
       </c>
       <c r="K10">
-        <v>1.035606727556655</v>
+        <v>1.035181272861325</v>
       </c>
       <c r="L10">
-        <v>1.030853302772148</v>
+        <v>1.030862142619304</v>
       </c>
       <c r="M10">
-        <v>1.037284406665878</v>
+        <v>1.037290712764318</v>
       </c>
       <c r="N10">
-        <v>1.013490826492229</v>
+        <v>1.015077465741316</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03813195328876</v>
+        <v>1.038136943847924</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036283938206044</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035995515286696</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021652426286784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9998292588299887</v>
+        <v>0.9999455340368713</v>
       </c>
       <c r="D11">
-        <v>1.020372176902271</v>
+        <v>1.020084864497014</v>
       </c>
       <c r="E11">
-        <v>1.015663179809281</v>
+        <v>1.015789423394918</v>
       </c>
       <c r="F11">
-        <v>1.022776084638357</v>
+        <v>1.022866029313446</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044410306181679</v>
+        <v>1.044384208029493</v>
       </c>
       <c r="J11">
-        <v>1.029209142560047</v>
+        <v>1.029320579032448</v>
       </c>
       <c r="K11">
-        <v>1.034919865308346</v>
+        <v>1.034637695736266</v>
       </c>
       <c r="L11">
-        <v>1.030295635536399</v>
+        <v>1.030419593260205</v>
       </c>
       <c r="M11">
-        <v>1.037280890531687</v>
+        <v>1.037369235790391</v>
       </c>
       <c r="N11">
-        <v>1.013272822338471</v>
+        <v>1.015169983265415</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.03856533454061</v>
+        <v>1.038635214579351</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03583110387979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035647203347395</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021588822055063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9993266194087346</v>
+        <v>0.9994776888179803</v>
       </c>
       <c r="D12">
-        <v>1.020107491905259</v>
+        <v>1.019850238670305</v>
       </c>
       <c r="E12">
-        <v>1.015628385605834</v>
+        <v>1.015780238044845</v>
       </c>
       <c r="F12">
-        <v>1.023127590261378</v>
+        <v>1.023235679615212</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044413896841104</v>
+        <v>1.04440322259263</v>
       </c>
       <c r="J12">
-        <v>1.029159505277104</v>
+        <v>1.029304170252537</v>
       </c>
       <c r="K12">
-        <v>1.034859343563728</v>
+        <v>1.03460677087356</v>
       </c>
       <c r="L12">
-        <v>1.030462172878832</v>
+        <v>1.030611232087013</v>
       </c>
       <c r="M12">
-        <v>1.037824722140536</v>
+        <v>1.037930860856087</v>
       </c>
       <c r="N12">
-        <v>1.01330634656421</v>
+        <v>1.015303326879865</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039321704319814</v>
+        <v>1.039405630382776</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.0357883131446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035625338964776</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021618409805438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9999987987662395</v>
+        <v>1.000085465460414</v>
       </c>
       <c r="D13">
-        <v>1.020595025381251</v>
+        <v>1.020270508416156</v>
       </c>
       <c r="E13">
-        <v>1.016436523379701</v>
+        <v>1.016534146854144</v>
       </c>
       <c r="F13">
-        <v>1.02421753399545</v>
+        <v>1.024286954288129</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044696574315795</v>
+        <v>1.044645796229247</v>
       </c>
       <c r="J13">
-        <v>1.029710588207091</v>
+        <v>1.029793600867182</v>
       </c>
       <c r="K13">
-        <v>1.035295268728572</v>
+        <v>1.034976629589823</v>
       </c>
       <c r="L13">
-        <v>1.031212457692989</v>
+        <v>1.031308295031585</v>
       </c>
       <c r="M13">
-        <v>1.038852492994474</v>
+        <v>1.038920668062335</v>
       </c>
       <c r="N13">
-        <v>1.013542919989796</v>
+        <v>1.015445137857003</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04041076945485</v>
+        <v>1.040464663369256</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036094036471699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035884103623605</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021725599324335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000998555841013</v>
+        <v>1.000996230764761</v>
       </c>
       <c r="D14">
-        <v>1.021276393446098</v>
+        <v>1.020861783866718</v>
       </c>
       <c r="E14">
-        <v>1.017377692772372</v>
+        <v>1.017402317716737</v>
       </c>
       <c r="F14">
-        <v>1.025307872272173</v>
+        <v>1.025325370829445</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045019801309405</v>
+        <v>1.044916601940177</v>
       </c>
       <c r="J14">
-        <v>1.03036544742121</v>
+        <v>1.030363218934781</v>
       </c>
       <c r="K14">
-        <v>1.035824379035658</v>
+        <v>1.035417184687303</v>
       </c>
       <c r="L14">
-        <v>1.031995716487909</v>
+        <v>1.032019896868062</v>
       </c>
       <c r="M14">
-        <v>1.039784160999175</v>
+        <v>1.039801349951544</v>
       </c>
       <c r="N14">
-        <v>1.013799630662936</v>
+        <v>1.015549147221123</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04132037019562</v>
+        <v>1.041333956619034</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036469556309263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036197144440515</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021836072686405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001505247438651</v>
+        <v>1.0014601762085</v>
       </c>
       <c r="D15">
-        <v>1.021613968010492</v>
+        <v>1.021156534761764</v>
       </c>
       <c r="E15">
-        <v>1.017804569109776</v>
+        <v>1.017794605301365</v>
       </c>
       <c r="F15">
-        <v>1.025758380226558</v>
+        <v>1.025751301443475</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045164239746113</v>
+        <v>1.045036514733499</v>
       </c>
       <c r="J15">
-        <v>1.030664829422187</v>
+        <v>1.0306216140259</v>
       </c>
       <c r="K15">
-        <v>1.036069741842376</v>
+        <v>1.03562042737642</v>
       </c>
       <c r="L15">
-        <v>1.032328243514953</v>
+        <v>1.032318458171949</v>
       </c>
       <c r="M15">
-        <v>1.04014102433642</v>
+        <v>1.040134069808266</v>
       </c>
       <c r="N15">
-        <v>1.013910071013933</v>
+        <v>1.015582263302012</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041639928701977</v>
+        <v>1.041634431875438</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036648896307494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036347272411634</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021882677491845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004023967705094</v>
+        <v>1.00378774685215</v>
       </c>
       <c r="D16">
-        <v>1.023240398331072</v>
+        <v>1.022590422547558</v>
       </c>
       <c r="E16">
-        <v>1.019724704621604</v>
+        <v>1.019562364125173</v>
       </c>
       <c r="F16">
-        <v>1.027590818765803</v>
+        <v>1.027475546333284</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045783507762581</v>
+        <v>1.045548400944742</v>
       </c>
       <c r="J16">
-        <v>1.032002559968179</v>
+        <v>1.031775578820241</v>
       </c>
       <c r="K16">
-        <v>1.037166862537947</v>
+        <v>1.036527920759676</v>
       </c>
       <c r="L16">
-        <v>1.033711068049333</v>
+        <v>1.03355150634935</v>
       </c>
       <c r="M16">
-        <v>1.04144389343269</v>
+        <v>1.0413305552581</v>
       </c>
       <c r="N16">
-        <v>1.014363707693384</v>
+        <v>1.01568274430254</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042631049804893</v>
+        <v>1.042541465275337</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037427757181347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03699235824982</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.0220661492663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005436904254986</v>
+        <v>1.005110519042713</v>
       </c>
       <c r="D17">
-        <v>1.024135384038783</v>
+        <v>1.023391940298616</v>
       </c>
       <c r="E17">
-        <v>1.020709002531774</v>
+        <v>1.020475726615377</v>
       </c>
       <c r="F17">
-        <v>1.028422384920656</v>
+        <v>1.028256750038995</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046088715584452</v>
+        <v>1.04580323958303</v>
       </c>
       <c r="J17">
-        <v>1.032687741720591</v>
+        <v>1.03237371429314</v>
       </c>
       <c r="K17">
-        <v>1.037733064776242</v>
+        <v>1.037001889214508</v>
       </c>
       <c r="L17">
-        <v>1.034363416213746</v>
+        <v>1.034134020646528</v>
       </c>
       <c r="M17">
-        <v>1.041949766984454</v>
+        <v>1.041786834210565</v>
       </c>
       <c r="N17">
-        <v>1.01457781165148</v>
+        <v>1.015735485952283</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042902059785852</v>
+        <v>1.042773261997477</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037830664447464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037330300253807</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022150873494361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00600809570158</v>
+        <v>1.005658700724683</v>
       </c>
       <c r="D18">
-        <v>1.02446060082998</v>
+        <v>1.023692431696104</v>
       </c>
       <c r="E18">
-        <v>1.020930746940172</v>
+        <v>1.020680684341355</v>
       </c>
       <c r="F18">
-        <v>1.028388480620382</v>
+        <v>1.028210838104914</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046138044077767</v>
+        <v>1.045841168554491</v>
       </c>
       <c r="J18">
-        <v>1.032846030289427</v>
+        <v>1.032509620612492</v>
       </c>
       <c r="K18">
-        <v>1.037870060038448</v>
+        <v>1.037114361783272</v>
       </c>
       <c r="L18">
-        <v>1.034397710994198</v>
+        <v>1.03415174155925</v>
       </c>
       <c r="M18">
-        <v>1.041734545997758</v>
+        <v>1.041559757120993</v>
       </c>
       <c r="N18">
-        <v>1.014593492865926</v>
+        <v>1.015704048611739</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042494596582078</v>
+        <v>1.042356397887816</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037915912767589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037397074809939</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022148503848842</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005832578842189</v>
+        <v>1.005511793219541</v>
       </c>
       <c r="D19">
-        <v>1.024292674364174</v>
+        <v>1.023554980625676</v>
       </c>
       <c r="E19">
-        <v>1.020464114526218</v>
+        <v>1.020238720598813</v>
       </c>
       <c r="F19">
-        <v>1.02755937176973</v>
+        <v>1.02739908718151</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04597078198226</v>
+        <v>1.045692970303268</v>
       </c>
       <c r="J19">
-        <v>1.032543684809123</v>
+        <v>1.032234756950932</v>
       </c>
       <c r="K19">
-        <v>1.037642489553141</v>
+        <v>1.036916712645119</v>
       </c>
       <c r="L19">
-        <v>1.033876017606413</v>
+        <v>1.03365429756266</v>
       </c>
       <c r="M19">
-        <v>1.040856679865778</v>
+        <v>1.04069896161491</v>
       </c>
       <c r="N19">
-        <v>1.014441318877469</v>
+        <v>1.015583950198996</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041475402061278</v>
+        <v>1.041350659815851</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037761396171042</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037264339787805</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022074199978958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003545945286476</v>
+        <v>1.003396693615558</v>
       </c>
       <c r="D20">
-        <v>1.022713411980446</v>
+        <v>1.022159584096001</v>
       </c>
       <c r="E20">
-        <v>1.018081462777311</v>
+        <v>1.01799624586561</v>
       </c>
       <c r="F20">
-        <v>1.024575602414296</v>
+        <v>1.024514853995541</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045185455451281</v>
+        <v>1.045011706875604</v>
       </c>
       <c r="J20">
-        <v>1.030940857712282</v>
+        <v>1.03079730344699</v>
       </c>
       <c r="K20">
-        <v>1.036368294744549</v>
+        <v>1.03582366266227</v>
       </c>
       <c r="L20">
-        <v>1.031813651972379</v>
+        <v>1.031729865813032</v>
       </c>
       <c r="M20">
-        <v>1.038199659046286</v>
+        <v>1.038139913962887</v>
       </c>
       <c r="N20">
-        <v>1.013812731565535</v>
+        <v>1.015201052854521</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038845726006236</v>
+        <v>1.038798444011497</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036864412088584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036495825053254</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021790486381846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9986936821972706</v>
+        <v>0.9989380169749675</v>
       </c>
       <c r="D21">
-        <v>1.019549646194448</v>
+        <v>1.019390874532425</v>
       </c>
       <c r="E21">
-        <v>1.01420483407954</v>
+        <v>1.014438585355217</v>
       </c>
       <c r="F21">
-        <v>1.020735125846753</v>
+        <v>1.020902012000168</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043922654527466</v>
+        <v>1.04397385881119</v>
       </c>
       <c r="J21">
-        <v>1.028246121735015</v>
+        <v>1.028480206462587</v>
       </c>
       <c r="K21">
-        <v>1.034169874498785</v>
+        <v>1.034013963337851</v>
       </c>
       <c r="L21">
-        <v>1.028921997888151</v>
+        <v>1.029151481960447</v>
       </c>
       <c r="M21">
-        <v>1.035334032566087</v>
+        <v>1.03549792233455</v>
       </c>
       <c r="N21">
-        <v>1.012869452714841</v>
+        <v>1.014984426130222</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036536896072382</v>
+        <v>1.036666604542138</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035313277873431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035219862148564</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.0214089938249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.995611081420186</v>
+        <v>0.9961057779676974</v>
       </c>
       <c r="D22">
-        <v>1.017543153028261</v>
+        <v>1.017635744805666</v>
       </c>
       <c r="E22">
-        <v>1.011779124675854</v>
+        <v>1.0122162187469</v>
       </c>
       <c r="F22">
-        <v>1.018371874322851</v>
+        <v>1.01868420841716</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043117632816909</v>
+        <v>1.043312189973089</v>
       </c>
       <c r="J22">
-        <v>1.026545124478662</v>
+        <v>1.02701784895453</v>
       </c>
       <c r="K22">
-        <v>1.032774907587864</v>
+        <v>1.032865747046446</v>
       </c>
       <c r="L22">
-        <v>1.027120791475324</v>
+        <v>1.027549493327231</v>
       </c>
       <c r="M22">
-        <v>1.033587959973111</v>
+        <v>1.033894397306152</v>
       </c>
       <c r="N22">
-        <v>1.012275406009374</v>
+        <v>1.014844175419007</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035154987686322</v>
+        <v>1.035397514063894</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034313480841422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034393232054153</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021165979656568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9972396681488871</v>
+        <v>0.9975875529762219</v>
       </c>
       <c r="D23">
-        <v>1.018596030775918</v>
+        <v>1.018544562631466</v>
       </c>
       <c r="E23">
-        <v>1.013059244504897</v>
+        <v>1.013376687303831</v>
       </c>
       <c r="F23">
-        <v>1.01962120020011</v>
+        <v>1.019847929996016</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043538721134834</v>
+        <v>1.043649948171399</v>
       </c>
       <c r="J23">
-        <v>1.027439225025019</v>
+        <v>1.027772115301803</v>
       </c>
       <c r="K23">
-        <v>1.033503387736893</v>
+        <v>1.033452868782696</v>
       </c>
       <c r="L23">
-        <v>1.028069434196542</v>
+        <v>1.028380941610378</v>
       </c>
       <c r="M23">
-        <v>1.034509676702466</v>
+        <v>1.034732237512485</v>
       </c>
       <c r="N23">
-        <v>1.012585833138556</v>
+        <v>1.014870975555069</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035884469764735</v>
+        <v>1.036060612839172</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034818915521011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034797777466543</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021287353736643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003538764876626</v>
+        <v>1.00339220044034</v>
       </c>
       <c r="D24">
-        <v>1.022690954592121</v>
+        <v>1.022139840766187</v>
       </c>
       <c r="E24">
-        <v>1.018027942559419</v>
+        <v>1.017945177078506</v>
       </c>
       <c r="F24">
-        <v>1.024474696401433</v>
+        <v>1.024415686871861</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045159416160979</v>
+        <v>1.044987607477039</v>
       </c>
       <c r="J24">
-        <v>1.030901270172634</v>
+        <v>1.030760292802946</v>
       </c>
       <c r="K24">
-        <v>1.036330974361416</v>
+        <v>1.035789000036643</v>
       </c>
       <c r="L24">
-        <v>1.031745694904055</v>
+        <v>1.031664317418565</v>
       </c>
       <c r="M24">
-        <v>1.038085221894069</v>
+        <v>1.038027185976823</v>
       </c>
       <c r="N24">
-        <v>1.013790702979325</v>
+        <v>1.015180976968348</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038714286694475</v>
+        <v>1.038668355041534</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036810656199533</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036441275708906</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021776339500659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010592181506889</v>
+        <v>1.010089895594898</v>
       </c>
       <c r="D25">
-        <v>1.027297898165812</v>
+        <v>1.026336349476886</v>
       </c>
       <c r="E25">
-        <v>1.02362303921918</v>
+        <v>1.023257067918961</v>
       </c>
       <c r="F25">
-        <v>1.029957428239787</v>
+        <v>1.029697010701579</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046939641613976</v>
+        <v>1.046551824557524</v>
       </c>
       <c r="J25">
-        <v>1.034768260039114</v>
+        <v>1.034282401263386</v>
       </c>
       <c r="K25">
-        <v>1.039486729479048</v>
+        <v>1.038539135177792</v>
       </c>
       <c r="L25">
-        <v>1.035865380972886</v>
+        <v>1.035504765369613</v>
       </c>
       <c r="M25">
-        <v>1.042107835263685</v>
+        <v>1.041851169073674</v>
       </c>
       <c r="N25">
-        <v>1.015135835459759</v>
+        <v>1.01610181458677</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041897916331634</v>
+        <v>1.04169478261568</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039039071118238</v>
+        <v>1.038382586222606</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022359376046467</v>
       </c>
     </row>
   </sheetData>
